--- a/data/zakopane.xlsx
+++ b/data/zakopane.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="590">
   <si>
     <t>ID</t>
   </si>
@@ -574,8 +574,1325 @@
     <t>To jedna z nielicznych okazji, by poczuć adrenalinę zjazdu ze skoczni, którą na co dzień wykorzystują najlepsi skoczkowie narciarscy w kraju. Idealny wybór dla osób szukających aktywnych rozrywek poza standardowym zwiedzaniem.</t>
   </si>
   <si>
-    <t>"date_from": "06-01",
-"date_to": "09-30",
+    <t xml:space="preserve">Bilet normalny: 89 zł 
+Bilet ulgowy: 49 zł 
+</t>
+  </si>
+  <si>
+    <t>ul. Bronisława Czecha, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.28009040</t>
+  </si>
+  <si>
+    <t>19.96325390</t>
+  </si>
+  <si>
+    <t>https://zakoatrakcje.pl/atrakcja/atrakcje-na-skoczni/</t>
+  </si>
+  <si>
+    <t>12:00-14:00</t>
+  </si>
+  <si>
+    <t>morning, afternoon</t>
+  </si>
+  <si>
+    <t>active_sport, kids_attractions</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>spring,
+summer</t>
+  </si>
+  <si>
+    <t>Ubierz się wygodnie i nie zapomnij o ciepłej odzieży – nawet latem warunki na skoczni bywają chłodne.</t>
+  </si>
+  <si>
+    <t>Parking miejski</t>
+  </si>
+  <si>
+    <t>Józefa Piłsudskiego 28-32, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.28225573159638</t>
+  </si>
+  <si>
+    <t>19.964482953943094</t>
+  </si>
+  <si>
+    <t>rozrywka, adrenalina, familijna atrakcja, sport, skocznia narciarska</t>
+  </si>
+  <si>
+    <t>Góralski Ślizg</t>
+  </si>
+  <si>
+    <t>Tor saneczkowy przeznaczony dla dzieci i dorosłych, oferujący zjazdy na specjalnych sankach po wyznaczonej trasie.</t>
+  </si>
+  <si>
+    <t>Góralski Ślizg to popularna atrakcja w Zakopanem, pozwalająca poczuć dreszczyk emocji z jazdy na torze saneczkowym. Obiekt został stworzony z myślą o rozrywce dla całych rodzin, zapewniając zarówno bezpieczeństwo, jak i dobrą zabawę. Tor jest zaprojektowany w taki sposób, by dostarczać wrażeń, ale jednocześnie być przystępnym i dla dzieci, i dla dorosłych.</t>
+  </si>
+  <si>
+    <t>To świetna forma aktywności na świeżym powietrzu, idealna na spędzenie czasu z rodziną lub znajomymi, szczególnie po dniu górskich wędrówek. Atrakcja ta pozwala na poczucie adrenaliny i radości niezależnie od wieku.</t>
+  </si>
+  <si>
+    <t>1 zjadz: 5 zł 
+5 zjazdów: 15 zł 
+10 zjazdów: 20 zł</t>
+  </si>
+  <si>
+    <t>Na Gubałówkę, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29811740</t>
+  </si>
+  <si>
+    <t>19.94560430</t>
+  </si>
+  <si>
+    <t>https://zakoatrakcje.pl/atrakcja/goralski-slizg/</t>
+  </si>
+  <si>
+    <t>11:00-13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+family_kids</t>
+  </si>
+  <si>
+    <t>Warto zabrać ze sobą ciepłe ubrania, nawet latem, gdyż tor prowadzi przez chłodniejsze, zacienione miejsca.</t>
+  </si>
+  <si>
+    <t>Parking pod Gubalówką</t>
+  </si>
+  <si>
+    <t>Szkolna 2a, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.29884500451914</t>
+  </si>
+  <si>
+    <t>19.947106333779605</t>
+  </si>
+  <si>
+    <t>Zakopane, rodzina, rozrywka, sport, adrenalina, dzieci</t>
+  </si>
+  <si>
+    <t>Tatra Family</t>
+  </si>
+  <si>
+    <t>Rodzinny park rozrywki oferujący liczne atrakcje dla dzieci i dorosłych.</t>
+  </si>
+  <si>
+    <t>Tatra Family to park rozrywki zlokalizowany w Zakopanem, który zapewnia różnorodne formy zabawy i rekreacji dla całych rodzin. Na terenie obiektu znajdują się liczne place zabaw, ścianki wspinaczkowe, trampoliny, dmuchańce oraz inne atrakcje dopasowane do różnych grup wiekowych. Jest to idealne miejsce na rodzinne spędzanie czasu, szczególnie podczas słonecznych dni w sercu Tatr.</t>
+  </si>
+  <si>
+    <t>Wizyta w Tatra Family to świetna okazja do aktywnego spędzenia czasu z rodziną i zapewnienia dzieciom niezapomnianej zabawy w bezpiecznym otoczeniu.</t>
+  </si>
+  <si>
+    <t>mon:10:00-20:00,
+tue:10:00-20:00,
+wed:12:00-19:00,
+thu:12:00-19:00,
+fri:12:00-19:00,
+sat: 10:00-20:00,
+sun:10:00-20:00,</t>
+  </si>
+  <si>
+    <t>Godzina: 32,00 zł</t>
+  </si>
+  <si>
+    <t>Szymony 17B, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.30504380</t>
+  </si>
+  <si>
+    <t>19.96601410</t>
+  </si>
+  <si>
+    <t>brak</t>
+  </si>
+  <si>
+    <t>11:00-14:00</t>
+  </si>
+  <si>
+    <t>3-6, 6-10</t>
+  </si>
+  <si>
+    <t>theme_park, kids_attractions</t>
+  </si>
+  <si>
+    <t>Warto zabrać ze sobą wygodne ubrania i buty, ponieważ niektóre atrakcje wymagają ruchu i aktywności fizycznej.</t>
+  </si>
+  <si>
+    <t>Szymony 17B, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.30482967453035</t>
+  </si>
+  <si>
+    <t>19.966056891921436</t>
+  </si>
+  <si>
+    <t>rozrywka, dla dzieci, rodzina, park rozrywki, Zakopane</t>
+  </si>
+  <si>
+    <t>Park Harnasia</t>
+  </si>
+  <si>
+    <t>Kameralny park miejski z placem zabaw i terenami zielonymi.</t>
+  </si>
+  <si>
+    <t>Park Harnasia to niewielki, lecz bardzo lubiany przez mieszkańców i turystów park miejski w Zakopanem. Na terenie parku znajdują się alejki spacerowe, plac zabaw dla dzieci oraz ławki, które umożliwiają odpoczynek po intensywnym zwiedzaniu. To dobre miejsce na krótki relaks na świeżym powietrzu, zwłaszcza dla rodzin z dziećmi lub osób chcących zaczerpnąć chwili spokoju z dala od zatłoczonych ulic centrum Zakopanego.</t>
+  </si>
+  <si>
+    <t>Warto odwiedzić Park Harnasia, by odpocząć wśród zieleni, zrelaksować się lub pozwolić dzieciom pobawić się na placu zabaw. To świetny punkt na chwilę wytchnienia podczas zwiedzania Zakopanego.</t>
+  </si>
+  <si>
+    <t>1 godzina: 45,00 zł; Dwie godziny: 70,00 zł</t>
+  </si>
+  <si>
+    <t>Krupówki 14a, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29501590</t>
+  </si>
+  <si>
+    <t>19.95129910</t>
+  </si>
+  <si>
+    <t>https://parkharnasia.com/kontakt/</t>
+  </si>
+  <si>
+    <t>https://parkharnasia.com/cennik/</t>
+  </si>
+  <si>
+    <t>family_kids</t>
+  </si>
+  <si>
+    <t>Zabierz ze sobą przekąski i napoje, aby urządzić mały piknik na jednej z ławek lub na trawie.</t>
+  </si>
+  <si>
+    <t>park, atrakcja dla dzieci, zabawa, plac zabaw</t>
+  </si>
+  <si>
+    <t>DINO PARK</t>
+  </si>
+  <si>
+    <t>Park tematyczny z modelami dinozaurów w naturalnych rozmiarach.</t>
+  </si>
+  <si>
+    <t>DINO PARK to rodzinny park rozrywki, w którym odwiedzający mogą spacerować wśród realistycznych modeli dinozaurów ustawionych w leśnej scenerii. Park oferuje także dodatkowe atrakcje, takie jak plac zabaw, kino 5D oraz interaktywne wystawy związane z prehistorycznym światem. To doskonałe miejsce zarówno dla dzieci, jak i dorosłych, chcących dowiedzieć się więcej o dinozaurach i aktywnie spędzić czas na świeżym powietrzu.</t>
+  </si>
+  <si>
+    <t>To idealna atrakcja dla rodzin z dziećmi oraz wszystkich miłośników paleontologii i dinozaurów. Pozwala na edukację poprzez zabawę i kontakt z naturą.</t>
+  </si>
+  <si>
+    <t>brak danych</t>
+  </si>
+  <si>
+    <t>Józefa Piłsudskiego, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.28381500</t>
+  </si>
+  <si>
+    <t>19.96443040</t>
+  </si>
+  <si>
+    <t>Warto zabrać ze sobą wygodne obuwie do chodzenia po leśnych ścieżkach oraz aparat fotograficzny – modele dinozaurów robią duże wrażenie na zdjęciach.</t>
+  </si>
+  <si>
+    <t>Parking pod skocznią</t>
+  </si>
+  <si>
+    <t>Karola Szymanowskiego k/17, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.28371636121852</t>
+  </si>
+  <si>
+    <t>19.964933200354505</t>
+  </si>
+  <si>
+    <t>dinozaury, rodzina, dzieci, park tematyczny, rozrywka, edukacja</t>
+  </si>
+  <si>
+    <t>Illusion House</t>
+  </si>
+  <si>
+    <t>Interaktywna wystawa poświęcona iluzjom optycznym, zjawiskom fizycznym i zagadkom percepcji.</t>
+  </si>
+  <si>
+    <t>Illusion House w Zakopanem to miejsce pełne zagadek optycznych, interaktywnych eksponatów i zabawnych instalacji, które wprowadzają odwiedzających w świat iluzji i nauki o percepcji wzrokowej. Wystawa pozwala spojrzeć na świat z zupełnie innej perspektywy dzięki licznym pokojom luster, złudzeniom optycznym oraz zadaniom angażującym dzieci i dorosłych. To doskonała atrakcja na każdą pogodę, która łączy zabawę z edukacją.</t>
+  </si>
+  <si>
+    <t>Wizyta w Domu Iluzji to nie tylko świetna zabawa, ale też możliwość poznania tajników działania naszego mózgu i zmysłów. To idealne miejsce na rodzinny wypad lub rozrywkę podczas brzydszej pogody w Zakopanem.</t>
+  </si>
+  <si>
+    <t>mon:10:00-18:00,
+tue:10:00-18:00,
+wed: 10:00-18:00,
+thu:10:00-18:00,
+fri:10:00-18:00,
+sat: 10:00-18:00,
+sun:10:00-18:00,</t>
+  </si>
+  <si>
+    <t>Bilet normalny: 45,00 zł: Bilet ulgowy: 40,00 zł</t>
+  </si>
+  <si>
+    <t>DH GRANIT, Tadeusza Kościuszki 3, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29574170</t>
+  </si>
+  <si>
+    <t>19.95285450</t>
+  </si>
+  <si>
+    <t>https://www.illusionhouse.pl/</t>
+  </si>
+  <si>
+    <t>Warto zabrać aparat fotograficzny – wiele iluzji robi świetne wrażenie na zdjęciach!</t>
+  </si>
+  <si>
+    <t>Parknig Krupówki Zakopane</t>
+  </si>
+  <si>
+    <t>Tadeusza Kościuszki 3, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.29563664460791</t>
+  </si>
+  <si>
+    <t>19.953026140854238</t>
+  </si>
+  <si>
+    <t>iluzje, interaktywne, rozrywka, rodzinne, nauka</t>
+  </si>
+  <si>
+    <t>Dom do góry nogami</t>
+  </si>
+  <si>
+    <t>Nietypowy budynek, w którym wszystko stoi na głowie – atrakcja dla całej rodziny.</t>
+  </si>
+  <si>
+    <t>Dom do góry nogami to oryginalna atrakcja turystyczna w Zakopanem, która przyciąga zarówno dzieci, jak i dorosłych. Konstrukcja domu została postawiona na dachu, przez co całe wyposażenie wnętrza również znajduje się ‘do góry nogami’. Zwiedzający mogą wejść do środka i poczuć fascynujące wrażenie dezorientacji – chodzenie po suficie i zrobienie niezwykłych zdjęć gwarantuje niezapomniane przeżycia.</t>
+  </si>
+  <si>
+    <t>To idealne miejsce na nietypową rozrywkę i sesję zdjęciową – zaskakuje i bawi zarówno najmłodszych, jak i starszych turystów.</t>
+  </si>
+  <si>
+    <t>bilet normalny: 21 zł, bilet ulgowy: 17 zł, dzieci do lat 3: wstęp bezpłatny</t>
+  </si>
+  <si>
+    <t>Aleje 3-go Maja, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29396910</t>
+  </si>
+  <si>
+    <t>19.95717900</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>kids_attractions, museum_heritage</t>
+  </si>
+  <si>
+    <t>Zabierz ze sobą aparat lub telefon z pełną baterią – zdjęcia z tej atrakcji są wyjątkowe i na długo pozostaną w pamięci.</t>
+  </si>
+  <si>
+    <t>Parking przy domu do góry nogami</t>
+  </si>
+  <si>
+    <t>Aleje 3-go Maja, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.29421509759925</t>
+  </si>
+  <si>
+    <t>19.956561670497106</t>
+  </si>
+  <si>
+    <t>rozrywka, atrakcja dla dzieci, rodzinne, nietypowe, fotopunkt, interaktywne</t>
+  </si>
+  <si>
+    <t>Plac zabaw na Górnej Równi Krupowej</t>
+  </si>
+  <si>
+    <t>Nowoczesny plac zabaw położony na rozległej Górnej Równi Krupowej w Zakopanem.</t>
+  </si>
+  <si>
+    <t>Plac zabaw na Górnej Równi Krupowej to znakomicie wyposażone miejsce dla dzieci w sercu Zakopanego. Położony na otwartej przestrzeni parku, oferuje nowoczesne zestawy zabawowe, zjeżdżalnie, huśtawki, drabinki oraz bezpieczną nawierzchnię. Ogromnym atutem jest rozległy teren wokół, który sprzyja rodzinnym piknikom, spacerom i odpoczynkowi z widokiem na Tatry.</t>
+  </si>
+  <si>
+    <t>To idealne miejsce na odpoczynek i zabawę dla dzieci po zwiedzaniu Zakopanego. Malownicze położenie oraz czyste, przestronne otoczenie sprzyjają relaksowi i rekreacji całych rodzin.</t>
+  </si>
+  <si>
+    <t>mon:8:00-20:00,
+tue:8:00-20:00,
+wed:8:00-20:00,
+thu:8:00-20:00,
+fri:8:00-20:00,
+sat:8:00-20:00,
+sun:8:00-20:00,</t>
+  </si>
+  <si>
+    <t>wstęp bezpłatny</t>
+  </si>
+  <si>
+    <t>Henryka Sienkiewicza 26C, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29374480</t>
+  </si>
+  <si>
+    <t>19.95966610</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>Warto zabrać koc piknikowy – teren wokół placu zabaw jest doskonały na rodzinny lunch na świeżym powietrzu.</t>
+  </si>
+  <si>
+    <t>Aleje 3-go Maja 9, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.29324569432775</t>
+  </si>
+  <si>
+    <t>19.958220720858836</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>plac zabaw, park, rodzina, dzieci, relaks, rekreacja, spacer</t>
+  </si>
+  <si>
+    <t>Termy Zakopiańskie</t>
+  </si>
+  <si>
+    <t>Nowoczesny kompleks rekreacyjny z basenami, strefą spa i atrakcjami wodnymi.</t>
+  </si>
+  <si>
+    <t>Termy Zakopiańskie to popularny kompleks rekreacyjno-sportowy w Zakopanem, oferujący kryte i odkryte baseny, zjeżdżalnie, strefę saun, centrum spa, kręgielnię, siłownię oraz kilka punktów gastronomicznych. Jest to idealne miejsce zarówno na relaks, jak i aktywne spędzanie czasu, niezależnie od pogody. Park wodny zapewnia rozrywkę dla rodzin z dziećmi, grup znajomych oraz osób szukających odprężenia po dniu spędzonym w górach.</t>
+  </si>
+  <si>
+    <t>Wizyta w Termach Zakopiańskich to okazja do zabawy i relaksu w wodzie, niezależnie od warunków pogodowych. Można tu korzystać z wielu atrakcji basenowych i wellness oraz zjeść smaczny posiłek.</t>
+  </si>
+  <si>
+    <t>mon:9:00-22:00,
+tue:9:00-22:00,
+wed:9:00-22:00,
+thu:9:00-22:00,
+fri:9:00-22:00,
+sat:9:00-22:00,
+sun:9:00-22:00,</t>
+  </si>
+  <si>
+    <t>Bilet normalny/1h: 49,00 zł; Bilet ulgowy/1h: 39,00 zł</t>
+  </si>
+  <si>
+    <t>Jagiellońska 31, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29510460</t>
+  </si>
+  <si>
+    <t>19.96564240</t>
+  </si>
+  <si>
+    <t>https://www.termy-zakopianskie.pl/</t>
+  </si>
+  <si>
+    <t>https://www.termy-zakopianskie.pl/cennik</t>
+  </si>
+  <si>
+    <t>water_attractions, kids_attractions, relaxation</t>
+  </si>
+  <si>
+    <t>Warto przyjechać w godzinach porannych lub późnym popołudniem, aby uniknąć największych tłumów.</t>
+  </si>
+  <si>
+    <t>49.29485863239372</t>
+  </si>
+  <si>
+    <t>19.964700308910963</t>
+  </si>
+  <si>
+    <t>basen, spa, sauna, rekreacja, zjeżdżalnia, kręgielnia, siłownia, restauracja</t>
+  </si>
+  <si>
+    <t>Termy Gorący Potok</t>
+  </si>
+  <si>
+    <t>Kompleks basenów termalnych z wodami geotermalnymi i strefą relaksu.</t>
+  </si>
+  <si>
+    <t>Termy Gorący Potok to nowoczesny kompleks basenów termalnych położony w Białym Dunajcu. Ośrodek oferuje wiele niecek z wodą geotermalną o różnych temperaturach, zjeżdżalnie wodne, sauny, strefę spa oraz specjalne atrakcje dla dzieci. Wody bogate w minerały mają właściwości zdrowotne i relaksacyjne. Na terenie obiektu znajdują się także restauracje i bary, dzięki czemu to doskonałe miejsce na wypoczynek dla całej rodziny niezależnie od pogody.</t>
+  </si>
+  <si>
+    <t>Wizyta pozwala zrelaksować się w ciepłych wodach termalnych, korzystać z leczniczych i relaksacyjnych właściwości wód oraz atrakcji dostępnych na terenie kompleksu.</t>
+  </si>
+  <si>
+    <t>mon:11:00-22:00,
+tue:11:00-22:00,
+wed:11:00-22:00,
+thu:11:00-22:00,
+fri:11:00-22:00,
+sat:9:00-22:00,
+sun:9:00-22:00,</t>
+  </si>
+  <si>
+    <t>Bilet normalny/1,5h: 59,00 zł; Bilet ulgowy/1,5h: 45,00 zł</t>
+  </si>
+  <si>
+    <t>os. Nowe 45, 34-424 Szaflary, Poland</t>
+  </si>
+  <si>
+    <t>49.39995830</t>
+  </si>
+  <si>
+    <t>20.02259180</t>
+  </si>
+  <si>
+    <t>https://goracypotok.pl/kontakt/</t>
+  </si>
+  <si>
+    <t>https://goracypotok.pl/cennik/</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>Szaflary</t>
+  </si>
+  <si>
+    <t>Warto przyjechać w tygodniu, by uniknąć większych tłumów i w pełni korzystać ze wszystkich atrakcji.</t>
+  </si>
+  <si>
+    <t>os. Nowe 45, 34-424 Szaflary</t>
+  </si>
+  <si>
+    <t>49.39962067618252</t>
+  </si>
+  <si>
+    <t>20.02184613839256</t>
+  </si>
+  <si>
+    <t>baseny termalne, spa, relaks, atrakcje rodzinne, sauny, zjeżdżalnie, wellness</t>
+  </si>
+  <si>
+    <t>Chochołowskie Termy</t>
+  </si>
+  <si>
+    <t>Duży kompleks basenów termalnych i spa oferujący relaks i rozrywkę w Chochołowie.</t>
+  </si>
+  <si>
+    <t>Chochołowskie Termy to największy kompleks basenów termalnych na Podhalu, znajdujący się w malowniczej miejscowości Chochołów. Obiekt oferuje bogatą gamę atrakcji wodnych, w tym liczne baseny wewnętrzne i zewnętrzne z wodą termalną, strefę saun, spa, a także zjeżdżalnie, strefy zabaw dla dzieci i siłownię. Na terenie term znajdują się również restauracje i bary. To idealne miejsce zarówno na rodzinny wypoczynek, jak i regenerację sił po górskich wędrówkach.</t>
+  </si>
+  <si>
+    <t>To doskonałe miejsce na relaks i rekreację przez cały rok, z licznymi udogodnieniami dla rodzin, par i miłośników sportu. Naturalna woda termalna wpływa korzystnie na zdrowie i samopoczucie, a bogata strefa spa i saun zapewnia głęboki relaks.</t>
+  </si>
+  <si>
+    <t>w zależności od czasu pobytu i strefy; Bilet normalny/3h: 89 zł; Bilet ulgowy/3h: 59,00 zł</t>
+  </si>
+  <si>
+    <t>Chochołów 400, 34-513 Witów, Poland</t>
+  </si>
+  <si>
+    <t>49.35182550</t>
+  </si>
+  <si>
+    <t>19.82311990</t>
+  </si>
+  <si>
+    <t>https://www.chocholowskietermy.pl/uncategorized/godziny-otwarcia-w-dni-swiateczne-2/</t>
+  </si>
+  <si>
+    <t>https://www.chocholowskietermy.pl/sklep/</t>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+  </si>
+  <si>
+    <t>Chochołów</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Warto wybrać się w godzinach porannych lub wieczornych, by uniknąć największego tłoku i móc w pełni korzystać z atrakcji term oraz podziwiać widok na Tatry.</t>
+  </si>
+  <si>
+    <t>Parking Termy Chochołów</t>
+  </si>
+  <si>
+    <t>315, 34-513 Chochołów</t>
+  </si>
+  <si>
+    <t>49.3520575535073</t>
+  </si>
+  <si>
+    <t>19.821758970641643</t>
+  </si>
+  <si>
+    <t>baseny termalne, spa, sauny, relaks, rodzina, dzieci, wellness, woda mineralna</t>
+  </si>
+  <si>
+    <t>Terma Bania</t>
+  </si>
+  <si>
+    <t>Kompleks basenów termalnych i stref rekreacyjnych z widokiem na Tatry.</t>
+  </si>
+  <si>
+    <t>Terma Bania to nowoczesny kompleks kąpielisk termalnych w Białce Tatrzańskiej. Obejmuje strefy rekreacyjne, baseny termalne zewnętrzne i wewnętrzne, zjeżdżalnie, sauny oraz strefę SPA. Woda termalna wydobywana z głębokich odwiertów jest bogata w minerały i ma właściwości zdrowotne. Obiekt oferuje relaks zarówno dla rodzin, jak i osób szukających odprężenia. Latem oraz zimą zapewnia liczne atrakcje wodne oraz przestrzeń do wypoczynku z widokiem na Tatry.</t>
+  </si>
+  <si>
+    <t>To idealne miejsce na relaks w wodach termalnych z pięknym widokiem na góry, a także rozrywkę dla całej rodziny.</t>
+  </si>
+  <si>
+    <t>Bilet normalny: 95/105 zł; Bilet ulgowy: 75/85 zł</t>
+  </si>
+  <si>
+    <t>Środkowa 181, 34-405 Białka Tatrzańska, Poland</t>
+  </si>
+  <si>
+    <t>49.38782090</t>
+  </si>
+  <si>
+    <t>20.09909540</t>
+  </si>
+  <si>
+    <t>https://www.termabania.pl/</t>
+  </si>
+  <si>
+    <t>https://www.termabania.pl/cennik</t>
+  </si>
+  <si>
+    <t>Białka Tatrzańska</t>
+  </si>
+  <si>
+    <t>Warto odwiedzić termy poza sezonem wysokim, aby uniknąć tłumów i w pełni zrelaksować się w strefie saun.</t>
+  </si>
+  <si>
+    <t>Parking Terma Bania</t>
+  </si>
+  <si>
+    <t>49.38778654963126</t>
+  </si>
+  <si>
+    <t>20.100391848083316</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>termalne, baseny, relaks, spa, rodzina, góry, sauny</t>
+  </si>
+  <si>
+    <t>Termy Bukovina</t>
+  </si>
+  <si>
+    <t>Nowoczesny kompleks basenów termalnych oferujący relaks i atrakcje wodne.</t>
+  </si>
+  <si>
+    <t>Termy Bukovina to jeden z największych i najnowocześniejszych kompleksów termalnych w Polsce. Oferują szeroki wybór basenów z wodą geotermalną, zjeżdżalnie, strefę saun oraz liczne atrakcje dla dzieci i dorosłych. Obiekt posiada również bogatą ofertę spa, restauracje i strefę relaksu. Położone w malowniczej Bukowinie Tatrzańskiej, zapewniają doskonałe widoki na Tatry oraz możliwość wypoczynku przez cały rok.</t>
+  </si>
+  <si>
+    <t>To idealne miejsce na relaks, odprężenie po górskich wędrówkach i zabawę z rodziną lub przyjaciółmi w wodzie termalnej.</t>
+  </si>
+  <si>
+    <t>Bilet normalny/3,5h: 85/89zł; Bilet ulgowy/3,5h: 64zł/69zł</t>
+  </si>
+  <si>
+    <t>Sportowa 22, 34-530 Bukowina Tatrzańska, Poland</t>
+  </si>
+  <si>
+    <t>49.32483390</t>
+  </si>
+  <si>
+    <t>20.09404150</t>
+  </si>
+  <si>
+    <t>https://www.termybukovina.pl/cennik-i-bilety/cennik-i-regulaminy</t>
+  </si>
+  <si>
+    <t>Bukowina Tatrzańska</t>
+  </si>
+  <si>
+    <t>Warto wybrać się rano lub w tygodniu, by uniknąć tłumów i dłużej skorzystać z atrakcji.</t>
+  </si>
+  <si>
+    <t>49.32500339803969</t>
+  </si>
+  <si>
+    <t>20.09508661679884</t>
+  </si>
+  <si>
+    <t>termalne baseny, spa, relaks, rodzinne atrakcje, sauny, Tatry</t>
+  </si>
+  <si>
+    <t>Wielka Krokiew</t>
+  </si>
+  <si>
+    <t>Największa skocznia narciarska w Polsce i ikona sportowa Zakopanego.</t>
+  </si>
+  <si>
+    <t>Wielka Krokiew to najbardziej znana skocznia narciarska w Polsce, zaprojektowana przez Karola Stryjeńskiego i oddana do użytku w 1925 roku. Położona jest w malowniczej okolicy u podnóża Tatr. Regularnie organizowane są tu zawody Pucharu Świata w skokach narciarskich, a także inne wydarzenia sportowe. Skocznia stanowi jeden z symboli Zakopanego oraz całego regionu i jest atrakcją nie tylko dla miłośników sportów zimowych. Poza zawodami, obiekt jest dostępny do zwiedzania – można wjechać koleją linową na szczyt i podziwiać panoramę Tatr i Zakopanego.</t>
+  </si>
+  <si>
+    <t>To miejsce kultowe dla miłośników sportów i niepowtarzalny punkt widokowy na Tatry oraz Zakopane. Wizyta na Wielkiej Krokwi pozwala poczuć sportową atmosferę i zobaczyć na własne oczy miejsce legendarnych zawodów.</t>
+  </si>
+  <si>
+    <t>mon:9:00-17:00,
+tue:9:00-17:00,
+wed:9:00-17:00,
+thu:9:00-17:00,
+fri:9:00-17:00,
+sat:9:00-17:00,
+sun:9:00-17:00,</t>
+  </si>
+  <si>
+    <t>Bilet normalny: 25,00 zł; Bilet ulgowy: 20,00 zł</t>
+  </si>
+  <si>
+    <t>ul. Bronisława Czecha 1, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.27941020</t>
+  </si>
+  <si>
+    <t>19.96394420</t>
+  </si>
+  <si>
+    <t>https://zakopane.cos.pl/1814/kolej-linowa-na-wielkiej-krokwi</t>
+  </si>
+  <si>
+    <t>https://zakopane.cos.pl/641/cennik</t>
+  </si>
+  <si>
+    <t>active_sport, nature_landscape</t>
+  </si>
+  <si>
+    <t>Najlepsze widoki rozciągają się ze szczytu skoczni – wjedź kolejką, by zrobić efektowne zdjęcia. Zwiedzanie poza zawodami jest spokojniejsze i pozwala lepiej docenić miejsce.</t>
+  </si>
+  <si>
+    <t>49.28220695693889</t>
+  </si>
+  <si>
+    <t>19.964473423319767</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>skoki narciarskie, widok, sport, zima, atrakcja, Zakopane, Tatry</t>
+  </si>
+  <si>
+    <t>Centrum Edukacji Przyrodniczej Tatrzańskiego Parku Narodowego</t>
+  </si>
+  <si>
+    <t>Nowoczesne centrum edukacyjne prezentujące bogactwo przyrody Tatr oraz działalność Tatrzańskiego Parku Narodowego.</t>
+  </si>
+  <si>
+    <t>Centrum Edukacji Przyrodniczej Tatrzańskiego Parku Narodowego w Zakopanem to interaktywne muzeum, w którym odwiedzający mogą poznać wyjątkową florę, faunę i geologię Tatr. Znajdują się tu nowoczesne wystawy multimedialne, realistyczne dioramy, imponujący model Tatr oraz sala projekcyjna. Centrum promuje wiedzę o ochronie przyrody, a edukacja prowadzona jest w przystępny sposób dla dzieci i dorosłych.</t>
+  </si>
+  <si>
+    <t>To miejsce pozwala pogłębić wiedzę o Tatrach w atrakcyjny i angażujący sposób. Idealne zarówno dla rodzin z dziećmi, jak i pasjonatów przyrody.</t>
+  </si>
+  <si>
+    <t>wstęp bezpłatny, wstęp do sali odkryć 20,00 zł</t>
+  </si>
+  <si>
+    <t>Tytusa Chałubińskiego 42a, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.28494100</t>
+  </si>
+  <si>
+    <t>19.97206080</t>
+  </si>
+  <si>
+    <t>https://tpn.gov.pl/centrum-edukacji-przyrodniczej</t>
+  </si>
+  <si>
+    <t>10:00-14:00</t>
+  </si>
+  <si>
+    <t>Na miejscu można skorzystać z bezpłatnych przewodników multimedialnych oraz wziąć udział w warsztatach edukacyjnych – warto sprawdzić aktualny harmonogram zajęć.</t>
+  </si>
+  <si>
+    <t>Tytusa Chałubińskiego 42a, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.28526190879251</t>
+  </si>
+  <si>
+    <t>19.971610095881204</t>
+  </si>
+  <si>
+    <t>edukacja, przyroda, muzeum, interaktywne, geologia, warsztaty, TPN</t>
+  </si>
+  <si>
+    <t>Wystawa Figur Woskowych EXPO Krupówki</t>
+  </si>
+  <si>
+    <t>Wystawa prezentująca realistyczne figury woskowe znanych postaci.</t>
+  </si>
+  <si>
+    <t>Wystawa Figur Woskowych EXPO Krupówki to wyjątkowa atrakcja w centrum Zakopanego. Znajdziesz tu realistyczne postaci z wosku przedstawiające słynne osobistości ze świata filmu, muzyki, sportu i historii. Miejsce to pozwala zrobić sobie zdjęcie z ulubionym idolem i przenieść się na chwilę w świat gwiazd. To świetna rozrywka zarówno dla dzieci, jak i dorosłych.</t>
+  </si>
+  <si>
+    <t>Warto odwiedzić, aby zobaczyć imponująco wykonane figury woskowe znanych postaci, a także zrobić oryginalne pamiątkowe zdjęcia. To doskonały sposób na urozmaicenie pobytu na Krupówkach i rozrywkę niezależnie od pogody.</t>
+  </si>
+  <si>
+    <t>mon:10:00-22:00,
+tue:10:00-22:00,
+wed:10:00-22:00,
+thu:10:00-22:00,
+fri:10:00-22:00,
+sat:10:00-22:00,
+sun:10:00-22:00,</t>
+  </si>
+  <si>
+    <t>Bilet normalny: 45,00 zł; Bilet ulgowy: 35,00 zł</t>
+  </si>
+  <si>
+    <t>Krupówki 60, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29129550</t>
+  </si>
+  <si>
+    <t>19.96047780</t>
+  </si>
+  <si>
+    <t>https://poloniawaxmuseum.com/zakopane/kontakt/</t>
+  </si>
+  <si>
+    <t>https://poloniawaxmuseum.com/zakopane/bilet/</t>
+  </si>
+  <si>
+    <t>mediun</t>
+  </si>
+  <si>
+    <t>Zabierz aparat lub telefon, bo figury można fotografować bez ograniczeń.</t>
+  </si>
+  <si>
+    <t>Parking miejski przy ulicy</t>
+  </si>
+  <si>
+    <t>Aleje 3-go maja, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.29251552805412</t>
+  </si>
+  <si>
+    <t>19.959086054183388</t>
+  </si>
+  <si>
+    <t>figury woskowe, rozrywka, muzeum, rodzina, atrakcja dla dzieci, Kripówki</t>
+  </si>
+  <si>
+    <t>Wielka Wystawa Klocków LEGO</t>
+  </si>
+  <si>
+    <t>Imponująca wystawa prezentująca największe modele wykonane z klocków LEGO.</t>
+  </si>
+  <si>
+    <t>Wielka Wystawa Klocków LEGO to miejsce, gdzie podziwiać można setki modeli stworzonych z milionów klocków LEGO. Prezentowane są zarówno znane budowle, postacie z bajek, jak i imponujące makiety interaktywne. To atrakcja zarówno dla dzieci, jak i dorosłych fanów tych kultowych klocków, łącząca zabawę z nauką i inspiracją do własnej kreatywności.</t>
+  </si>
+  <si>
+    <t>To jedna z największych wystaw LEGO w Polsce, idealna dla rodzin i miłośników LEGO w każdym wieku. Pozwala zobaczyć niesamowite konstrukcje oraz inspirować się do własnych projektów.</t>
+  </si>
+  <si>
+    <t>mon:10:00-21:00,
+tue:10:00-21:00,
+wed:10:00-21:00,
+thu:10:00-21:00,
+fri:10:00-21:00,
+sat:10:00-21:00,
+sun:10:00-21:00,</t>
+  </si>
+  <si>
+    <t>Bilet normalny: 35,00 zł; Bilet ulgowy 30,00 zł</t>
+  </si>
+  <si>
+    <t>Krupówki 40, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29290400</t>
+  </si>
+  <si>
+    <t>19.95606360</t>
+  </si>
+  <si>
+    <t>friends, family_kids</t>
+  </si>
+  <si>
+    <t>Zaplanuj wizytę w godzinach porannych, aby uniknąć tłumów i mieć więcej czasu na dokładne obejrzenie ekspozycji.</t>
+  </si>
+  <si>
+    <t>Parking w centrum Zakopanego</t>
+  </si>
+  <si>
+    <t>plac Niepodległości 5, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.292361710730574</t>
+  </si>
+  <si>
+    <t>19.955192216540915</t>
+  </si>
+  <si>
+    <t>wystawa, LEGO, dla dzieci, rodzinne, atrakcja pod dachem</t>
+  </si>
+  <si>
+    <t>Muzeum Tatrzańskie</t>
+  </si>
+  <si>
+    <t>Muzeum prezentujące historię, kulturę i przyrodę Tatr oraz Podhala.</t>
+  </si>
+  <si>
+    <t>Muzeum Tatrzańskie w Zakopanem to jedna z najważniejszych instytucji kulturalnych regionu. W jego zbiorach znajdują się eksponaty związane z historią, etnografią, sztuką oraz przyrodą Tatr i Podhala. Zwiedzający mogą zobaczyć bogate kolekcje dzieł sztuki, przedmiotów codziennego użytku dawnych górali, a także eksponaty związane z fauną i florą gór. Muzeum organizuje również wystawy czasowe oraz wydarzenia kulturalne, przybliżając tradycje i dziedzictwo tego wyjątkowego regionu.</t>
+  </si>
+  <si>
+    <t>To idealne miejsce, aby lepiej poznać historię Zakopanego, kulturę góralską oraz bogactwo tatrzańskiej przyrody. Muzeum stanowi doskonały punkt startowy do dalszego odkrywania Tatr i regionu Podhala.</t>
+  </si>
+  <si>
+    <t>mon:closed,
+tue:closed,
+wed:10:00-18:00,
+thu:10:00-18:00,
+fri:10:00-18:00,
+sat:10:00-18:00,
+sun:10:00-18:00,</t>
+  </si>
+  <si>
+    <t>bilet normalny 24 zł 
+bilet ulgowy 12 zł</t>
+  </si>
+  <si>
+    <t>Krupówki 10, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29496680</t>
+  </si>
+  <si>
+    <t>19.94991160</t>
+  </si>
+  <si>
+    <t>https://muzeumtatrzanskie.pl/zwiedzanie/godziny-otwarcia/</t>
+  </si>
+  <si>
+    <t>11:00-15:00</t>
+  </si>
+  <si>
+    <t>solo, couples, friends, seniors</t>
+  </si>
+  <si>
+    <t>Warto zwiedzić także filie muzeum, rozproszone w różnych częściach Zakopanego i okolicy, gdzie prezentowane są m.in. sztuka współczesna i ekspozycje związane ze słynnymi mieszkańcami regionu.</t>
+  </si>
+  <si>
+    <t>49.294293717654014</t>
+  </si>
+  <si>
+    <t>19.951641714023133</t>
+  </si>
+  <si>
+    <t>muzeum, historia, kultura, Podhale, Tatry, etnografia, sztuka, przyroda</t>
+  </si>
+  <si>
+    <t>Muzeum Kornela Makuszyńskiego</t>
+  </si>
+  <si>
+    <t>Oddział Muzeum Tatrzańskiego poświęcony życiu i twórczości Kornela Makuszyńskiego.</t>
+  </si>
+  <si>
+    <t>Muzeum Kornela Makuszyńskiego to oddział Muzeum Tatrzańskiego mieszczący się w willi Opolanka w Zakopanem. Ekspozycja prezentuje liczne pamiątki po znanym pisarzu, rękopisy, zdjęcia, listy oraz przedmioty codziennego użytku. Można tu także zobaczyć bogaty księgozbiór, dzieła sztuki, odznaczenia i eksponaty związane z Zakopanem, w którym Makuszyński spędził ostatnie lata życia. Wnętrza zachowują klimat dawnej epoki, pozwalając odwiedzającym przenieść się do czasów twórcy Koziołka Matołka.</t>
+  </si>
+  <si>
+    <t>Muzeum to gratka dla miłośników literatury polskiej, szczególnie książek dla dzieci. Pozwala bliżej poznać niezwykłą postać Kornela Makuszyńskiego oraz poczuć atmosferę Zakopanego z początku XX wieku.</t>
+  </si>
+  <si>
+    <t>mon:closed,
+tue:9:00-17:00,
+wed:9:00-17:00,
+thu:9:00-17:00,
+fri:9:00-17:00,
+sat:9:00-17:00,
+sun:closed,</t>
+  </si>
+  <si>
+    <t>bilet normalny 14 zł 
+bilet ulgowy 7 zł</t>
+  </si>
+  <si>
+    <t>Kazimierza Przerwy-Tetmajera 15, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.28949140</t>
+  </si>
+  <si>
+    <t>19.95811780</t>
+  </si>
+  <si>
+    <t>https://muzeumtatrzanskie.pl/filie/muzeum-kornela-makuszynskiego/</t>
+  </si>
+  <si>
+    <t>Warto połączyć wizytę z odwiedzeniem innych oddziałów Muzeum Tatrzańskiego – często dostępny jest bilet łączony.</t>
+  </si>
+  <si>
+    <t>Parking Tetmajera 17</t>
+  </si>
+  <si>
+    <t>Kazimierza Przerwy-Tetmajera 17, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.28920668357339</t>
+  </si>
+  <si>
+    <t>19.9578271971264</t>
+  </si>
+  <si>
+    <t>muzeum, literatura, Makuszyński, historia, atrakcja rodzinna, Zakopane</t>
+  </si>
+  <si>
+    <t>Muzeum Stylu Zakopiańskiego im. S. Witkiewicza</t>
+  </si>
+  <si>
+    <t>Muzeum prezentujące historię i charakterystyczny styl zakopiański w architekturze i sztuce.</t>
+  </si>
+  <si>
+    <t>Muzeum Stylu Zakopiańskiego im. S. Witkiewicza mieści się w Willi Koliba, będącej pierwszym przykładem stylu zakopiańskiego w architekturze. Ekspozycja prezentuje dokonania Stanisława Witkiewicza, twórcy tego stylu, oraz bogate zbiory rzemiosła, mebli, detali architektonicznych i przedmiotów codziennego użytku z przełomu XIX i XX wieku. Zwiedzający mogą podziwiać unikalne wnętrza oraz poznać historię narodzin oryginalnej zakopiańskiej estetyki.</t>
+  </si>
+  <si>
+    <t>To unikatowa okazja do zgłębienia dziedzictwa kulturowego regionu, zobaczenia oryginalnych projektów Stanisława Witkiewicza i lepszego zrozumienia charakterystycznej architektury Podhala.</t>
+  </si>
+  <si>
+    <t>mon:9:00-17:00,
+tue:closed,
+wed:9:00-17:00,
+thu:9:00-17:00,
+fri:11:00-19:00,
+sat:11:00-19:00,
+sun:9:00-17:00,</t>
+  </si>
+  <si>
+    <t>bilet normalny 22 zł 
+bilet ulgowy 11 zł</t>
+  </si>
+  <si>
+    <t>Kościeliska 18, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29433310</t>
+  </si>
+  <si>
+    <t>19.94296910</t>
+  </si>
+  <si>
+    <t>https://muzeumtatrzanskie.pl/filie/willa-koliba-muzeum-stylu-zakopianskiego/</t>
+  </si>
+  <si>
+    <t>Odwiedź muzeum poza sezonem turystycznym, by zwiedzać w spokojniejszej atmosferze i dokładniej obejrzeć detale architektoniczne Willi Koliba.</t>
+  </si>
+  <si>
+    <t>Parking na miejscu na cztery samochody</t>
+  </si>
+  <si>
+    <t>49.29423307964222</t>
+  </si>
+  <si>
+    <t>19.943075491958773</t>
+  </si>
+  <si>
+    <t>styl zakopiański, sztuka, architektura, Stanisław Witkiewicz, historia, kultura</t>
+  </si>
+  <si>
+    <t>Galeria sztuki w willi Oksza</t>
+  </si>
+  <si>
+    <t>Galeria prezentująca zbiory sztuki w zabytkowej willi Oksza, będąca filią Muzeum Tatrzańskiego.</t>
+  </si>
+  <si>
+    <t>Galeria sztuki w willi Oksza mieści się w zabytkowej willi z początku XX wieku, będącej przykładem stylu zakopiańskiego autorstwa Stanisława Witkiewicza. Jest to filia Muzeum Tatrzańskiego, w której prezentowane są wystawy związane z artystami związanymi z Podhalem, Zakopanem i Tatrami – m.in. malarstwo, grafika, rzeźba oraz fotografie. Wnętrza willi urzekają oryginalnymi detalami architektonicznymi i wyjątkowym klimatem, idealnie dopełniającym ekspozycje.</t>
+  </si>
+  <si>
+    <t>To wyjątkowe miejsce, gdzie można podziwiać sztukę i architekturę regionu oraz dowiedzieć się więcej o artystycznej historii Zakopanego i Tatr.</t>
+  </si>
+  <si>
+    <t>mon:closed,
+tue:9:00-17:00,
+wed:9:00-17:00,
+thu:9:00-17:00,
+fri:11:00-19:00,
+sat:11:00-19:00,
+sun:9:00-17:00,</t>
+  </si>
+  <si>
+    <t>Hr. Władysława Zamoyskiego 25, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.28868030</t>
+  </si>
+  <si>
+    <t>19.96632910</t>
+  </si>
+  <si>
+    <t>https://muzeumtatrzanskie.pl/filie/galeria-sztuki-w-willi-oksza/</t>
+  </si>
+  <si>
+    <t>Warto zwrócić uwagę na elementy architektoniczne wnętrza willi, które są przykładem stylu zakopiańskiego.</t>
+  </si>
+  <si>
+    <t>49.28876287435649</t>
+  </si>
+  <si>
+    <t>19.9666987218065</t>
+  </si>
+  <si>
+    <t>sztuka, muzeum, willa Oksza, styl zakopiański, Witkiewicz, wystawy</t>
+  </si>
+  <si>
+    <t>Muzeum Karola Szymanowskiego w willi "Atma"</t>
+  </si>
+  <si>
+    <t>Historyczna willa w stylu zakopiańskim, w której znajduje się muzeum poświęcone Karolowi Szymanowskiemu.</t>
+  </si>
+  <si>
+    <t>Villa Atma to zabytkowa willa w stylu zakopiańskim, zbudowana na początku XX wieku. Obecnie mieści się tu muzeum poświęcone wybitnemu polskiemu kompozytorowi Karolowi Szymanowskiemu, który spędził w niej ostatnie lata swojego życia. Wnętrza zachowały klimat dawnych czasów i prezentują pamiątki, fotografie, rękopisy oraz instrumenty związane z twórczością artysty. Willa otoczona jest nastrojowym ogrodem, a jej położenie sprzyja spokojnemu zwiedzaniu.</t>
+  </si>
+  <si>
+    <t>To idealne miejsce dla miłośników muzyki, sztuki i historii Zakopanego, a także dla osób zainteresowanych życiem i twórczością Karola Szymanowskiego.</t>
+  </si>
+  <si>
+    <t>mon:closed,
+tue:10:00-17:00,
+wed:10:00-17:00,
+thu:10:00-17:00,
+fri:10:00-17:00,
+sat:10:00-17:00,
+sun:10:00-17:00,</t>
+  </si>
+  <si>
+    <t>Closed 13:00 - 13:30</t>
+  </si>
+  <si>
+    <t>Bilet normalny: 15.00 zł; Bilet ulgowy: 10.00 zł</t>
+  </si>
+  <si>
+    <t>Kasprusie 19, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29241960</t>
+  </si>
+  <si>
+    <t>19.94848170</t>
+  </si>
+  <si>
+    <t>https://mnk.pl/wystawy/muzeum-biograficzne-karola-szymanowskiego</t>
+  </si>
+  <si>
+    <t>https://bilety.mnk.pl/nienumerowane/muzeum-im-karola-szymanowskiego.html?id=372191</t>
+  </si>
+  <si>
+    <t>Warto sprawdzić aktualny program wydarzeń – w Willi Atma regularnie odbywają się kameralne koncerty i spotkania kulturalne.</t>
+  </si>
+  <si>
+    <t>PARKING KRUPÓWKI "AK"</t>
+  </si>
+  <si>
+    <t>Ogrodowa 2, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.29374981765316</t>
+  </si>
+  <si>
+    <t>19.95176421343834</t>
+  </si>
+  <si>
+    <t>muzeum, architektura zakopiańska, zabytek, Karol Szymanowski, sztuka</t>
+  </si>
+  <si>
+    <t>Tatrzański Park Edukacyjny</t>
+  </si>
+  <si>
+    <t>Edukacyjny park zoologiczny, który przybliża przyrodę Tatr i kulturę góralską.</t>
+  </si>
+  <si>
+    <t>Tatrzański Park Edukacyjny to miejsce stworzone z myślą o najmłodszych, ale również dorosłych, którzy chcą lepiej poznać faunę, florę oraz tradycje regionu tatrzańskiego. W parku znajdują się zagrody ze zwierzętami, ścieżki edukacyjne, mini zoo, figury edukacyjne oraz atrakcje tematyczne inspirowane przyrodą Tatr. Odbywają się tu również warsztaty i prelekcje o lokalnej przyrodzie i kulturze Podhala.</t>
+  </si>
+  <si>
+    <t>To doskonałe miejsce do rodzinnego wypoczynku, poznawania zwierząt żyjących w Tatrach oraz ciekawostek o folklorze i przyrodzie regionu.</t>
+  </si>
+  <si>
+    <t>Bilet normalny 30 zł 
+Bilet ulgowy 25 zł</t>
+  </si>
+  <si>
+    <t>Józefa Piłsudskiego 38, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.28168590</t>
+  </si>
+  <si>
+    <t>19.96237580</t>
+  </si>
+  <si>
+    <t>https://www.tpe.edu.pl/contact</t>
+  </si>
+  <si>
+    <t>https://www.tpe.edu.pl/offer</t>
+  </si>
+  <si>
+    <t>kids_attractions</t>
+  </si>
+  <si>
+    <t>Najlepiej odwiedzić park w tygodniu, aby uniknąć tłumów i mieć więcej czasu na uczestnictwo w warsztatach edukacyjnych.</t>
+  </si>
+  <si>
+    <t>49.28216607253456</t>
+  </si>
+  <si>
+    <t>19.964494492391324</t>
+  </si>
+  <si>
+    <t>edukacja, zoo, fauna, florystyka, rodzina, warsztaty, kultura podhalańska</t>
+  </si>
+  <si>
+    <t>Kaplica Najświętszego Serca Pana Jezusa w Jaszczurówce</t>
+  </si>
+  <si>
+    <t>Drewniana kaplica w stylu zakopiańskim, będąca jednym z najpiękniejszych przykładów architektury sakralnej regionu.</t>
+  </si>
+  <si>
+    <t>Kaplica Najświętszego Serca Pana Jezusa w Jaszczurówce to jeden z najcenniejszych zabytków architektury sakralnej w stylu zakopiańskim. Została zaprojektowana przez Stanisława Witkiewicza i wybudowana na początku XX wieku. Wyróżnia się unikalnymi, drewnianymi zdobieniami oraz dużą dbałością o detale regionalne. Wnętrze kaplicy zachwyca atmosferą, subtelnym światłem wpadającym przez witraże i bogactwem góralskich ornamentów.</t>
+  </si>
+  <si>
+    <t>To obowiązkowe miejsce dla miłośników stylu zakopiańskiego oraz osób chcących poznać kulturę i tradycje regionu podhalańskiego.</t>
+  </si>
+  <si>
+    <t>mon:8:00-20:00
+tue:8:00-20:00,
+wed:8:00-20:00,
+thu:8:00-20:00,
+fri:8:00-20:00,
+sat:8:00-20:00,
+sun:8:00-20:00,</t>
+  </si>
+  <si>
+    <t>Jaszczurówka 38, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.28426160</t>
+  </si>
+  <si>
+    <t>20.00138280</t>
+  </si>
+  <si>
+    <t>13:00-14:00</t>
+  </si>
+  <si>
+    <t>Warto odwiedzić kaplicę w trakcie mszy lub koncertów, by poczuć wyjątkową atmosferę tego miejsca.</t>
+  </si>
+  <si>
+    <t>Parking przy ulicy</t>
+  </si>
+  <si>
+    <t>Droga Oswalda Balzera, 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>49.28425502719659</t>
+  </si>
+  <si>
+    <t>20.000749330935996</t>
+  </si>
+  <si>
+    <t>styl zakopiański, sztuka sakralna, drewniana architektura, zabytek, kultura podhalańska</t>
+  </si>
+  <si>
+    <t>KULIGI w Zakopanem</t>
+  </si>
+  <si>
+    <t>Organizator tradycyjnych kuligów z saniami i pochodniami po zakopiańskich okolicach.</t>
+  </si>
+  <si>
+    <t>KULIGI.pl to firma oferująca tradycyjne kuligi w Zakopanem i okolicach. Przejażdżki saniami zaprzężonymi w konie odbywają się w malowniczej scenerii Tatr i polskich lasów. Uczestnicy mogą poczuć klimat dawnej góralskiej zabawy, z pochodniami, śpiewem oraz często z ogniskiem i regionalnymi przekąskami po zakończeniu przejażdżki.</t>
+  </si>
+  <si>
+    <t>To niepowtarzalna okazja, by przeżyć autentyczny, zimowy kulig i poznać lokalne tradycje w wyjątkowej atmosferze zakopiańskiej zimy.</t>
+  </si>
+  <si>
+    <t>mon:15:00-19:00
+tue:15:00-19:00,
+wed:15:00-19:00,
+thu:15:00-19:00,
+fri:15:00-19:00,
+sat:15:00-19:00,
+sun:15:00-19:00,</t>
+  </si>
+  <si>
+    <t>Kulig tradycyjny z widokami od 247 zł; Kulig nocny z pochodniami od 247,00 zł</t>
+  </si>
+  <si>
+    <t>Mariusza Zaruskiego 1, 34-500 Zakopane, Poland</t>
+  </si>
+  <si>
+    <t>49.29421100</t>
+  </si>
+  <si>
+    <t>19.95178250</t>
+  </si>
+  <si>
+    <t>https://www.kuligi.pl/</t>
+  </si>
+  <si>
+    <t>16:00-19:00</t>
+  </si>
+  <si>
+    <t>active_sport, relaxation</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>Najlepszy klimat kuligu jest po zmroku – pochodnie i śnieg tworzą wtedy niepowtarzalny nastrój.</t>
+  </si>
+  <si>
+    <t>Parking przy Siwej Polanie</t>
+  </si>
+  <si>
+    <t>34-512 Witów</t>
+  </si>
+  <si>
+    <t>49.28807813151476</t>
+  </si>
+  <si>
+    <t>19.848047367038767</t>
+  </si>
+  <si>
+    <t>kulig, tradycja, konie, śnieg, zima, Zakopane, rozrywka, górale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 mon:9:00-17:00,
 tue:9:00-17:00,
 wed:9:00-17:00,
@@ -585,74 +1902,11 @@
 sun:10:00-18:00,</t>
   </si>
   <si>
-    <t xml:space="preserve">Bilet normalny: 89 zł 
-Bilet ulgowy: 49 zł 
-</t>
-  </si>
-  <si>
-    <t>ul. Bronisława Czecha, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.28009040</t>
-  </si>
-  <si>
-    <t>19.96325390</t>
-  </si>
-  <si>
-    <t>https://zakoatrakcje.pl/atrakcja/atrakcje-na-skoczni/</t>
-  </si>
-  <si>
-    <t>12:00-14:00</t>
-  </si>
-  <si>
-    <t>morning, afternoon</t>
-  </si>
-  <si>
-    <t>active_sport, kids_attractions</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>spring,
-summer</t>
-  </si>
-  <si>
-    <t>Ubierz się wygodnie i nie zapomnij o ciepłej odzieży – nawet latem warunki na skoczni bywają chłodne.</t>
-  </si>
-  <si>
-    <t>Parking miejski</t>
-  </si>
-  <si>
-    <t>Józefa Piłsudskiego 28-32, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.28225573159638</t>
-  </si>
-  <si>
-    <t>19.964482953943094</t>
-  </si>
-  <si>
-    <t>rozrywka, adrenalina, familijna atrakcja, sport, skocznia narciarska</t>
-  </si>
-  <si>
-    <t>Góralski Ślizg</t>
-  </si>
-  <si>
-    <t>Tor saneczkowy przeznaczony dla dzieci i dorosłych, oferujący zjazdy na specjalnych sankach po wyznaczonej trasie.</t>
-  </si>
-  <si>
-    <t>Góralski Ślizg to popularna atrakcja w Zakopanem, pozwalająca poczuć dreszczyk emocji z jazdy na torze saneczkowym. Obiekt został stworzony z myślą o rozrywce dla całych rodzin, zapewniając zarówno bezpieczeństwo, jak i dobrą zabawę. Tor jest zaprojektowany w taki sposób, by dostarczać wrażeń, ale jednocześnie być przystępnym i dla dzieci, i dla dorosłych.</t>
-  </si>
-  <si>
-    <t>To świetna forma aktywności na świeżym powietrzu, idealna na spędzenie czasu z rodziną lub znajomymi, szczególnie po dniu górskich wędrówek. Atrakcja ta pozwala na poczucie adrenaliny i radości niezależnie od wieku.</t>
-  </si>
-  <si>
-    <t>"date_from": "06-01", 
-"date_to": "09-30", 
+    <t>"date_from": "06-01",
+"date_to": "09-30",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
 mon:10:00-19:00, 
 tue:10:00-19:00, 
 wed: 10:00-19:00, 
@@ -662,683 +1916,11 @@
 sun:10:00-19:00,</t>
   </si>
   <si>
-    <t>1 zjadz: 5 zł 
-5 zjazdów: 15 zł 
-10 zjazdów: 20 zł</t>
-  </si>
-  <si>
-    <t>Na Gubałówkę, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29811740</t>
-  </si>
-  <si>
-    <t>19.94560430</t>
-  </si>
-  <si>
-    <t>https://zakoatrakcje.pl/atrakcja/goralski-slizg/</t>
-  </si>
-  <si>
-    <t>11:00-13:00</t>
+    <t>"date_from": "06-01", 
+"date_to": "09-30",</t>
   </si>
   <si>
     <t xml:space="preserve">
-family_kids</t>
-  </si>
-  <si>
-    <t>Warto zabrać ze sobą ciepłe ubrania, nawet latem, gdyż tor prowadzi przez chłodniejsze, zacienione miejsca.</t>
-  </si>
-  <si>
-    <t>Parking pod Gubalówką</t>
-  </si>
-  <si>
-    <t>Szkolna 2a, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.29884500451914</t>
-  </si>
-  <si>
-    <t>19.947106333779605</t>
-  </si>
-  <si>
-    <t>Zakopane, rodzina, rozrywka, sport, adrenalina, dzieci</t>
-  </si>
-  <si>
-    <t>Tatra Family</t>
-  </si>
-  <si>
-    <t>Rodzinny park rozrywki oferujący liczne atrakcje dla dzieci i dorosłych.</t>
-  </si>
-  <si>
-    <t>Tatra Family to park rozrywki zlokalizowany w Zakopanem, który zapewnia różnorodne formy zabawy i rekreacji dla całych rodzin. Na terenie obiektu znajdują się liczne place zabaw, ścianki wspinaczkowe, trampoliny, dmuchańce oraz inne atrakcje dopasowane do różnych grup wiekowych. Jest to idealne miejsce na rodzinne spędzanie czasu, szczególnie podczas słonecznych dni w sercu Tatr.</t>
-  </si>
-  <si>
-    <t>Wizyta w Tatra Family to świetna okazja do aktywnego spędzenia czasu z rodziną i zapewnienia dzieciom niezapomnianej zabawy w bezpiecznym otoczeniu.</t>
-  </si>
-  <si>
-    <t>mon:10:00-20:00,
-tue:10:00-20:00,
-wed:12:00-19:00,
-thu:12:00-19:00,
-fri:12:00-19:00,
-sat: 10:00-20:00,
-sun:10:00-20:00,</t>
-  </si>
-  <si>
-    <t>Godzina: 32,00 zł</t>
-  </si>
-  <si>
-    <t>Szymony 17B, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.30504380</t>
-  </si>
-  <si>
-    <t>19.96601410</t>
-  </si>
-  <si>
-    <t>brak</t>
-  </si>
-  <si>
-    <t>11:00-14:00</t>
-  </si>
-  <si>
-    <t>3-6, 6-10</t>
-  </si>
-  <si>
-    <t>theme_park, kids_attractions</t>
-  </si>
-  <si>
-    <t>Warto zabrać ze sobą wygodne ubrania i buty, ponieważ niektóre atrakcje wymagają ruchu i aktywności fizycznej.</t>
-  </si>
-  <si>
-    <t>Szymony 17B, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.30482967453035</t>
-  </si>
-  <si>
-    <t>19.966056891921436</t>
-  </si>
-  <si>
-    <t>rozrywka, dla dzieci, rodzina, park rozrywki, Zakopane</t>
-  </si>
-  <si>
-    <t>Park Harnasia</t>
-  </si>
-  <si>
-    <t>Kameralny park miejski z placem zabaw i terenami zielonymi.</t>
-  </si>
-  <si>
-    <t>Park Harnasia to niewielki, lecz bardzo lubiany przez mieszkańców i turystów park miejski w Zakopanem. Na terenie parku znajdują się alejki spacerowe, plac zabaw dla dzieci oraz ławki, które umożliwiają odpoczynek po intensywnym zwiedzaniu. To dobre miejsce na krótki relaks na świeżym powietrzu, zwłaszcza dla rodzin z dziećmi lub osób chcących zaczerpnąć chwili spokoju z dala od zatłoczonych ulic centrum Zakopanego.</t>
-  </si>
-  <si>
-    <t>Warto odwiedzić Park Harnasia, by odpocząć wśród zieleni, zrelaksować się lub pozwolić dzieciom pobawić się na placu zabaw. To świetny punkt na chwilę wytchnienia podczas zwiedzania Zakopanego.</t>
-  </si>
-  <si>
-    <t>1 godzina: 45,00 zł; Dwie godziny: 70,00 zł</t>
-  </si>
-  <si>
-    <t>Krupówki 14a, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29501590</t>
-  </si>
-  <si>
-    <t>19.95129910</t>
-  </si>
-  <si>
-    <t>https://parkharnasia.com/kontakt/</t>
-  </si>
-  <si>
-    <t>https://parkharnasia.com/cennik/</t>
-  </si>
-  <si>
-    <t>family_kids</t>
-  </si>
-  <si>
-    <t>Zabierz ze sobą przekąski i napoje, aby urządzić mały piknik na jednej z ławek lub na trawie.</t>
-  </si>
-  <si>
-    <t>park, atrakcja dla dzieci, zabawa, plac zabaw</t>
-  </si>
-  <si>
-    <t>DINO PARK</t>
-  </si>
-  <si>
-    <t>Park tematyczny z modelami dinozaurów w naturalnych rozmiarach.</t>
-  </si>
-  <si>
-    <t>DINO PARK to rodzinny park rozrywki, w którym odwiedzający mogą spacerować wśród realistycznych modeli dinozaurów ustawionych w leśnej scenerii. Park oferuje także dodatkowe atrakcje, takie jak plac zabaw, kino 5D oraz interaktywne wystawy związane z prehistorycznym światem. To doskonałe miejsce zarówno dla dzieci, jak i dorosłych, chcących dowiedzieć się więcej o dinozaurach i aktywnie spędzić czas na świeżym powietrzu.</t>
-  </si>
-  <si>
-    <t>To idealna atrakcja dla rodzin z dziećmi oraz wszystkich miłośników paleontologii i dinozaurów. Pozwala na edukację poprzez zabawę i kontakt z naturą.</t>
-  </si>
-  <si>
-    <t>brak danych</t>
-  </si>
-  <si>
-    <t>Józefa Piłsudskiego, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.28381500</t>
-  </si>
-  <si>
-    <t>19.96443040</t>
-  </si>
-  <si>
-    <t>Warto zabrać ze sobą wygodne obuwie do chodzenia po leśnych ścieżkach oraz aparat fotograficzny – modele dinozaurów robią duże wrażenie na zdjęciach.</t>
-  </si>
-  <si>
-    <t>Parking pod skocznią</t>
-  </si>
-  <si>
-    <t>Karola Szymanowskiego k/17, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.28371636121852</t>
-  </si>
-  <si>
-    <t>19.964933200354505</t>
-  </si>
-  <si>
-    <t>dinozaury, rodzina, dzieci, park tematyczny, rozrywka, edukacja</t>
-  </si>
-  <si>
-    <t>Illusion House</t>
-  </si>
-  <si>
-    <t>Interaktywna wystawa poświęcona iluzjom optycznym, zjawiskom fizycznym i zagadkom percepcji.</t>
-  </si>
-  <si>
-    <t>Illusion House w Zakopanem to miejsce pełne zagadek optycznych, interaktywnych eksponatów i zabawnych instalacji, które wprowadzają odwiedzających w świat iluzji i nauki o percepcji wzrokowej. Wystawa pozwala spojrzeć na świat z zupełnie innej perspektywy dzięki licznym pokojom luster, złudzeniom optycznym oraz zadaniom angażującym dzieci i dorosłych. To doskonała atrakcja na każdą pogodę, która łączy zabawę z edukacją.</t>
-  </si>
-  <si>
-    <t>Wizyta w Domu Iluzji to nie tylko świetna zabawa, ale też możliwość poznania tajników działania naszego mózgu i zmysłów. To idealne miejsce na rodzinny wypad lub rozrywkę podczas brzydszej pogody w Zakopanem.</t>
-  </si>
-  <si>
-    <t>mon:10:00-18:00,
-tue:10:00-18:00,
-wed: 10:00-18:00,
-thu:10:00-18:00,
-fri:10:00-18:00,
-sat: 10:00-18:00,
-sun:10:00-18:00,</t>
-  </si>
-  <si>
-    <t>Bilet normalny: 45,00 zł: Bilet ulgowy: 40,00 zł</t>
-  </si>
-  <si>
-    <t>DH GRANIT, Tadeusza Kościuszki 3, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29574170</t>
-  </si>
-  <si>
-    <t>19.95285450</t>
-  </si>
-  <si>
-    <t>https://www.illusionhouse.pl/</t>
-  </si>
-  <si>
-    <t>Warto zabrać aparat fotograficzny – wiele iluzji robi świetne wrażenie na zdjęciach!</t>
-  </si>
-  <si>
-    <t>Parknig Krupówki Zakopane</t>
-  </si>
-  <si>
-    <t>Tadeusza Kościuszki 3, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.29563664460791</t>
-  </si>
-  <si>
-    <t>19.953026140854238</t>
-  </si>
-  <si>
-    <t>iluzje, interaktywne, rozrywka, rodzinne, nauka</t>
-  </si>
-  <si>
-    <t>Dom do góry nogami</t>
-  </si>
-  <si>
-    <t>Nietypowy budynek, w którym wszystko stoi na głowie – atrakcja dla całej rodziny.</t>
-  </si>
-  <si>
-    <t>Dom do góry nogami to oryginalna atrakcja turystyczna w Zakopanem, która przyciąga zarówno dzieci, jak i dorosłych. Konstrukcja domu została postawiona na dachu, przez co całe wyposażenie wnętrza również znajduje się ‘do góry nogami’. Zwiedzający mogą wejść do środka i poczuć fascynujące wrażenie dezorientacji – chodzenie po suficie i zrobienie niezwykłych zdjęć gwarantuje niezapomniane przeżycia.</t>
-  </si>
-  <si>
-    <t>To idealne miejsce na nietypową rozrywkę i sesję zdjęciową – zaskakuje i bawi zarówno najmłodszych, jak i starszych turystów.</t>
-  </si>
-  <si>
-    <t>bilet normalny: 21 zł, bilet ulgowy: 17 zł, dzieci do lat 3: wstęp bezpłatny</t>
-  </si>
-  <si>
-    <t>Aleje 3-go Maja, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29396910</t>
-  </si>
-  <si>
-    <t>19.95717900</t>
-  </si>
-  <si>
-    <t>13:00-15:00</t>
-  </si>
-  <si>
-    <t>kids_attractions, museum_heritage</t>
-  </si>
-  <si>
-    <t>Zabierz ze sobą aparat lub telefon z pełną baterią – zdjęcia z tej atrakcji są wyjątkowe i na długo pozostaną w pamięci.</t>
-  </si>
-  <si>
-    <t>Parking przy domu do góry nogami</t>
-  </si>
-  <si>
-    <t>Aleje 3-go Maja, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.29421509759925</t>
-  </si>
-  <si>
-    <t>19.956561670497106</t>
-  </si>
-  <si>
-    <t>rozrywka, atrakcja dla dzieci, rodzinne, nietypowe, fotopunkt, interaktywne</t>
-  </si>
-  <si>
-    <t>Plac zabaw na Górnej Równi Krupowej</t>
-  </si>
-  <si>
-    <t>Nowoczesny plac zabaw położony na rozległej Górnej Równi Krupowej w Zakopanem.</t>
-  </si>
-  <si>
-    <t>Plac zabaw na Górnej Równi Krupowej to znakomicie wyposażone miejsce dla dzieci w sercu Zakopanego. Położony na otwartej przestrzeni parku, oferuje nowoczesne zestawy zabawowe, zjeżdżalnie, huśtawki, drabinki oraz bezpieczną nawierzchnię. Ogromnym atutem jest rozległy teren wokół, który sprzyja rodzinnym piknikom, spacerom i odpoczynkowi z widokiem na Tatry.</t>
-  </si>
-  <si>
-    <t>To idealne miejsce na odpoczynek i zabawę dla dzieci po zwiedzaniu Zakopanego. Malownicze położenie oraz czyste, przestronne otoczenie sprzyjają relaksowi i rekreacji całych rodzin.</t>
-  </si>
-  <si>
-    <t>mon:8:00-20:00,
-tue:8:00-20:00,
-wed:8:00-20:00,
-thu:8:00-20:00,
-fri:8:00-20:00,
-sat:8:00-20:00,
-sun:8:00-20:00,</t>
-  </si>
-  <si>
-    <t>wstęp bezpłatny</t>
-  </si>
-  <si>
-    <t>Henryka Sienkiewicza 26C, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29374480</t>
-  </si>
-  <si>
-    <t>19.95966610</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>Warto zabrać koc piknikowy – teren wokół placu zabaw jest doskonały na rodzinny lunch na świeżym powietrzu.</t>
-  </si>
-  <si>
-    <t>Aleje 3-go Maja 9, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.29324569432775</t>
-  </si>
-  <si>
-    <t>19.958220720858836</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>plac zabaw, park, rodzina, dzieci, relaks, rekreacja, spacer</t>
-  </si>
-  <si>
-    <t>Termy Zakopiańskie</t>
-  </si>
-  <si>
-    <t>Nowoczesny kompleks rekreacyjny z basenami, strefą spa i atrakcjami wodnymi.</t>
-  </si>
-  <si>
-    <t>Termy Zakopiańskie to popularny kompleks rekreacyjno-sportowy w Zakopanem, oferujący kryte i odkryte baseny, zjeżdżalnie, strefę saun, centrum spa, kręgielnię, siłownię oraz kilka punktów gastronomicznych. Jest to idealne miejsce zarówno na relaks, jak i aktywne spędzanie czasu, niezależnie od pogody. Park wodny zapewnia rozrywkę dla rodzin z dziećmi, grup znajomych oraz osób szukających odprężenia po dniu spędzonym w górach.</t>
-  </si>
-  <si>
-    <t>Wizyta w Termach Zakopiańskich to okazja do zabawy i relaksu w wodzie, niezależnie od warunków pogodowych. Można tu korzystać z wielu atrakcji basenowych i wellness oraz zjeść smaczny posiłek.</t>
-  </si>
-  <si>
-    <t>mon:9:00-22:00,
-tue:9:00-22:00,
-wed:9:00-22:00,
-thu:9:00-22:00,
-fri:9:00-22:00,
-sat:9:00-22:00,
-sun:9:00-22:00,</t>
-  </si>
-  <si>
-    <t>Bilet normalny/1h: 49,00 zł; Bilet ulgowy/1h: 39,00 zł</t>
-  </si>
-  <si>
-    <t>Jagiellońska 31, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29510460</t>
-  </si>
-  <si>
-    <t>19.96564240</t>
-  </si>
-  <si>
-    <t>https://www.termy-zakopianskie.pl/</t>
-  </si>
-  <si>
-    <t>https://www.termy-zakopianskie.pl/cennik</t>
-  </si>
-  <si>
-    <t>water_attractions, kids_attractions, relaxation</t>
-  </si>
-  <si>
-    <t>Warto przyjechać w godzinach porannych lub późnym popołudniem, aby uniknąć największych tłumów.</t>
-  </si>
-  <si>
-    <t>49.29485863239372</t>
-  </si>
-  <si>
-    <t>19.964700308910963</t>
-  </si>
-  <si>
-    <t>basen, spa, sauna, rekreacja, zjeżdżalnia, kręgielnia, siłownia, restauracja</t>
-  </si>
-  <si>
-    <t>Termy Gorący Potok</t>
-  </si>
-  <si>
-    <t>Kompleks basenów termalnych z wodami geotermalnymi i strefą relaksu.</t>
-  </si>
-  <si>
-    <t>Termy Gorący Potok to nowoczesny kompleks basenów termalnych położony w Białym Dunajcu. Ośrodek oferuje wiele niecek z wodą geotermalną o różnych temperaturach, zjeżdżalnie wodne, sauny, strefę spa oraz specjalne atrakcje dla dzieci. Wody bogate w minerały mają właściwości zdrowotne i relaksacyjne. Na terenie obiektu znajdują się także restauracje i bary, dzięki czemu to doskonałe miejsce na wypoczynek dla całej rodziny niezależnie od pogody.</t>
-  </si>
-  <si>
-    <t>Wizyta pozwala zrelaksować się w ciepłych wodach termalnych, korzystać z leczniczych i relaksacyjnych właściwości wód oraz atrakcji dostępnych na terenie kompleksu.</t>
-  </si>
-  <si>
-    <t>mon:11:00-22:00,
-tue:11:00-22:00,
-wed:11:00-22:00,
-thu:11:00-22:00,
-fri:11:00-22:00,
-sat:9:00-22:00,
-sun:9:00-22:00,</t>
-  </si>
-  <si>
-    <t>Bilet normalny/1,5h: 59,00 zł; Bilet ulgowy/1,5h: 45,00 zł</t>
-  </si>
-  <si>
-    <t>os. Nowe 45, 34-424 Szaflary, Poland</t>
-  </si>
-  <si>
-    <t>49.39995830</t>
-  </si>
-  <si>
-    <t>20.02259180</t>
-  </si>
-  <si>
-    <t>https://goracypotok.pl/kontakt/</t>
-  </si>
-  <si>
-    <t>https://goracypotok.pl/cennik/</t>
-  </si>
-  <si>
-    <t>mixed</t>
-  </si>
-  <si>
-    <t>18:00-20:00</t>
-  </si>
-  <si>
-    <t>Szaflary</t>
-  </si>
-  <si>
-    <t>Warto przyjechać w tygodniu, by uniknąć większych tłumów i w pełni korzystać ze wszystkich atrakcji.</t>
-  </si>
-  <si>
-    <t>os. Nowe 45, 34-424 Szaflary</t>
-  </si>
-  <si>
-    <t>49.39962067618252</t>
-  </si>
-  <si>
-    <t>20.02184613839256</t>
-  </si>
-  <si>
-    <t>baseny termalne, spa, relaks, atrakcje rodzinne, sauny, zjeżdżalnie, wellness</t>
-  </si>
-  <si>
-    <t>Chochołowskie Termy</t>
-  </si>
-  <si>
-    <t>Duży kompleks basenów termalnych i spa oferujący relaks i rozrywkę w Chochołowie.</t>
-  </si>
-  <si>
-    <t>Chochołowskie Termy to największy kompleks basenów termalnych na Podhalu, znajdujący się w malowniczej miejscowości Chochołów. Obiekt oferuje bogatą gamę atrakcji wodnych, w tym liczne baseny wewnętrzne i zewnętrzne z wodą termalną, strefę saun, spa, a także zjeżdżalnie, strefy zabaw dla dzieci i siłownię. Na terenie term znajdują się również restauracje i bary. To idealne miejsce zarówno na rodzinny wypoczynek, jak i regenerację sił po górskich wędrówkach.</t>
-  </si>
-  <si>
-    <t>To doskonałe miejsce na relaks i rekreację przez cały rok, z licznymi udogodnieniami dla rodzin, par i miłośników sportu. Naturalna woda termalna wpływa korzystnie na zdrowie i samopoczucie, a bogata strefa spa i saun zapewnia głęboki relaks.</t>
-  </si>
-  <si>
-    <t>w zależności od czasu pobytu i strefy; Bilet normalny/3h: 89 zł; Bilet ulgowy/3h: 59,00 zł</t>
-  </si>
-  <si>
-    <t>Chochołów 400, 34-513 Witów, Poland</t>
-  </si>
-  <si>
-    <t>49.35182550</t>
-  </si>
-  <si>
-    <t>19.82311990</t>
-  </si>
-  <si>
-    <t>https://www.chocholowskietermy.pl/uncategorized/godziny-otwarcia-w-dni-swiateczne-2/</t>
-  </si>
-  <si>
-    <t>https://www.chocholowskietermy.pl/sklep/</t>
-  </si>
-  <si>
-    <t>13:00-16:00</t>
-  </si>
-  <si>
-    <t>Chochołów</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>Warto wybrać się w godzinach porannych lub wieczornych, by uniknąć największego tłoku i móc w pełni korzystać z atrakcji term oraz podziwiać widok na Tatry.</t>
-  </si>
-  <si>
-    <t>Parking Termy Chochołów</t>
-  </si>
-  <si>
-    <t>315, 34-513 Chochołów</t>
-  </si>
-  <si>
-    <t>49.3520575535073</t>
-  </si>
-  <si>
-    <t>19.821758970641643</t>
-  </si>
-  <si>
-    <t>baseny termalne, spa, sauny, relaks, rodzina, dzieci, wellness, woda mineralna</t>
-  </si>
-  <si>
-    <t>Terma Bania</t>
-  </si>
-  <si>
-    <t>Kompleks basenów termalnych i stref rekreacyjnych z widokiem na Tatry.</t>
-  </si>
-  <si>
-    <t>Terma Bania to nowoczesny kompleks kąpielisk termalnych w Białce Tatrzańskiej. Obejmuje strefy rekreacyjne, baseny termalne zewnętrzne i wewnętrzne, zjeżdżalnie, sauny oraz strefę SPA. Woda termalna wydobywana z głębokich odwiertów jest bogata w minerały i ma właściwości zdrowotne. Obiekt oferuje relaks zarówno dla rodzin, jak i osób szukających odprężenia. Latem oraz zimą zapewnia liczne atrakcje wodne oraz przestrzeń do wypoczynku z widokiem na Tatry.</t>
-  </si>
-  <si>
-    <t>To idealne miejsce na relaks w wodach termalnych z pięknym widokiem na góry, a także rozrywkę dla całej rodziny.</t>
-  </si>
-  <si>
-    <t>Bilet normalny: 95/105 zł; Bilet ulgowy: 75/85 zł</t>
-  </si>
-  <si>
-    <t>Środkowa 181, 34-405 Białka Tatrzańska, Poland</t>
-  </si>
-  <si>
-    <t>49.38782090</t>
-  </si>
-  <si>
-    <t>20.09909540</t>
-  </si>
-  <si>
-    <t>https://www.termabania.pl/</t>
-  </si>
-  <si>
-    <t>https://www.termabania.pl/cennik</t>
-  </si>
-  <si>
-    <t>Białka Tatrzańska</t>
-  </si>
-  <si>
-    <t>Warto odwiedzić termy poza sezonem wysokim, aby uniknąć tłumów i w pełni zrelaksować się w strefie saun.</t>
-  </si>
-  <si>
-    <t>Parking Terma Bania</t>
-  </si>
-  <si>
-    <t>49.38778654963126</t>
-  </si>
-  <si>
-    <t>20.100391848083316</t>
-  </si>
-  <si>
-    <t>secondary</t>
-  </si>
-  <si>
-    <t>termalne, baseny, relaks, spa, rodzina, góry, sauny</t>
-  </si>
-  <si>
-    <t>Termy Bukovina</t>
-  </si>
-  <si>
-    <t>Nowoczesny kompleks basenów termalnych oferujący relaks i atrakcje wodne.</t>
-  </si>
-  <si>
-    <t>Termy Bukovina to jeden z największych i najnowocześniejszych kompleksów termalnych w Polsce. Oferują szeroki wybór basenów z wodą geotermalną, zjeżdżalnie, strefę saun oraz liczne atrakcje dla dzieci i dorosłych. Obiekt posiada również bogatą ofertę spa, restauracje i strefę relaksu. Położone w malowniczej Bukowinie Tatrzańskiej, zapewniają doskonałe widoki na Tatry oraz możliwość wypoczynku przez cały rok.</t>
-  </si>
-  <si>
-    <t>To idealne miejsce na relaks, odprężenie po górskich wędrówkach i zabawę z rodziną lub przyjaciółmi w wodzie termalnej.</t>
-  </si>
-  <si>
-    <t>Bilet normalny/3,5h: 85/89zł; Bilet ulgowy/3,5h: 64zł/69zł</t>
-  </si>
-  <si>
-    <t>Sportowa 22, 34-530 Bukowina Tatrzańska, Poland</t>
-  </si>
-  <si>
-    <t>49.32483390</t>
-  </si>
-  <si>
-    <t>20.09404150</t>
-  </si>
-  <si>
-    <t>https://www.termybukovina.pl/cennik-i-bilety/cennik-i-regulaminy</t>
-  </si>
-  <si>
-    <t>Bukowina Tatrzańska</t>
-  </si>
-  <si>
-    <t>Warto wybrać się rano lub w tygodniu, by uniknąć tłumów i dłużej skorzystać z atrakcji.</t>
-  </si>
-  <si>
-    <t>49.32500339803969</t>
-  </si>
-  <si>
-    <t>20.09508661679884</t>
-  </si>
-  <si>
-    <t>termalne baseny, spa, relaks, rodzinne atrakcje, sauny, Tatry</t>
-  </si>
-  <si>
-    <t>Wielka Krokiew</t>
-  </si>
-  <si>
-    <t>Największa skocznia narciarska w Polsce i ikona sportowa Zakopanego.</t>
-  </si>
-  <si>
-    <t>Wielka Krokiew to najbardziej znana skocznia narciarska w Polsce, zaprojektowana przez Karola Stryjeńskiego i oddana do użytku w 1925 roku. Położona jest w malowniczej okolicy u podnóża Tatr. Regularnie organizowane są tu zawody Pucharu Świata w skokach narciarskich, a także inne wydarzenia sportowe. Skocznia stanowi jeden z symboli Zakopanego oraz całego regionu i jest atrakcją nie tylko dla miłośników sportów zimowych. Poza zawodami, obiekt jest dostępny do zwiedzania – można wjechać koleją linową na szczyt i podziwiać panoramę Tatr i Zakopanego.</t>
-  </si>
-  <si>
-    <t>To miejsce kultowe dla miłośników sportów i niepowtarzalny punkt widokowy na Tatry oraz Zakopane. Wizyta na Wielkiej Krokwi pozwala poczuć sportową atmosferę i zobaczyć na własne oczy miejsce legendarnych zawodów.</t>
-  </si>
-  <si>
-    <t>mon:9:00-17:00,
-tue:9:00-17:00,
-wed:9:00-17:00,
-thu:9:00-17:00,
-fri:9:00-17:00,
-sat:9:00-17:00,
-sun:9:00-17:00,</t>
-  </si>
-  <si>
-    <t>Bilet normalny: 25,00 zł; Bilet ulgowy: 20,00 zł</t>
-  </si>
-  <si>
-    <t>ul. Bronisława Czecha 1, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.27941020</t>
-  </si>
-  <si>
-    <t>19.96394420</t>
-  </si>
-  <si>
-    <t>https://zakopane.cos.pl/1814/kolej-linowa-na-wielkiej-krokwi</t>
-  </si>
-  <si>
-    <t>https://zakopane.cos.pl/641/cennik</t>
-  </si>
-  <si>
-    <t>active_sport, nature_landscape</t>
-  </si>
-  <si>
-    <t>Najlepsze widoki rozciągają się ze szczytu skoczni – wjedź kolejką, by zrobić efektowne zdjęcia. Zwiedzanie poza zawodami jest spokojniejsze i pozwala lepiej docenić miejsce.</t>
-  </si>
-  <si>
-    <t>49.28220695693889</t>
-  </si>
-  <si>
-    <t>19.964473423319767</t>
-  </si>
-  <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>skoki narciarskie, widok, sport, zima, atrakcja, Zakopane, Tatry</t>
-  </si>
-  <si>
-    <t>Centrum Edukacji Przyrodniczej Tatrzańskiego Parku Narodowego</t>
-  </si>
-  <si>
-    <t>Nowoczesne centrum edukacyjne prezentujące bogactwo przyrody Tatr oraz działalność Tatrzańskiego Parku Narodowego.</t>
-  </si>
-  <si>
-    <t>Centrum Edukacji Przyrodniczej Tatrzańskiego Parku Narodowego w Zakopanem to interaktywne muzeum, w którym odwiedzający mogą poznać wyjątkową florę, faunę i geologię Tatr. Znajdują się tu nowoczesne wystawy multimedialne, realistyczne dioramy, imponujący model Tatr oraz sala projekcyjna. Centrum promuje wiedzę o ochronie przyrody, a edukacja prowadzona jest w przystępny sposób dla dzieci i dorosłych.</t>
-  </si>
-  <si>
-    <t>To miejsce pozwala pogłębić wiedzę o Tatrach w atrakcyjny i angażujący sposób. Idealne zarówno dla rodzin z dziećmi, jak i pasjonatów przyrody.</t>
-  </si>
-  <si>
-    <t>"date_from": "05-01", 
-"date_to": "09-30", 
 mon:8:00-16:00, 
 tue:8:00-16:00, 
 wed:8:00-16:00, 
@@ -1348,434 +1930,11 @@
 sun:closed,</t>
   </si>
   <si>
-    <t>wstęp bezpłatny, wstęp do sali odkryć 20,00 zł</t>
-  </si>
-  <si>
-    <t>Tytusa Chałubińskiego 42a, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.28494100</t>
-  </si>
-  <si>
-    <t>19.97206080</t>
-  </si>
-  <si>
-    <t>https://tpn.gov.pl/centrum-edukacji-przyrodniczej</t>
-  </si>
-  <si>
-    <t>10:00-14:00</t>
-  </si>
-  <si>
-    <t>Na miejscu można skorzystać z bezpłatnych przewodników multimedialnych oraz wziąć udział w warsztatach edukacyjnych – warto sprawdzić aktualny harmonogram zajęć.</t>
-  </si>
-  <si>
-    <t>Tytusa Chałubińskiego 42a, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.28526190879251</t>
-  </si>
-  <si>
-    <t>19.971610095881204</t>
-  </si>
-  <si>
-    <t>edukacja, przyroda, muzeum, interaktywne, geologia, warsztaty, TPN</t>
-  </si>
-  <si>
-    <t>Wystawa Figur Woskowych EXPO Krupówki</t>
-  </si>
-  <si>
-    <t>Wystawa prezentująca realistyczne figury woskowe znanych postaci.</t>
-  </si>
-  <si>
-    <t>Wystawa Figur Woskowych EXPO Krupówki to wyjątkowa atrakcja w centrum Zakopanego. Znajdziesz tu realistyczne postaci z wosku przedstawiające słynne osobistości ze świata filmu, muzyki, sportu i historii. Miejsce to pozwala zrobić sobie zdjęcie z ulubionym idolem i przenieść się na chwilę w świat gwiazd. To świetna rozrywka zarówno dla dzieci, jak i dorosłych.</t>
-  </si>
-  <si>
-    <t>Warto odwiedzić, aby zobaczyć imponująco wykonane figury woskowe znanych postaci, a także zrobić oryginalne pamiątkowe zdjęcia. To doskonały sposób na urozmaicenie pobytu na Krupówkach i rozrywkę niezależnie od pogody.</t>
-  </si>
-  <si>
-    <t>mon:10:00-22:00,
-tue:10:00-22:00,
-wed:10:00-22:00,
-thu:10:00-22:00,
-fri:10:00-22:00,
-sat:10:00-22:00,
-sun:10:00-22:00,</t>
-  </si>
-  <si>
-    <t>Bilet normalny: 45,00 zł; Bilet ulgowy: 35,00 zł</t>
-  </si>
-  <si>
-    <t>Krupówki 60, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29129550</t>
-  </si>
-  <si>
-    <t>19.96047780</t>
-  </si>
-  <si>
-    <t>https://poloniawaxmuseum.com/zakopane/kontakt/</t>
-  </si>
-  <si>
-    <t>https://poloniawaxmuseum.com/zakopane/bilet/</t>
-  </si>
-  <si>
-    <t>mediun</t>
-  </si>
-  <si>
-    <t>Zabierz aparat lub telefon, bo figury można fotografować bez ograniczeń.</t>
-  </si>
-  <si>
-    <t>Parking miejski przy ulicy</t>
-  </si>
-  <si>
-    <t>Aleje 3-go maja, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.29251552805412</t>
-  </si>
-  <si>
-    <t>19.959086054183388</t>
-  </si>
-  <si>
-    <t>figury woskowe, rozrywka, muzeum, rodzina, atrakcja dla dzieci, Kripówki</t>
-  </si>
-  <si>
-    <t>Wielka Wystawa Klocków LEGO</t>
-  </si>
-  <si>
-    <t>Imponująca wystawa prezentująca największe modele wykonane z klocków LEGO.</t>
-  </si>
-  <si>
-    <t>Wielka Wystawa Klocków LEGO to miejsce, gdzie podziwiać można setki modeli stworzonych z milionów klocków LEGO. Prezentowane są zarówno znane budowle, postacie z bajek, jak i imponujące makiety interaktywne. To atrakcja zarówno dla dzieci, jak i dorosłych fanów tych kultowych klocków, łącząca zabawę z nauką i inspiracją do własnej kreatywności.</t>
-  </si>
-  <si>
-    <t>To jedna z największych wystaw LEGO w Polsce, idealna dla rodzin i miłośników LEGO w każdym wieku. Pozwala zobaczyć niesamowite konstrukcje oraz inspirować się do własnych projektów.</t>
-  </si>
-  <si>
-    <t>mon:10:00-21:00,
-tue:10:00-21:00,
-wed:10:00-21:00,
-thu:10:00-21:00,
-fri:10:00-21:00,
-sat:10:00-21:00,
-sun:10:00-21:00,</t>
-  </si>
-  <si>
-    <t>Bilet normalny: 35,00 zł; Bilet ulgowy 30,00 zł</t>
-  </si>
-  <si>
-    <t>Krupówki 40, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29290400</t>
-  </si>
-  <si>
-    <t>19.95606360</t>
-  </si>
-  <si>
-    <t>friends, family_kids</t>
-  </si>
-  <si>
-    <t>Zaplanuj wizytę w godzinach porannych, aby uniknąć tłumów i mieć więcej czasu na dokładne obejrzenie ekspozycji.</t>
-  </si>
-  <si>
-    <t>Parking w centrum Zakopanego</t>
-  </si>
-  <si>
-    <t>plac Niepodległości 5, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.292361710730574</t>
-  </si>
-  <si>
-    <t>19.955192216540915</t>
-  </si>
-  <si>
-    <t>wystawa, LEGO, dla dzieci, rodzinne, atrakcja pod dachem</t>
-  </si>
-  <si>
-    <t>Muzeum Tatrzańskie</t>
-  </si>
-  <si>
-    <t>Muzeum prezentujące historię, kulturę i przyrodę Tatr oraz Podhala.</t>
-  </si>
-  <si>
-    <t>Muzeum Tatrzańskie w Zakopanem to jedna z najważniejszych instytucji kulturalnych regionu. W jego zbiorach znajdują się eksponaty związane z historią, etnografią, sztuką oraz przyrodą Tatr i Podhala. Zwiedzający mogą zobaczyć bogate kolekcje dzieł sztuki, przedmiotów codziennego użytku dawnych górali, a także eksponaty związane z fauną i florą gór. Muzeum organizuje również wystawy czasowe oraz wydarzenia kulturalne, przybliżając tradycje i dziedzictwo tego wyjątkowego regionu.</t>
-  </si>
-  <si>
-    <t>To idealne miejsce, aby lepiej poznać historię Zakopanego, kulturę góralską oraz bogactwo tatrzańskiej przyrody. Muzeum stanowi doskonały punkt startowy do dalszego odkrywania Tatr i regionu Podhala.</t>
-  </si>
-  <si>
-    <t>mon:closed,
-tue:closed,
-wed:10:00-18:00,
-thu:10:00-18:00,
-fri:10:00-18:00,
-sat:10:00-18:00,
-sun:10:00-18:00,</t>
-  </si>
-  <si>
-    <t>bilet normalny 24 zł 
-bilet ulgowy 12 zł</t>
-  </si>
-  <si>
-    <t>Krupówki 10, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29496680</t>
-  </si>
-  <si>
-    <t>19.94991160</t>
-  </si>
-  <si>
-    <t>https://muzeumtatrzanskie.pl/zwiedzanie/godziny-otwarcia/</t>
-  </si>
-  <si>
-    <t>11:00-15:00</t>
-  </si>
-  <si>
-    <t>solo, couples, friends, seniors</t>
-  </si>
-  <si>
-    <t>Warto zwiedzić także filie muzeum, rozproszone w różnych częściach Zakopanego i okolicy, gdzie prezentowane są m.in. sztuka współczesna i ekspozycje związane ze słynnymi mieszkańcami regionu.</t>
-  </si>
-  <si>
-    <t>49.294293717654014</t>
-  </si>
-  <si>
-    <t>19.951641714023133</t>
-  </si>
-  <si>
-    <t>muzeum, historia, kultura, Podhale, Tatry, etnografia, sztuka, przyroda</t>
-  </si>
-  <si>
-    <t>Muzeum Kornela Makuszyńskiego</t>
-  </si>
-  <si>
-    <t>Oddział Muzeum Tatrzańskiego poświęcony życiu i twórczości Kornela Makuszyńskiego.</t>
-  </si>
-  <si>
-    <t>Muzeum Kornela Makuszyńskiego to oddział Muzeum Tatrzańskiego mieszczący się w willi Opolanka w Zakopanem. Ekspozycja prezentuje liczne pamiątki po znanym pisarzu, rękopisy, zdjęcia, listy oraz przedmioty codziennego użytku. Można tu także zobaczyć bogaty księgozbiór, dzieła sztuki, odznaczenia i eksponaty związane z Zakopanem, w którym Makuszyński spędził ostatnie lata życia. Wnętrza zachowują klimat dawnej epoki, pozwalając odwiedzającym przenieść się do czasów twórcy Koziołka Matołka.</t>
-  </si>
-  <si>
-    <t>Muzeum to gratka dla miłośników literatury polskiej, szczególnie książek dla dzieci. Pozwala bliżej poznać niezwykłą postać Kornela Makuszyńskiego oraz poczuć atmosferę Zakopanego z początku XX wieku.</t>
-  </si>
-  <si>
-    <t>mon:closed,
-tue:9:00-17:00,
-wed:9:00-17:00,
-thu:9:00-17:00,
-fri:9:00-17:00,
-sat:9:00-17:00,
-sun:closed,</t>
-  </si>
-  <si>
-    <t>bilet normalny 14 zł 
-bilet ulgowy 7 zł</t>
-  </si>
-  <si>
-    <t>Kazimierza Przerwy-Tetmajera 15, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.28949140</t>
-  </si>
-  <si>
-    <t>19.95811780</t>
-  </si>
-  <si>
-    <t>https://muzeumtatrzanskie.pl/filie/muzeum-kornela-makuszynskiego/</t>
-  </si>
-  <si>
-    <t>Warto połączyć wizytę z odwiedzeniem innych oddziałów Muzeum Tatrzańskiego – często dostępny jest bilet łączony.</t>
-  </si>
-  <si>
-    <t>Parking Tetmajera 17</t>
-  </si>
-  <si>
-    <t>Kazimierza Przerwy-Tetmajera 17, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.28920668357339</t>
-  </si>
-  <si>
-    <t>19.9578271971264</t>
-  </si>
-  <si>
-    <t>muzeum, literatura, Makuszyński, historia, atrakcja rodzinna, Zakopane</t>
-  </si>
-  <si>
-    <t>Muzeum Stylu Zakopiańskiego im. S. Witkiewicza</t>
-  </si>
-  <si>
-    <t>Muzeum prezentujące historię i charakterystyczny styl zakopiański w architekturze i sztuce.</t>
-  </si>
-  <si>
-    <t>Muzeum Stylu Zakopiańskiego im. S. Witkiewicza mieści się w Willi Koliba, będącej pierwszym przykładem stylu zakopiańskiego w architekturze. Ekspozycja prezentuje dokonania Stanisława Witkiewicza, twórcy tego stylu, oraz bogate zbiory rzemiosła, mebli, detali architektonicznych i przedmiotów codziennego użytku z przełomu XIX i XX wieku. Zwiedzający mogą podziwiać unikalne wnętrza oraz poznać historię narodzin oryginalnej zakopiańskiej estetyki.</t>
-  </si>
-  <si>
-    <t>To unikatowa okazja do zgłębienia dziedzictwa kulturowego regionu, zobaczenia oryginalnych projektów Stanisława Witkiewicza i lepszego zrozumienia charakterystycznej architektury Podhala.</t>
-  </si>
-  <si>
-    <t>mon:9:00-17:00,
-tue:closed,
-wed:9:00-17:00,
-thu:9:00-17:00,
-fri:11:00-19:00,
-sat:11:00-19:00,
-sun:9:00-17:00,</t>
-  </si>
-  <si>
-    <t>bilet normalny 22 zł 
-bilet ulgowy 11 zł</t>
-  </si>
-  <si>
-    <t>Kościeliska 18, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29433310</t>
-  </si>
-  <si>
-    <t>19.94296910</t>
-  </si>
-  <si>
-    <t>https://muzeumtatrzanskie.pl/filie/willa-koliba-muzeum-stylu-zakopianskiego/</t>
-  </si>
-  <si>
-    <t>Odwiedź muzeum poza sezonem turystycznym, by zwiedzać w spokojniejszej atmosferze i dokładniej obejrzeć detale architektoniczne Willi Koliba.</t>
-  </si>
-  <si>
-    <t>Parking na miejscu na cztery samochody</t>
-  </si>
-  <si>
-    <t>49.29423307964222</t>
-  </si>
-  <si>
-    <t>19.943075491958773</t>
-  </si>
-  <si>
-    <t>styl zakopiański, sztuka, architektura, Stanisław Witkiewicz, historia, kultura</t>
-  </si>
-  <si>
-    <t>Galeria sztuki w willi Oksza</t>
-  </si>
-  <si>
-    <t>Galeria prezentująca zbiory sztuki w zabytkowej willi Oksza, będąca filią Muzeum Tatrzańskiego.</t>
-  </si>
-  <si>
-    <t>Galeria sztuki w willi Oksza mieści się w zabytkowej willi z początku XX wieku, będącej przykładem stylu zakopiańskiego autorstwa Stanisława Witkiewicza. Jest to filia Muzeum Tatrzańskiego, w której prezentowane są wystawy związane z artystami związanymi z Podhalem, Zakopanem i Tatrami – m.in. malarstwo, grafika, rzeźba oraz fotografie. Wnętrza willi urzekają oryginalnymi detalami architektonicznymi i wyjątkowym klimatem, idealnie dopełniającym ekspozycje.</t>
-  </si>
-  <si>
-    <t>To wyjątkowe miejsce, gdzie można podziwiać sztukę i architekturę regionu oraz dowiedzieć się więcej o artystycznej historii Zakopanego i Tatr.</t>
-  </si>
-  <si>
-    <t>mon:closed,
-tue:9:00-17:00,
-wed:9:00-17:00,
-thu:9:00-17:00,
-fri:11:00-19:00,
-sat:11:00-19:00,
-sun:9:00-17:00,</t>
-  </si>
-  <si>
-    <t>Hr. Władysława Zamoyskiego 25, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.28868030</t>
-  </si>
-  <si>
-    <t>19.96632910</t>
-  </si>
-  <si>
-    <t>https://muzeumtatrzanskie.pl/filie/galeria-sztuki-w-willi-oksza/</t>
-  </si>
-  <si>
-    <t>Warto zwrócić uwagę na elementy architektoniczne wnętrza willi, które są przykładem stylu zakopiańskiego.</t>
-  </si>
-  <si>
-    <t>49.28876287435649</t>
-  </si>
-  <si>
-    <t>19.9666987218065</t>
-  </si>
-  <si>
-    <t>sztuka, muzeum, willa Oksza, styl zakopiański, Witkiewicz, wystawy</t>
-  </si>
-  <si>
-    <t>Muzeum Karola Szymanowskiego w willi "Atma"</t>
-  </si>
-  <si>
-    <t>Historyczna willa w stylu zakopiańskim, w której znajduje się muzeum poświęcone Karolowi Szymanowskiemu.</t>
-  </si>
-  <si>
-    <t>Villa Atma to zabytkowa willa w stylu zakopiańskim, zbudowana na początku XX wieku. Obecnie mieści się tu muzeum poświęcone wybitnemu polskiemu kompozytorowi Karolowi Szymanowskiemu, który spędził w niej ostatnie lata swojego życia. Wnętrza zachowały klimat dawnych czasów i prezentują pamiątki, fotografie, rękopisy oraz instrumenty związane z twórczością artysty. Willa otoczona jest nastrojowym ogrodem, a jej położenie sprzyja spokojnemu zwiedzaniu.</t>
-  </si>
-  <si>
-    <t>To idealne miejsce dla miłośników muzyki, sztuki i historii Zakopanego, a także dla osób zainteresowanych życiem i twórczością Karola Szymanowskiego.</t>
-  </si>
-  <si>
-    <t>mon:closed,
-tue:10:00-17:00,
-wed:10:00-17:00,
-thu:10:00-17:00,
-fri:10:00-17:00,
-sat:10:00-17:00,
-sun:10:00-17:00,</t>
-  </si>
-  <si>
-    <t>Closed 13:00 - 13:30</t>
-  </si>
-  <si>
-    <t>Bilet normalny: 15.00 zł; Bilet ulgowy: 10.00 zł</t>
-  </si>
-  <si>
-    <t>Kasprusie 19, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29241960</t>
-  </si>
-  <si>
-    <t>19.94848170</t>
-  </si>
-  <si>
-    <t>https://mnk.pl/wystawy/muzeum-biograficzne-karola-szymanowskiego</t>
-  </si>
-  <si>
-    <t>https://bilety.mnk.pl/nienumerowane/muzeum-im-karola-szymanowskiego.html?id=372191</t>
-  </si>
-  <si>
-    <t>Warto sprawdzić aktualny program wydarzeń – w Willi Atma regularnie odbywają się kameralne koncerty i spotkania kulturalne.</t>
-  </si>
-  <si>
-    <t>PARKING KRUPÓWKI "AK"</t>
-  </si>
-  <si>
-    <t>Ogrodowa 2, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.29374981765316</t>
-  </si>
-  <si>
-    <t>19.95176421343834</t>
-  </si>
-  <si>
-    <t>muzeum, architektura zakopiańska, zabytek, Karol Szymanowski, sztuka</t>
-  </si>
-  <si>
-    <t>Tatrzański Park Edukacyjny</t>
-  </si>
-  <si>
-    <t>Edukacyjny park zoologiczny, który przybliża przyrodę Tatr i kulturę góralską.</t>
-  </si>
-  <si>
-    <t>Tatrzański Park Edukacyjny to miejsce stworzone z myślą o najmłodszych, ale również dorosłych, którzy chcą lepiej poznać faunę, florę oraz tradycje regionu tatrzańskiego. W parku znajdują się zagrody ze zwierzętami, ścieżki edukacyjne, mini zoo, figury edukacyjne oraz atrakcje tematyczne inspirowane przyrodą Tatr. Odbywają się tu również warsztaty i prelekcje o lokalnej przyrodzie i kulturze Podhala.</t>
-  </si>
-  <si>
-    <t>To doskonałe miejsce do rodzinnego wypoczynku, poznawania zwierząt żyjących w Tatrach oraz ciekawostek o folklorze i przyrodzie regionu.</t>
-  </si>
-  <si>
-    <t>"date_from": "04-01", 
-"date_to": "10-30", 
+    <t xml:space="preserve">"date_from": "05-01", 
+"date_to": "09-30", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
 mon:10:00-16:00 
 tue:10:00-16:00, 
 wed:10:00-16:00, 
@@ -1785,155 +1944,8 @@
 sun:10:00-16:00,</t>
   </si>
   <si>
-    <t>Bilet normalny 30 zł 
-Bilet ulgowy 25 zł</t>
-  </si>
-  <si>
-    <t>Józefa Piłsudskiego 38, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.28168590</t>
-  </si>
-  <si>
-    <t>19.96237580</t>
-  </si>
-  <si>
-    <t>https://www.tpe.edu.pl/contact</t>
-  </si>
-  <si>
-    <t>https://www.tpe.edu.pl/offer</t>
-  </si>
-  <si>
-    <t>kids_attractions</t>
-  </si>
-  <si>
-    <t>Najlepiej odwiedzić park w tygodniu, aby uniknąć tłumów i mieć więcej czasu na uczestnictwo w warsztatach edukacyjnych.</t>
-  </si>
-  <si>
-    <t>49.28216607253456</t>
-  </si>
-  <si>
-    <t>19.964494492391324</t>
-  </si>
-  <si>
-    <t>edukacja, zoo, fauna, florystyka, rodzina, warsztaty, kultura podhalańska</t>
-  </si>
-  <si>
-    <t>Kaplica Najświętszego Serca Pana Jezusa w Jaszczurówce</t>
-  </si>
-  <si>
-    <t>Drewniana kaplica w stylu zakopiańskim, będąca jednym z najpiękniejszych przykładów architektury sakralnej regionu.</t>
-  </si>
-  <si>
-    <t>Kaplica Najświętszego Serca Pana Jezusa w Jaszczurówce to jeden z najcenniejszych zabytków architektury sakralnej w stylu zakopiańskim. Została zaprojektowana przez Stanisława Witkiewicza i wybudowana na początku XX wieku. Wyróżnia się unikalnymi, drewnianymi zdobieniami oraz dużą dbałością o detale regionalne. Wnętrze kaplicy zachwyca atmosferą, subtelnym światłem wpadającym przez witraże i bogactwem góralskich ornamentów.</t>
-  </si>
-  <si>
-    <t>To obowiązkowe miejsce dla miłośników stylu zakopiańskiego oraz osób chcących poznać kulturę i tradycje regionu podhalańskiego.</t>
-  </si>
-  <si>
-    <t>mon:8:00-20:00
-tue:8:00-20:00,
-wed:8:00-20:00,
-thu:8:00-20:00,
-fri:8:00-20:00,
-sat:8:00-20:00,
-sun:8:00-20:00,</t>
-  </si>
-  <si>
-    <t>Jaszczurówka 38, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.28426160</t>
-  </si>
-  <si>
-    <t>20.00138280</t>
-  </si>
-  <si>
-    <t>13:00-14:00</t>
-  </si>
-  <si>
-    <t>Warto odwiedzić kaplicę w trakcie mszy lub koncertów, by poczuć wyjątkową atmosferę tego miejsca.</t>
-  </si>
-  <si>
-    <t>Parking przy ulicy</t>
-  </si>
-  <si>
-    <t>Droga Oswalda Balzera, 34-500 Zakopane</t>
-  </si>
-  <si>
-    <t>49.28425502719659</t>
-  </si>
-  <si>
-    <t>20.000749330935996</t>
-  </si>
-  <si>
-    <t>styl zakopiański, sztuka sakralna, drewniana architektura, zabytek, kultura podhalańska</t>
-  </si>
-  <si>
-    <t>KULIGI w Zakopanem</t>
-  </si>
-  <si>
-    <t>Organizator tradycyjnych kuligów z saniami i pochodniami po zakopiańskich okolicach.</t>
-  </si>
-  <si>
-    <t>KULIGI.pl to firma oferująca tradycyjne kuligi w Zakopanem i okolicach. Przejażdżki saniami zaprzężonymi w konie odbywają się w malowniczej scenerii Tatr i polskich lasów. Uczestnicy mogą poczuć klimat dawnej góralskiej zabawy, z pochodniami, śpiewem oraz często z ogniskiem i regionalnymi przekąskami po zakończeniu przejażdżki.</t>
-  </si>
-  <si>
-    <t>To niepowtarzalna okazja, by przeżyć autentyczny, zimowy kulig i poznać lokalne tradycje w wyjątkowej atmosferze zakopiańskiej zimy.</t>
-  </si>
-  <si>
-    <t>mon:15:00-19:00
-tue:15:00-19:00,
-wed:15:00-19:00,
-thu:15:00-19:00,
-fri:15:00-19:00,
-sat:15:00-19:00,
-sun:15:00-19:00,</t>
-  </si>
-  <si>
-    <t>Kulig tradycyjny z widokami od 247 zł; Kulig nocny z pochodniami od 247,00 zł</t>
-  </si>
-  <si>
-    <t>Mariusza Zaruskiego 1, 34-500 Zakopane, Poland</t>
-  </si>
-  <si>
-    <t>49.29421100</t>
-  </si>
-  <si>
-    <t>19.95178250</t>
-  </si>
-  <si>
-    <t>https://www.kuligi.pl/</t>
-  </si>
-  <si>
-    <t>16:00-19:00</t>
-  </si>
-  <si>
-    <t>active_sport, relaxation</t>
-  </si>
-  <si>
-    <t>premium</t>
-  </si>
-  <si>
-    <t>winter</t>
-  </si>
-  <si>
-    <t>Najlepszy klimat kuligu jest po zmroku – pochodnie i śnieg tworzą wtedy niepowtarzalny nastrój.</t>
-  </si>
-  <si>
-    <t>Parking przy Siwej Polanie</t>
-  </si>
-  <si>
-    <t>34-512 Witów</t>
-  </si>
-  <si>
-    <t>49.28807813151476</t>
-  </si>
-  <si>
-    <t>19.848047367038767</t>
-  </si>
-  <si>
-    <t>kulig, tradycja, konie, śnieg, zima, Zakopane, rozrywka, górale</t>
+    <t>"date_from": "04-01", 
+"date_to": "10-30",</t>
   </si>
 </sst>
 </file>
@@ -2372,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AQ33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2383,6 +2395,7 @@
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="34" max="34" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2517,7 +2530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="409.6" thickBot="1">
+    <row r="2" spans="1:43" ht="172.2" thickBot="1">
       <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
@@ -2643,7 +2656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="409.6" thickBot="1">
+    <row r="3" spans="1:43" ht="172.2" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>77</v>
       </c>
@@ -2769,7 +2782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="409.6" thickBot="1">
+    <row r="4" spans="1:43" ht="159" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>100</v>
       </c>
@@ -2895,7 +2908,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="409.6" thickBot="1">
+    <row r="5" spans="1:43" ht="198.6" thickBot="1">
       <c r="B5" s="4" t="s">
         <v>121</v>
       </c>
@@ -3021,7 +3034,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="409.6" thickBot="1">
+    <row r="6" spans="1:43" ht="159" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>140</v>
       </c>
@@ -3147,7 +3160,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="409.6" thickBot="1">
+    <row r="7" spans="1:43" ht="172.2" thickBot="1">
       <c r="B7" s="4" t="s">
         <v>156</v>
       </c>
@@ -3273,7 +3286,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="409.6" thickBot="1">
+    <row r="8" spans="1:43" ht="185.4" thickBot="1">
       <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
@@ -3287,9 +3300,11 @@
         <v>175</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>582</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>583</v>
+      </c>
       <c r="H8" s="4">
         <v>30</v>
       </c>
@@ -3297,7 +3312,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K8" s="4">
         <v>89</v>
@@ -3306,22 +3321,22 @@
         <v>49</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="R8" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>87</v>
@@ -3339,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="X8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>60</v>
@@ -3354,34 +3369,34 @@
         <v>41913</v>
       </c>
       <c r="AC8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AE8" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>66</v>
       </c>
       <c r="AG8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH8" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AI8" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AJ8" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AK8" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="AM8" s="4" t="s">
         <v>73</v>
@@ -3396,26 +3411,28 @@
         <v>75</v>
       </c>
       <c r="AQ8" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="145.80000000000001" thickBot="1">
+      <c r="B9" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" ht="409.6" thickBot="1">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>584</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>585</v>
+      </c>
       <c r="H9" s="4">
         <v>10</v>
       </c>
@@ -3423,7 +3440,7 @@
         <v>60</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K9" s="4">
         <v>20</v>
@@ -3432,22 +3449,22 @@
         <v>5</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="R9" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>87</v>
@@ -3465,7 +3482,7 @@
         <v>4</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>59</v>
@@ -3474,16 +3491,16 @@
         <v>60</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AB9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="AC9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD9" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="AE9" s="8" t="s">
         <v>65</v>
@@ -3492,22 +3509,22 @@
         <v>66</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AI9" s="4" t="s">
+      <c r="AK9" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AJ9" s="4" t="s">
+      <c r="AL9" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="AM9" s="4" t="s">
         <v>73</v>
@@ -3522,24 +3539,24 @@
         <v>75</v>
       </c>
       <c r="AQ9" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="159" thickBot="1">
+      <c r="B10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" ht="409.6" thickBot="1">
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4">
@@ -3549,7 +3566,7 @@
         <v>180</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K10" s="4">
         <v>32</v>
@@ -3558,22 +3575,22 @@
         <v>32</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="R10" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>55</v>
@@ -3591,25 +3608,25 @@
         <v>6</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE10" s="8" t="s">
         <v>65</v>
@@ -3621,19 +3638,19 @@
         <v>67</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AI10" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AJ10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL10" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="AM10" s="4" t="s">
         <v>98</v>
@@ -3648,21 +3665,21 @@
         <v>75</v>
       </c>
       <c r="AQ10" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="172.2" thickBot="1">
+      <c r="B11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" ht="409.6" thickBot="1">
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>125</v>
@@ -3675,7 +3692,7 @@
         <v>60</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K11" s="4">
         <v>45</v>
@@ -3684,22 +3701,22 @@
         <v>45</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="R11" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>55</v>
@@ -3720,22 +3737,22 @@
         <v>89</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE11" s="8" t="s">
         <v>65</v>
@@ -3747,19 +3764,19 @@
         <v>67</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AI11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK11" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AJ11" s="4" t="s">
+      <c r="AL11" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="AK11" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL11" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="AM11" s="4" t="s">
         <v>73</v>
@@ -3774,21 +3791,21 @@
         <v>75</v>
       </c>
       <c r="AQ11" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="185.4" thickBot="1">
+      <c r="B12" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" ht="409.6" thickBot="1">
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>104</v>
@@ -3801,27 +3818,27 @@
         <v>150</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>87</v>
@@ -3839,25 +3856,25 @@
         <v>5</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AB12" s="4" t="s">
         <v>62</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE12" s="8" t="s">
         <v>65</v>
@@ -3869,19 +3886,19 @@
         <v>67</v>
       </c>
       <c r="AH12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AI12" s="4" t="s">
+      <c r="AK12" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="AJ12" s="4" t="s">
+      <c r="AL12" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="AK12" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL12" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="AM12" s="4" t="s">
         <v>73</v>
@@ -3896,24 +3913,24 @@
         <v>75</v>
       </c>
       <c r="AQ12" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="185.4" thickBot="1">
+      <c r="B13" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" ht="409.6" thickBot="1">
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4">
@@ -3923,7 +3940,7 @@
         <v>60</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K13" s="4">
         <v>45</v>
@@ -3932,22 +3949,22 @@
         <v>40</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="R13" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>55</v>
@@ -3968,7 +3985,7 @@
         <v>89</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>60</v>
@@ -3995,19 +4012,19 @@
         <v>67</v>
       </c>
       <c r="AH13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AK13" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AL13" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="AK13" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AL13" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="AM13" s="4" t="s">
         <v>73</v>
@@ -4022,7 +4039,7 @@
         <v>75</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15" thickBot="1">
@@ -4069,21 +4086,21 @@
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
     </row>
-    <row r="15" spans="1:43" ht="409.6" thickBot="1">
+    <row r="15" spans="1:43" ht="172.2" thickBot="1">
       <c r="B15" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="4">
@@ -4093,7 +4110,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K15" s="4">
         <v>21</v>
@@ -4102,22 +4119,22 @@
         <v>17</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>55</v>
@@ -4135,10 +4152,10 @@
         <v>5</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>60</v>
@@ -4150,7 +4167,7 @@
         <v>62</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AD15" s="4" t="s">
         <v>92</v>
@@ -4165,19 +4182,19 @@
         <v>67</v>
       </c>
       <c r="AH15" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AI15" s="4" t="s">
+      <c r="AK15" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AJ15" s="4" t="s">
+      <c r="AL15" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="AK15" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="AL15" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="AM15" s="4" t="s">
         <v>73</v>
@@ -4192,24 +4209,24 @@
         <v>75</v>
       </c>
       <c r="AQ15" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="159" thickBot="1">
+      <c r="B16" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" ht="409.6" thickBot="1">
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="4">
@@ -4219,7 +4236,7 @@
         <v>90</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -4228,22 +4245,22 @@
         <v>0</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>87</v>
@@ -4270,40 +4287,40 @@
         <v>60</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AD16" s="4" t="s">
         <v>92</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG16" s="4" t="s">
         <v>67</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AI16" s="4" t="s">
         <v>115</v>
       </c>
       <c r="AJ16" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL16" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="AK16" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL16" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="AM16" s="4" t="s">
         <v>73</v>
@@ -4315,27 +4332,27 @@
         <v>119</v>
       </c>
       <c r="AP16" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="2:43" ht="185.4" thickBot="1">
+      <c r="B17" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AQ16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="17" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="4">
@@ -4345,7 +4362,7 @@
         <v>240</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K17" s="4">
         <v>49</v>
@@ -4354,22 +4371,22 @@
         <v>39</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="R17" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>55</v>
@@ -4402,7 +4419,7 @@
         <v>62</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AD17" s="4" t="s">
         <v>92</v>
@@ -4417,19 +4434,19 @@
         <v>67</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AI17" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AJ17" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AK17" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AL17" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AM17" s="4" t="s">
         <v>73</v>
@@ -4444,24 +4461,24 @@
         <v>75</v>
       </c>
       <c r="AQ17" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="2:43" ht="198.6" thickBot="1">
+      <c r="B18" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="18" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="4">
@@ -4471,7 +4488,7 @@
         <v>300</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K18" s="4">
         <v>59</v>
@@ -4480,25 +4497,25 @@
         <v>45</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O18" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q18" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="R18" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="S18" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>56</v>
@@ -4513,13 +4530,13 @@
         <v>7</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y18" s="4" t="s">
         <v>59</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>61</v>
@@ -4528,7 +4545,7 @@
         <v>62</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AD18" s="4" t="s">
         <v>92</v>
@@ -4543,19 +4560,19 @@
         <v>67</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AI18" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AJ18" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL18" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="AK18" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="AL18" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="AM18" s="4" t="s">
         <v>98</v>
@@ -4570,24 +4587,24 @@
         <v>75</v>
       </c>
       <c r="AQ18" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="2:43" ht="198.6" thickBot="1">
+      <c r="B19" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="19" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="4">
@@ -4597,7 +4614,7 @@
         <v>360</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K19" s="4">
         <v>89</v>
@@ -4606,25 +4623,25 @@
         <v>59</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O19" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="R19" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="Q19" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="S19" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>56</v>
@@ -4639,13 +4656,13 @@
         <v>8</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>111</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>61</v>
@@ -4654,13 +4671,13 @@
         <v>62</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AD19" s="4" t="s">
         <v>92</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF19" s="4" t="s">
         <v>66</v>
@@ -4669,19 +4686,19 @@
         <v>67</v>
       </c>
       <c r="AH19" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="AI19" s="4" t="s">
+      <c r="AK19" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="AJ19" s="4" t="s">
+      <c r="AL19" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="AK19" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="AL19" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="AM19" s="4" t="s">
         <v>73</v>
@@ -4696,24 +4713,24 @@
         <v>75</v>
       </c>
       <c r="AQ19" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="2:43" ht="198.6" thickBot="1">
+      <c r="B20" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="20" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="4">
@@ -4723,7 +4740,7 @@
         <v>360</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K20" s="4">
         <v>95</v>
@@ -4732,25 +4749,25 @@
         <v>75</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O20" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="R20" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="S20" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>56</v>
@@ -4765,13 +4782,13 @@
         <v>7</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Y20" s="4" t="s">
         <v>111</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>61</v>
@@ -4780,13 +4797,13 @@
         <v>62</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AD20" s="4" t="s">
         <v>92</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF20" s="4" t="s">
         <v>66</v>
@@ -4795,19 +4812,19 @@
         <v>67</v>
       </c>
       <c r="AH20" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK20" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="AI20" s="4" t="s">
+      <c r="AL20" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="AJ20" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="AK20" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AL20" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="AM20" s="4" t="s">
         <v>73</v>
@@ -4816,30 +4833,30 @@
         <v>2</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AP20" s="4" t="s">
         <v>75</v>
       </c>
       <c r="AQ20" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="2:43" ht="185.4" thickBot="1">
+      <c r="B21" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="21" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="4">
@@ -4849,7 +4866,7 @@
         <v>360</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K21" s="4">
         <v>85</v>
@@ -4858,25 +4875,25 @@
         <v>64</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O21" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q21" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="R21" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>56</v>
@@ -4897,7 +4914,7 @@
         <v>111</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>61</v>
@@ -4906,13 +4923,13 @@
         <v>62</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AD21" s="4" t="s">
         <v>92</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF21" s="4" t="s">
         <v>66</v>
@@ -4921,19 +4938,19 @@
         <v>67</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AI21" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AK21" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AL21" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AM21" s="4" t="s">
         <v>98</v>
@@ -4948,24 +4965,24 @@
         <v>75</v>
       </c>
       <c r="AQ21" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="2:43" ht="238.2" thickBot="1">
+      <c r="B22" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="22" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="4">
@@ -4975,7 +4992,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K22" s="4">
         <v>25</v>
@@ -4984,22 +5001,22 @@
         <v>20</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O22" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="R22" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>87</v>
@@ -5020,7 +5037,7 @@
         <v>89</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>60</v>
@@ -5032,7 +5049,7 @@
         <v>62</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AD22" s="4" t="s">
         <v>92</v>
@@ -5047,19 +5064,19 @@
         <v>67</v>
       </c>
       <c r="AH22" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AL22" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="AI22" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK22" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="AL22" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="AM22" s="4" t="s">
         <v>73</v>
@@ -5068,32 +5085,34 @@
         <v>1</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AP22" s="4" t="s">
         <v>75</v>
       </c>
       <c r="AQ22" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="2:43" ht="172.2" thickBot="1">
+      <c r="B23" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="23" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>586</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="H23" s="4">
         <v>60</v>
       </c>
@@ -5101,7 +5120,7 @@
         <v>120</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -5110,22 +5129,22 @@
         <v>0</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>55</v>
@@ -5143,7 +5162,7 @@
         <v>8</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>111</v>
@@ -5164,28 +5183,28 @@
         <v>92</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG23" s="4" t="s">
         <v>67</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AI23" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AJ23" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AK23" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AM23" s="4" t="s">
         <v>73</v>
@@ -5194,30 +5213,30 @@
         <v>1</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AP23" s="4" t="s">
         <v>75</v>
       </c>
       <c r="AQ23" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="2:43" ht="145.80000000000001" thickBot="1">
+      <c r="B24" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="24" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="4">
@@ -5227,7 +5246,7 @@
         <v>60</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K24" s="4">
         <v>45</v>
@@ -5236,22 +5255,22 @@
         <v>35</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O24" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="R24" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>55</v>
@@ -5272,7 +5291,7 @@
         <v>89</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>60</v>
@@ -5290,7 +5309,7 @@
         <v>92</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF24" s="4" t="s">
         <v>66</v>
@@ -5299,19 +5318,19 @@
         <v>67</v>
       </c>
       <c r="AH24" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="AI24" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AJ24" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK24" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="AI24" s="4" t="s">
+      <c r="AL24" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="AJ24" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="AK24" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="AL24" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="AM24" s="4" t="s">
         <v>73</v>
@@ -5326,24 +5345,24 @@
         <v>75</v>
       </c>
       <c r="AQ24" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="2:43" ht="145.80000000000001" thickBot="1">
+      <c r="B25" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="25" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="4">
@@ -5353,7 +5372,7 @@
         <v>60</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K25" s="4">
         <v>35</v>
@@ -5362,22 +5381,22 @@
         <v>30</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>55</v>
@@ -5398,13 +5417,13 @@
         <v>89</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AB25" s="4" t="s">
         <v>131</v>
@@ -5416,7 +5435,7 @@
         <v>92</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF25" s="4" t="s">
         <v>66</v>
@@ -5425,19 +5444,19 @@
         <v>67</v>
       </c>
       <c r="AH25" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="AK25" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="AI25" s="4" t="s">
+      <c r="AL25" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="AJ25" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AK25" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="AL25" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="AM25" s="4" t="s">
         <v>73</v>
@@ -5452,24 +5471,24 @@
         <v>75</v>
       </c>
       <c r="AQ25" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="2:43" ht="198.6" thickBot="1">
+      <c r="B26" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="26" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="4">
@@ -5479,7 +5498,7 @@
         <v>120</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K26" s="4">
         <v>24</v>
@@ -5488,22 +5507,22 @@
         <v>12</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>55</v>
@@ -5521,16 +5540,16 @@
         <v>8</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AB26" s="9">
         <v>41913</v>
@@ -5545,13 +5564,13 @@
         <v>65</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG26" s="4" t="s">
         <v>67</v>
       </c>
       <c r="AH26" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AI26" s="4" t="s">
         <v>134</v>
@@ -5560,10 +5579,10 @@
         <v>135</v>
       </c>
       <c r="AK26" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AL26" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AM26" s="4" t="s">
         <v>73</v>
@@ -5572,30 +5591,30 @@
         <v>3</v>
       </c>
       <c r="AO26" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AP26" s="4" t="s">
         <v>75</v>
       </c>
       <c r="AQ26" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="2:43" ht="211.8" thickBot="1">
+      <c r="B27" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="27" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="4">
@@ -5605,7 +5624,7 @@
         <v>90</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K27" s="4">
         <v>14</v>
@@ -5614,22 +5633,22 @@
         <v>7</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="S27" s="4" t="s">
         <v>55</v>
@@ -5647,7 +5666,7 @@
         <v>7</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>111</v>
@@ -5668,28 +5687,28 @@
         <v>64</v>
       </c>
       <c r="AE27" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG27" s="4" t="s">
         <v>67</v>
       </c>
       <c r="AH27" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AI27" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AK27" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="AI27" s="4" t="s">
+      <c r="AL27" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="AJ27" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="AK27" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="AL27" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="AM27" s="4" t="s">
         <v>73</v>
@@ -5704,24 +5723,24 @@
         <v>75</v>
       </c>
       <c r="AQ27" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="2:43" ht="185.4" thickBot="1">
+      <c r="B28" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="28" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="4">
@@ -5731,7 +5750,7 @@
         <v>90</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K28" s="4">
         <v>22</v>
@@ -5740,22 +5759,22 @@
         <v>11</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="S28" s="4" t="s">
         <v>55</v>
@@ -5773,7 +5792,7 @@
         <v>8</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>111</v>
@@ -5794,28 +5813,28 @@
         <v>64</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG28" s="4" t="s">
         <v>67</v>
       </c>
       <c r="AH28" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AI28" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="AK28" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="AL28" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="AI28" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="AJ28" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="AK28" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="AL28" s="4" t="s">
-        <v>502</v>
       </c>
       <c r="AM28" s="4" t="s">
         <v>98</v>
@@ -5824,30 +5843,30 @@
         <v>1</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AP28" s="4" t="s">
         <v>75</v>
       </c>
       <c r="AQ28" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:43" ht="198.6" thickBot="1">
+      <c r="B29" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="29" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="4">
@@ -5857,7 +5876,7 @@
         <v>90</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K29" s="4">
         <v>24</v>
@@ -5866,22 +5885,22 @@
         <v>12</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="S29" s="4" t="s">
         <v>55</v>
@@ -5899,7 +5918,7 @@
         <v>8</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>111</v>
@@ -5920,28 +5939,28 @@
         <v>64</v>
       </c>
       <c r="AE29" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG29" s="4" t="s">
         <v>67</v>
       </c>
       <c r="AH29" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AI29" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AJ29" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AK29" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AL29" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AM29" s="4" t="s">
         <v>98</v>
@@ -5950,33 +5969,33 @@
         <v>1</v>
       </c>
       <c r="AO29" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AP29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="AQ29" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="2:43" ht="198.6" thickBot="1">
+      <c r="B30" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="30" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="H30" s="4">
         <v>30</v>
@@ -5985,7 +6004,7 @@
         <v>60</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K30" s="4">
         <v>15</v>
@@ -5994,22 +6013,22 @@
         <v>10</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O30" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="R30" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>55</v>
@@ -6027,7 +6046,7 @@
         <v>6</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y30" s="4" t="s">
         <v>111</v>
@@ -6048,28 +6067,28 @@
         <v>64</v>
       </c>
       <c r="AE30" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG30" s="4" t="s">
         <v>67</v>
       </c>
       <c r="AH30" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ30" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="AK30" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="AI30" s="4" t="s">
+      <c r="AL30" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="AJ30" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="AK30" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="AL30" s="4" t="s">
-        <v>533</v>
       </c>
       <c r="AM30" s="4" t="s">
         <v>73</v>
@@ -6078,32 +6097,34 @@
         <v>6</v>
       </c>
       <c r="AO30" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AP30" s="4" t="s">
         <v>75</v>
       </c>
       <c r="AQ30" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="31" spans="2:43" ht="172.2" thickBot="1">
+      <c r="B31" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="31" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>538</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="G31" s="5"/>
+        <v>588</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>589</v>
+      </c>
       <c r="H31" s="4">
         <v>60</v>
       </c>
@@ -6111,7 +6132,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K31" s="4">
         <v>30</v>
@@ -6120,22 +6141,22 @@
         <v>25</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="S31" s="4" t="s">
         <v>87</v>
@@ -6153,7 +6174,7 @@
         <v>6</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Y31" s="4" t="s">
         <v>111</v>
@@ -6168,7 +6189,7 @@
         <v>62</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AD31" s="4" t="s">
         <v>92</v>
@@ -6180,22 +6201,22 @@
         <v>66</v>
       </c>
       <c r="AG31" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH31" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AI31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ31" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AJ31" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="AK31" s="4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AL31" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AM31" s="4" t="s">
         <v>73</v>
@@ -6210,24 +6231,24 @@
         <v>75</v>
       </c>
       <c r="AQ31" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="2:43" ht="185.4" thickBot="1">
+      <c r="B32" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="32" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="4">
@@ -6237,7 +6258,7 @@
         <v>40</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K32" s="4">
         <v>0</v>
@@ -6246,22 +6267,22 @@
         <v>0</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>87</v>
@@ -6279,7 +6300,7 @@
         <v>8</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Y32" s="4" t="s">
         <v>111</v>
@@ -6300,28 +6321,28 @@
         <v>92</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG32" s="4" t="s">
         <v>67</v>
       </c>
       <c r="AH32" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="AI32" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="AJ32" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="AK32" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="AL32" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="AI32" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="AJ32" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="AK32" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="AL32" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="AM32" s="4" t="s">
         <v>98</v>
@@ -6336,24 +6357,24 @@
         <v>75</v>
       </c>
       <c r="AQ32" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33" spans="2:43" ht="145.80000000000001" thickBot="1">
+      <c r="B33" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="33" spans="2:43" ht="409.6" thickBot="1">
-      <c r="B33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>570</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="4">
@@ -6363,7 +6384,7 @@
         <v>180</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K33" s="4">
         <v>247</v>
@@ -6372,22 +6393,22 @@
         <v>247</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>87</v>
@@ -6405,7 +6426,7 @@
         <v>8</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="Y33" s="4" t="s">
         <v>59</v>
@@ -6420,7 +6441,7 @@
         <v>62</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AD33" s="4" t="s">
         <v>92</v>
@@ -6429,25 +6450,25 @@
         <v>65</v>
       </c>
       <c r="AF33" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="AG33" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="AH33" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI33" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="AJ33" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="AG33" s="4" t="s">
+      <c r="AK33" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="AH33" s="4" t="s">
+      <c r="AL33" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="AI33" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="AJ33" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="AK33" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="AL33" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="AM33" s="4" t="s">
         <v>73</v>
@@ -6456,13 +6477,13 @@
         <v>1</v>
       </c>
       <c r="AO33" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AP33" s="4" t="s">
         <v>75</v>
       </c>
       <c r="AQ33" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/data/zakopane.xlsx
+++ b/data/zakopane.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,16 +20,13 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -438,217 +426,217 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Description_short</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Description_long</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Why visit</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Opening hours</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>opening_hours_seasonal</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>time_min</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>time_max</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>ticket_normal</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>ticket_reduced</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Lat</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Lng</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Link do godzin</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Link do cennika</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Space</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Intensity</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>weather_dependency</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>popularity_score</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Must see score</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Peak hours</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>recommended_time_of_day</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Target group</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Children's age</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Type of attraction</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Activity_style</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>crowd_level</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Budget type</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>Seasonality of attractions</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>Pro_tip</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>parking_name</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>parking_address</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>parking_lat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>parking_lng</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>parking_type</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>parking_walk_time_min</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>priority_level</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>kids_only</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Tags</t>
         </is>
@@ -1929,7 +1917,7 @@
           <t>solo, couples, friends, family_kids</t>
         </is>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AB8" s="1" t="n">
         <v>41913</v>
       </c>
       <c r="AC8" t="inlineStr">
@@ -5194,7 +5182,7 @@
           <t>solo, couples, friends, seniors</t>
         </is>
       </c>
-      <c r="AB25" s="2" t="n">
+      <c r="AB25" s="1" t="n">
         <v>41913</v>
       </c>
       <c r="AC25" t="inlineStr">
@@ -5384,7 +5372,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB26" s="2" t="n">
+      <c r="AB26" s="1" t="n">
         <v>41913</v>
       </c>
       <c r="AC26" t="inlineStr">
@@ -5574,7 +5562,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB27" s="2" t="n">
+      <c r="AB27" s="1" t="n">
         <v>41913</v>
       </c>
       <c r="AC27" t="inlineStr">
@@ -5764,7 +5752,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB28" s="2" t="n">
+      <c r="AB28" s="1" t="n">
         <v>41913</v>
       </c>
       <c r="AC28" t="inlineStr">
@@ -5957,7 +5945,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB29" s="2" t="n">
+      <c r="AB29" s="1" t="n">
         <v>41913</v>
       </c>
       <c r="AC29" t="inlineStr">
@@ -6523,7 +6511,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">

--- a/data/zakopane.xlsx
+++ b/data/zakopane.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,13 +20,16 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -426,224 +438,228 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Description_short</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Description_long</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Why visit</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Opening hours</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>opening_hours_seasonal</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_min</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>time_max</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ticket_normal</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ticket_reduced</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Lat</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Lng</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Link do godzin</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Link do cennika</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Space</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Intensity</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>weather_dependency</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>popularity_score</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Must see score</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Peak hours</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>recommended_time_of_day</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Target group</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Children's age</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Type of attraction</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Activity_style</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>crowd_level</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Budget type</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Seasonality of attractions</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pro_tip</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>parking_name</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>parking_address</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>parking_lat</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>parking_lng</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>parking_type</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>parking_walk_time_min</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>priority_level</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>kids_only</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Tags</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>poi_1</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Muzeum Oscypka Zakopane</t>
@@ -830,7 +846,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>poi_2</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Tatrzańskie Mini Zoo</t>
@@ -1023,7 +1043,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>poi_3</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Myszogród</t>
@@ -1215,7 +1239,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>poi_4</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Iluzja Park</t>
@@ -1408,7 +1436,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>poi_5</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Papugarnia Egzotyczne Zakopane</t>
@@ -1600,7 +1632,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>poi_6</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Podwodny Świat</t>
@@ -1792,7 +1828,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>poi_7</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Zjazd pontonem ze skoczni narciarskiej Wielka Krokiew</t>
@@ -1917,7 +1957,7 @@
           <t>solo, couples, friends, family_kids</t>
         </is>
       </c>
-      <c r="AB8" s="1" t="n">
+      <c r="AB8" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1990,7 +2030,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>poi_8</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Góralski Ślizg</t>
@@ -2191,7 +2235,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>poi_9</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tatra Family</t>
@@ -2383,7 +2431,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>poi_10</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Park Harnasia</t>
@@ -2574,7 +2626,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>poi_11</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>DINO PARK</t>
@@ -2762,7 +2818,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>poi_12</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Illusion House</t>
@@ -2953,7 +3013,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>poi_13</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Dom do góry nogami</t>
@@ -3144,7 +3208,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>poi_14</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Plac zabaw na Górnej Równi Krupowej</t>
@@ -3335,7 +3403,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>poi_15</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Termy Zakopiańskie</t>
@@ -3527,7 +3599,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>poi_16</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Termy Gorący Potok</t>
@@ -3719,7 +3795,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>poi_17</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Chochołowskie Termy</t>
@@ -3911,7 +3991,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>poi_18</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Terma Bania</t>
@@ -4102,7 +4186,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>poi_19</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Termy Bukovina</t>
@@ -4294,7 +4382,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>poi_20</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Wielka Krokiew</t>
@@ -4485,7 +4577,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>poi_21</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Centrum Edukacji Przyrodniczej Tatrzańskiego Parku Narodowego</t>
@@ -4682,7 +4778,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>poi_22</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Wystawa Figur Woskowych EXPO Krupówki</t>
@@ -4873,7 +4973,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>poi_23</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Wielka Wystawa Klocków LEGO</t>
@@ -5064,7 +5168,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>poi_24</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Muzeum Tatrzańskie</t>
@@ -5182,7 +5290,7 @@
           <t>solo, couples, friends, seniors</t>
         </is>
       </c>
-      <c r="AB25" s="1" t="n">
+      <c r="AB25" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC25" t="inlineStr">
@@ -5254,7 +5362,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>poi_25</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Muzeum Kornela Makuszyńskiego</t>
@@ -5372,7 +5484,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB26" s="1" t="n">
+      <c r="AB26" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC26" t="inlineStr">
@@ -5444,7 +5556,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>poi_26</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Muzeum Stylu Zakopiańskiego im. S. Witkiewicza</t>
@@ -5562,7 +5678,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB27" s="1" t="n">
+      <c r="AB27" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC27" t="inlineStr">
@@ -5634,7 +5750,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>poi_27</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Galeria sztuki w willi Oksza</t>
@@ -5752,7 +5872,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB28" s="1" t="n">
+      <c r="AB28" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC28" t="inlineStr">
@@ -5824,7 +5944,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>poi_28</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Muzeum Karola Szymanowskiego w willi "Atma"</t>
@@ -5945,7 +6069,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB29" s="1" t="n">
+      <c r="AB29" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC29" t="inlineStr">
@@ -6017,7 +6141,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>poi_29</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tatrzański Park Edukacyjny</t>
@@ -6216,7 +6344,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>poi_30</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Kaplica Najświętszego Serca Pana Jezusa w Jaszczurówce</t>
@@ -6407,7 +6539,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>poi_31</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>KULIGI w Zakopanem</t>
@@ -6430,13 +6566,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>mon:15:00-19:00
-tue:15:00-19:00,
-wed:15:00-19:00,
-thu:15:00-19:00,
-fri:15:00-19:00,
-sat:15:00-19:00,
-sun:15:00-19:00,</t>
+          <t>mon:18:00-22:00,tue:18:00-22:00,wed:18:00-22:00,thu:18:00-22:00,fri:18:00-22:00,sat:18:00-22:00,sun:18:00-22:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>

--- a/data/zakopane.xlsx
+++ b/data/zakopane.xlsx
@@ -964,7 +964,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>solo, couples, friends, family_kids, seniors</t>
+          <t>family_kids</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">

--- a/data/zakopane.xlsx
+++ b/data/zakopane.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -685,7 +685,6 @@
           <t>Sat:15:30-18:00</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>45</v>
       </c>
@@ -882,7 +881,6 @@
 sun:8:00-20:00,</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>30</v>
       </c>
@@ -1079,7 +1077,6 @@
 sun:10:00-19:00,</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>30</v>
       </c>
@@ -1162,7 +1159,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>solo, couples, friends, family_kids</t>
+          <t>couples, friends, family_kids</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1275,7 +1272,6 @@
 sun:10:00-20:00,</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>60</v>
       </c>
@@ -1472,7 +1468,6 @@
 sun:10:00-19:00,</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>45</v>
       </c>
@@ -1668,7 +1663,6 @@
 sun:10:00-19:00,</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>30</v>
       </c>
@@ -1957,7 +1951,7 @@
           <t>solo, couples, friends, family_kids</t>
         </is>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AB8" s="3" t="n">
         <v>41913</v>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2271,7 +2265,6 @@
 sun:10:00-20:00,</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>60</v>
       </c>
@@ -2467,7 +2460,6 @@
 sun:10:00-20:00,</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>20</v>
       </c>
@@ -2662,7 +2654,6 @@
 sun:10:00-19:00,</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
         <v>60</v>
       </c>
@@ -2674,8 +2665,6 @@
           <t>brak danych</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>Józefa Piłsudskiego, 34-500 Zakopane, Poland</t>
@@ -2854,7 +2843,6 @@
 sun:10:00-18:00,</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>45</v>
       </c>
@@ -3049,7 +3037,6 @@
 sun:10:00-18:00,</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>20</v>
       </c>
@@ -3131,7 +3118,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>solo, couples, friends, family_kids</t>
+          <t>couples, friends, family_kids</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3244,7 +3231,6 @@
 sun:8:00-20:00,</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
         <v>20</v>
       </c>
@@ -3439,7 +3425,6 @@
 sun:9:00-22:00,</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>90</v>
       </c>
@@ -3635,7 +3620,6 @@
 sun:9:00-22:00,</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
         <v>90</v>
       </c>
@@ -3831,7 +3815,6 @@
 sun:9:00-22:00,</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
         <v>120</v>
       </c>
@@ -4027,7 +4010,6 @@
 sun:9:00-22:00,</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
         <v>120</v>
       </c>
@@ -4222,7 +4204,6 @@
 sun:9:00-22:00,</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
         <v>120</v>
       </c>
@@ -4418,7 +4399,6 @@
 sun:9:00-17:00,</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
         <v>45</v>
       </c>
@@ -4814,7 +4794,6 @@
 sun:10:00-22:00,</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
         <v>30</v>
       </c>
@@ -5009,7 +4988,6 @@
 sun:10:00-21:00,</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
         <v>30</v>
       </c>
@@ -5204,7 +5182,6 @@
 sun:10:00-18:00,</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
         <v>60</v>
       </c>
@@ -5290,7 +5267,7 @@
           <t>solo, couples, friends, seniors</t>
         </is>
       </c>
-      <c r="AB25" s="2" t="n">
+      <c r="AB25" s="3" t="n">
         <v>41913</v>
       </c>
       <c r="AC25" t="inlineStr">
@@ -5398,7 +5375,6 @@
 sun:closed,</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
         <v>30</v>
       </c>
@@ -5484,7 +5460,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB26" s="2" t="n">
+      <c r="AB26" s="3" t="n">
         <v>41913</v>
       </c>
       <c r="AC26" t="inlineStr">
@@ -5592,7 +5568,6 @@
 sun:9:00-17:00,</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
         <v>45</v>
       </c>
@@ -5678,7 +5653,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB27" s="2" t="n">
+      <c r="AB27" s="3" t="n">
         <v>41913</v>
       </c>
       <c r="AC27" t="inlineStr">
@@ -5786,7 +5761,6 @@
 sun:9:00-17:00,</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
         <v>45</v>
       </c>
@@ -5872,7 +5846,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB28" s="2" t="n">
+      <c r="AB28" s="3" t="n">
         <v>41913</v>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6069,7 +6043,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB29" s="2" t="n">
+      <c r="AB29" s="3" t="n">
         <v>41913</v>
       </c>
       <c r="AC29" t="inlineStr">
@@ -6380,7 +6354,6 @@
 sun:8:00-20:00,</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
         <v>15</v>
       </c>
@@ -6569,7 +6542,6 @@
           <t>mon:18:00-22:00,tue:18:00-22:00,wed:18:00-22:00,thu:18:00-22:00,fri:18:00-22:00,sat:18:00-22:00,sun:18:00-22:00</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
         <v>60</v>
       </c>

--- a/data/zakopane.xlsx
+++ b/data/zakopane.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="662">
   <si>
     <t>ID</t>
   </si>
@@ -1598,9 +1598,6 @@
 fri:10:00-17:00,
 sat:10:00-17:00,
 sun:10:00-17:00,</t>
-  </si>
-  <si>
-    <t>Closed 13:00 - 13:30</t>
   </si>
   <si>
     <t>Bilet normalny: 15.00 zł; Bilet ulgowy: 10.00 zł</t>
@@ -1800,10 +1797,6 @@
 sun:10:00-18:00,</t>
   </si>
   <si>
-    <t>"date_from": "06-01",
-"date_to": "09-30",</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
 mon:10:00-19:00, 
 tue:10:00-19:00, 
@@ -1814,10 +1807,6 @@
 sun:10:00-19:00,</t>
   </si>
   <si>
-    <t>"date_from": "06-01", 
-"date_to": "09-30",</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 mon:8:00-16:00, 
 tue:8:00-16:00, 
@@ -1828,10 +1817,6 @@
 sun:closed,</t>
   </si>
   <si>
-    <t xml:space="preserve">"date_from": "05-01", 
-"date_to": "09-30", </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
 mon:10:00-16:00 
 tue:10:00-16:00, 
@@ -1842,10 +1827,6 @@
 sun:10:00-16:00,</t>
   </si>
   <si>
-    <t>"date_from": "04-01", 
-"date_to": "10-30",</t>
-  </si>
-  <si>
     <t xml:space="preserve">mountain_culture, regional_heritage, workshop,themed_museum     </t>
   </si>
   <si>
@@ -2102,6 +2083,455 @@
   </si>
   <si>
     <t>20.10349998425671</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 02-28,
+mon: 14:00,
+tue: 14:00,
+wed: 14:00,
+thu: 14:00,
+fri: 14:00,
+sat: 14:00,
+sun: 14:00
+},
+{
+date_from: 10-01,
+date_to: 12-30,
+mon: closed,
+tue: closed,
+wed: closed,
+thu: closed,
+fri: closed,
+sat: 15:30-18:00,
+sun: closed
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:8:00-20:00,
+tue:8:00-20:00,
+wed: 8:00-20:00,
+thu:8:00-20:00,
+fri:8:00-20:00,
+sat: 8:00-20:00,
+sun:8:00-20:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:10:00-19:00,
+tue:10:00-19:00,
+wed: 10:00-19:00,
+thu:10:00-19:00,
+fri:10:00-19:00,
+sat: 10:00-19:00,
+sun:10:00-19:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:10:00-20:00,
+tue:10:00-20:00,
+wed: 10:00-20:00,
+thu:10:00-20:00,
+fri:10:00-20:00,
+sat: 10:00-20:00,
+sun:10:00-20:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 06-01,
+date_to: 9-30,
+mon:9:00-17:00,
+tue:9:00-17:00,
+wed:9:00-17:00,
+thu:9:00-17:00,
+fri:11:00-19:00,
+sat:11:00-19:00,
+sun:10:00-18:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 06-01,
+date_to: 9-30,
+mon:10:00-19:00,
+tue:10:00-19:00,
+wed: 10:00-19:00,
+thu:10:00-19:00,
+fri:10:00-19:00,
+sat: 10:00-19:00,
+sun:10:00-19:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:10:00-20:00,
+tue:10:00-20:00,
+wed:12:00-19:00,
+thu:12:00-19:00,
+fri:12:00-19:00,
+sat: 10:00-20:00,
+sun:10:00-20:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:10:00-18:00,
+tue:10:00-18:00,
+wed: 10:00-18:00,
+thu:10:00-18:00,
+fri:10:00-18:00,
+sat: 10:00-18:00,
+sun:10:00-18:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:8:00-20:00,
+tue:8:00-20:00,
+wed:8:00-20:00,
+thu:8:00-20:00,
+fri:8:00-20:00,
+sat:8:00-20:00,
+sun:8:00-20:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:9:00-22:00,
+tue:9:00-22:00,
+wed:9:00-22:00,
+thu:9:00-22:00,
+fri:9:00-22:00,
+sat:9:00-22:00,
+sun:9:00-22:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:11:00-22:00,
+tue:11:00-22:00,
+wed:11:00-22:00,
+thu:11:00-22:00,
+fri:11:00-22:00,
+sat:9:00-22:00,
+sun:9:00-22:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:9:00-17:00,
+tue:9:00-17:00,
+wed:9:00-17:00,
+thu:9:00-17:00,
+fri:9:00-17:00,
+sat:9:00-17:00,
+sun:9:00-17:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 05-01,
+date_to: 09-30,
+mon:8:00-16:00,
+tue:8:00-16:00,
+wed:8:00-16:00,
+thu:8:00-16:00,
+fri:8:00-16:00,
+sat:8:00-16:00,
+sun:closed,
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:10:00-22:00,
+tue:10:00-22:00,
+wed:10:00-22:00,
+thu:10:00-22:00,
+fri:10:00-22:00,
+sat:10:00-22:00,
+sun:10:00-22:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:10:00-21:00,
+tue:10:00-21:00,
+wed:10:00-21:00,
+thu:10:00-21:00,
+fri:10:00-21:00,
+sat:10:00-21:00,
+sun:10:00-21:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:closed,
+tue:closed,
+wed:10:00-18:00,
+thu:10:00-18:00,
+fri:10:00-18:00,
+sat:10:00-18:00,
+sun:10:00-18:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:closed,
+tue:9:00-17:00,
+wed:9:00-17:00,
+thu:9:00-17:00,
+fri:9:00-17:00,
+sat:9:00-17:00,
+sun:closed
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:9:00-17:00,
+tue:closed,
+wed:9:00-17:00,
+thu:9:00-17:00,
+fri:11:00-19:00,
+sat:11:00-19:00,
+sun:9:00-17:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:closed,
+tue:9:00-17:00,
+wed:9:00-17:00,
+thu:9:00-17:00,
+fri:11:00-19:00,
+sat:11:00-19:00,
+sun:9:00-17:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:closed,
+tue:10:00-17:00,
+wed:10:00-17:00,
+thu:10:00-17:00,
+fri:10:00-17:00,
+sat:10:00-17:00,
+sun:10:00-17:00,
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-17,
+date_to: 10-30,
+mon:10:00-16:00
+tue:10:00-16:00,
+wed:10:00-16:00,
+thu:10:00-16:00,
+fri:10:00-16:00,
+sat:10:00-16:00,
+sun:10:00-16:00,
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+{
+date_from: 01-01,
+date_to: 12-31,
+mon:8:00-20:00
+tue:8:00-20:00,
+wed:8:00-20:00,
+thu:8:00-20:00,
+fri:8:00-20:00,
+sat:8:00-20:00,
+sun:8:00-20:00
+}
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    date_from: 01-01,
+    date_to: 02-28,
+   mon:15:00-19:00
+tue:15:00-19:00,
+wed:15:00-19:00,
+thu:15:00-19:00,
+fri:15:00-19:00,
+sat:15:00-19:00,
+sun:15:00-19:00
+  },
+  {
+    date_from: 12-01,
+    date_to: 12-30,
+   mon:15:00-19:00
+tue:15:00-19:00,
+wed:15:00-19:00,
+thu:15:00-19:00,
+fri:15:00-19:00,
+sat:15:00-19:00,
+sun:15:00-19:00
+  }
+]</t>
+  </si>
+  <si>
+    <t>mon:7:00-20:00
+tue:7:00-20:00,
+wed:7:00-20:00,
+thu:7:00-20:00,
+fri:7:00-20:00,
+sat:7:00-20:00,
+sun:7:00-20:00,</t>
+  </si>
+  <si>
+    <t>[
+  {
+    date_from: 01-01,
+    date_to: 03-30,
+   mon:08:00-16:00
+tue:08:00-16:00,
+wed:08:00-16:00,
+thu:08:00-16:00,
+fri:08:00-16:00,
+sat:08:00-16:00,
+sun:08:00-16:00
+  },
+  {
+    date_from: 04-01,
+    date_to: 08-30,
+   mon:07:00-20:00,
+tue:07:00-20:00,
+wed:07:00-20:00,
+thu:07:00-20:00,
+fri:07:00-20:00,
+sat:07:00-20:00,
+sun:07:00-20:00,
+  },
+ {
+    date_from: 09-01,
+    date_to: 12-30,
+   mon:08:00-20:00,
+tue:08:00-17:00,
+wed:08:00-17:00,
+thu:08:00-17:00,
+fri:08:00-17:00,
+sat:08:00-17:00,
+sun:08:00-17:00,
+}]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    date_from: 01-01,
+    date_to: 03-30,
+   mon:08:00-16:00
+tue:08:00-16:00,
+wed:08:00-16:00,
+thu:08:00-16:00,
+fri:08:00-16:00,
+sat:08:00-16:00,
+sun:08:00-16:00
+  },
+  {
+    date_from: 04-01,
+    date_to: 08-30,
+   mon:07:00-20:00,
+tue:07:00-20:00,
+wed:07:00-20:00,
+thu:07:00-20:00,
+fri:07:00-20:00,
+sat:07:00-20:00,
+sun:07:00-20:00
+  },
+ {
+    date_from: 09-01,
+    date_to: 12-30,
+   mon:08:00-20:00,
+tue:08:00-17:00,
+wed:08:00-17:00,
+thu:08:00-17:00,
+fri:08:00-17:00,
+sat:08:00-17:00,
+sun:08:00-17:00
+  }
+]</t>
   </si>
 </sst>
 </file>
@@ -2587,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W37" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J42" sqref="J37:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2736,7 +3166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="172.2" thickBot="1">
+    <row r="2" spans="1:43" ht="317.39999999999998" thickBot="1">
       <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
@@ -2752,7 +3182,9 @@
       <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4" t="s">
+        <v>636</v>
+      </c>
       <c r="H2" s="4">
         <v>45</v>
       </c>
@@ -2859,7 +3291,7 @@
         <v>74</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="172.2" thickBot="1">
@@ -2878,7 +3310,9 @@
       <c r="F3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>637</v>
+      </c>
       <c r="H3" s="4">
         <v>30</v>
       </c>
@@ -2985,10 +3419,10 @@
         <v>74</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="159" thickBot="1">
+    <row r="4" spans="1:43" ht="172.2" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>97</v>
       </c>
@@ -3004,7 +3438,9 @@
       <c r="F4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4" t="s">
+        <v>638</v>
+      </c>
       <c r="H4" s="4">
         <v>30</v>
       </c>
@@ -3063,7 +3499,7 @@
         <v>59</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="AB4" s="4" t="s">
         <v>61</v>
@@ -3111,7 +3547,7 @@
         <v>74</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="198.6" thickBot="1">
@@ -3130,7 +3566,9 @@
       <c r="F5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4" t="s">
+        <v>639</v>
+      </c>
       <c r="H5" s="4">
         <v>60</v>
       </c>
@@ -3237,10 +3675,10 @@
         <v>74</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="159" thickBot="1">
+    <row r="6" spans="1:43" ht="172.2" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>135</v>
       </c>
@@ -3256,7 +3694,9 @@
       <c r="F6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>638</v>
+      </c>
       <c r="H6" s="4">
         <v>45</v>
       </c>
@@ -3363,7 +3803,7 @@
         <v>74</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="172.2" thickBot="1">
@@ -3382,7 +3822,9 @@
       <c r="F7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>638</v>
+      </c>
       <c r="H7" s="4">
         <v>30</v>
       </c>
@@ -3489,7 +3931,7 @@
         <v>74</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="185.4" thickBot="1">
@@ -3506,10 +3948,10 @@
         <v>168</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>640</v>
       </c>
       <c r="H8" s="4">
         <v>30</v>
@@ -3617,10 +4059,10 @@
         <v>74</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="145.80000000000001" thickBot="1">
+    <row r="9" spans="1:43" ht="172.2" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>185</v>
       </c>
@@ -3634,10 +4076,10 @@
         <v>188</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>641</v>
       </c>
       <c r="H9" s="4">
         <v>10</v>
@@ -3745,10 +4187,10 @@
         <v>74</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="159" thickBot="1">
+    <row r="10" spans="1:43" ht="172.2" thickBot="1">
       <c r="B10" s="4" t="s">
         <v>201</v>
       </c>
@@ -3764,7 +4206,9 @@
       <c r="F10" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4" t="s">
+        <v>642</v>
+      </c>
       <c r="H10" s="4">
         <v>60</v>
       </c>
@@ -3871,18 +4315,18 @@
         <v>74</v>
       </c>
       <c r="AQ10" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="119.4" thickBot="1">
+    <row r="11" spans="1:43" ht="172.2" thickBot="1">
       <c r="B11" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>219</v>
@@ -3890,7 +4334,9 @@
       <c r="F11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4" t="s">
+        <v>639</v>
+      </c>
       <c r="H11" s="4">
         <v>20</v>
       </c>
@@ -3997,7 +4443,7 @@
         <v>74</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="185.4" thickBot="1">
@@ -4016,7 +4462,9 @@
       <c r="F12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4" t="s">
+        <v>638</v>
+      </c>
       <c r="H12" s="4">
         <v>60</v>
       </c>
@@ -4119,7 +4567,7 @@
         <v>74</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="185.4" thickBot="1">
@@ -4138,7 +4586,9 @@
       <c r="F13" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4" t="s">
+        <v>643</v>
+      </c>
       <c r="H13" s="4">
         <v>45</v>
       </c>
@@ -4245,7 +4695,7 @@
         <v>74</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15" thickBot="1">
@@ -4308,7 +4758,9 @@
       <c r="F15" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="4" t="s">
+        <v>643</v>
+      </c>
       <c r="H15" s="4">
         <v>20</v>
       </c>
@@ -4415,10 +4867,10 @@
         <v>74</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="159" thickBot="1">
+    <row r="16" spans="1:43" ht="172.2" thickBot="1">
       <c r="B16" s="4" t="s">
         <v>271</v>
       </c>
@@ -4434,7 +4886,9 @@
       <c r="F16" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4" t="s">
+        <v>644</v>
+      </c>
       <c r="H16" s="4">
         <v>20</v>
       </c>
@@ -4541,7 +4995,7 @@
         <v>285</v>
       </c>
       <c r="AQ16" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="2:43" ht="185.4" thickBot="1">
@@ -4560,7 +5014,9 @@
       <c r="F17" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="H17" s="4">
         <v>90</v>
       </c>
@@ -4667,7 +5123,7 @@
         <v>74</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="2:43" ht="198.6" thickBot="1">
@@ -4686,7 +5142,9 @@
       <c r="F18" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4" t="s">
+        <v>646</v>
+      </c>
       <c r="H18" s="4">
         <v>90</v>
       </c>
@@ -4793,7 +5251,7 @@
         <v>74</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="2:43" ht="198.6" thickBot="1">
@@ -4812,7 +5270,9 @@
       <c r="F19" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="H19" s="4">
         <v>120</v>
       </c>
@@ -4919,7 +5379,7 @@
         <v>74</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="2:43" ht="198.6" thickBot="1">
@@ -4938,7 +5398,9 @@
       <c r="F20" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="H20" s="4">
         <v>120</v>
       </c>
@@ -5045,7 +5507,7 @@
         <v>74</v>
       </c>
       <c r="AQ20" s="4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="2:43" ht="185.4" thickBot="1">
@@ -5064,7 +5526,9 @@
       <c r="F21" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="H21" s="4">
         <v>120</v>
       </c>
@@ -5171,7 +5635,7 @@
         <v>74</v>
       </c>
       <c r="AQ21" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="2:43" ht="238.2" thickBot="1">
@@ -5190,7 +5654,9 @@
       <c r="F22" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4" t="s">
+        <v>647</v>
+      </c>
       <c r="H22" s="4">
         <v>45</v>
       </c>
@@ -5297,7 +5763,7 @@
         <v>74</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="2:43" ht="172.2" thickBot="1">
@@ -5314,10 +5780,10 @@
         <v>385</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>648</v>
       </c>
       <c r="H23" s="4">
         <v>60</v>
@@ -5425,10 +5891,10 @@
         <v>74</v>
       </c>
       <c r="AQ23" s="4" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="24" spans="2:43" ht="145.80000000000001" thickBot="1">
+    <row r="24" spans="2:43" ht="172.2" thickBot="1">
       <c r="B24" s="4" t="s">
         <v>396</v>
       </c>
@@ -5444,7 +5910,9 @@
       <c r="F24" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4" t="s">
+        <v>649</v>
+      </c>
       <c r="H24" s="4">
         <v>30</v>
       </c>
@@ -5551,10 +6019,10 @@
         <v>74</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
-    <row r="25" spans="2:43" ht="145.80000000000001" thickBot="1">
+    <row r="25" spans="2:43" ht="172.2" thickBot="1">
       <c r="B25" s="4" t="s">
         <v>413</v>
       </c>
@@ -5570,7 +6038,9 @@
       <c r="F25" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4" t="s">
+        <v>650</v>
+      </c>
       <c r="H25" s="4">
         <v>30</v>
       </c>
@@ -5677,7 +6147,7 @@
         <v>74</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="2:43" ht="198.6" thickBot="1">
@@ -5696,7 +6166,9 @@
       <c r="F26" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4" t="s">
+        <v>651</v>
+      </c>
       <c r="H26" s="4">
         <v>60</v>
       </c>
@@ -5803,7 +6275,7 @@
         <v>74</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="2:43" ht="211.8" thickBot="1">
@@ -5822,7 +6294,9 @@
       <c r="F27" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4" t="s">
+        <v>652</v>
+      </c>
       <c r="H27" s="4">
         <v>30</v>
       </c>
@@ -5929,7 +6403,7 @@
         <v>74</v>
       </c>
       <c r="AQ27" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="2:43" ht="185.4" thickBot="1">
@@ -5948,7 +6422,9 @@
       <c r="F28" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4" t="s">
+        <v>653</v>
+      </c>
       <c r="H28" s="4">
         <v>45</v>
       </c>
@@ -6055,7 +6531,7 @@
         <v>74</v>
       </c>
       <c r="AQ28" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="2:43" ht="198.6" thickBot="1">
@@ -6074,7 +6550,9 @@
       <c r="F29" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="4" t="s">
+        <v>654</v>
+      </c>
       <c r="H29" s="4">
         <v>45</v>
       </c>
@@ -6181,7 +6659,7 @@
         <v>74</v>
       </c>
       <c r="AQ29" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="2:43" ht="198.6" thickBot="1">
@@ -6201,7 +6679,7 @@
         <v>488</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>489</v>
+        <v>655</v>
       </c>
       <c r="H30" s="4">
         <v>30</v>
@@ -6210,7 +6688,7 @@
         <v>60</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K30" s="4">
         <v>15</v>
@@ -6219,22 +6697,22 @@
         <v>10</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>49</v>
       </c>
       <c r="O30" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="P30" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="Q30" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="R30" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>54</v>
@@ -6282,19 +6760,19 @@
         <v>66</v>
       </c>
       <c r="AH30" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="AI30" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="AI30" s="4" t="s">
+      <c r="AJ30" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="AJ30" s="4" t="s">
+      <c r="AK30" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="AK30" s="4" t="s">
+      <c r="AL30" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="AL30" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="AM30" s="4" t="s">
         <v>72</v>
@@ -6309,27 +6787,27 @@
         <v>74</v>
       </c>
       <c r="AQ30" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="2:43" ht="172.2" thickBot="1">
       <c r="B31" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>504</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>656</v>
       </c>
       <c r="H31" s="4">
         <v>60</v>
@@ -6338,7 +6816,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K31" s="4">
         <v>30</v>
@@ -6347,22 +6825,22 @@
         <v>25</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>49</v>
       </c>
       <c r="O31" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="P31" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q31" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="R31" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="S31" s="4" t="s">
         <v>85</v>
@@ -6395,7 +6873,7 @@
         <v>61</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AD31" s="4" t="s">
         <v>90</v>
@@ -6410,7 +6888,7 @@
         <v>179</v>
       </c>
       <c r="AH31" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AI31" s="4" t="s">
         <v>181</v>
@@ -6419,10 +6897,10 @@
         <v>182</v>
       </c>
       <c r="AK31" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="AL31" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="AL31" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="AM31" s="4" t="s">
         <v>72</v>
@@ -6437,26 +6915,28 @@
         <v>74</v>
       </c>
       <c r="AQ31" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="2:43" ht="185.4" thickBot="1">
       <c r="B32" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="H32" s="4">
         <v>15</v>
       </c>
@@ -6473,16 +6953,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>49</v>
       </c>
       <c r="O32" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="P32" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>210</v>
@@ -6506,7 +6986,7 @@
         <v>8</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y32" s="4" t="s">
         <v>108</v>
@@ -6536,19 +7016,19 @@
         <v>66</v>
       </c>
       <c r="AH32" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="AI32" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="AI32" s="4" t="s">
+      <c r="AJ32" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="AJ32" s="4" t="s">
+      <c r="AK32" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="AK32" s="4" t="s">
+      <c r="AL32" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="AL32" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="AM32" s="4" t="s">
         <v>96</v>
@@ -6563,26 +7043,28 @@
         <v>74</v>
       </c>
       <c r="AQ32" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="33" spans="2:43" ht="145.80000000000001" thickBot="1">
+    <row r="33" spans="2:43" ht="317.39999999999998" thickBot="1">
       <c r="B33" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="H33" s="4">
         <v>60</v>
       </c>
@@ -6590,7 +7072,7 @@
         <v>180</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K33" s="4">
         <v>247</v>
@@ -6599,22 +7081,22 @@
         <v>247</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>49</v>
       </c>
       <c r="O33" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="Q33" s="6" t="s">
-        <v>538</v>
-      </c>
       <c r="R33" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>85</v>
@@ -6632,7 +7114,7 @@
         <v>8</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y33" s="4" t="s">
         <v>58</v>
@@ -6647,7 +7129,7 @@
         <v>61</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AD33" s="4" t="s">
         <v>90</v>
@@ -6656,25 +7138,25 @@
         <v>64</v>
       </c>
       <c r="AF33" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG33" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="AG33" s="4" t="s">
+      <c r="AH33" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="AH33" s="4" t="s">
+      <c r="AI33" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="AI33" s="12" t="s">
+      <c r="AJ33" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="AJ33" s="4" t="s">
+      <c r="AK33" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="AK33" s="4" t="s">
+      <c r="AL33" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="AL33" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="AM33" s="4" t="s">
         <v>72</v>
@@ -6689,24 +7171,27 @@
         <v>74</v>
       </c>
       <c r="AQ33" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="34" spans="2:43" ht="408.6" customHeight="1">
+      <c r="B34" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="34" spans="2:43" ht="216">
-      <c r="B34" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>596</v>
-      </c>
       <c r="D34" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>604</v>
+        <v>595</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>599</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>519</v>
+        <v>659</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>660</v>
       </c>
       <c r="H34" s="13">
         <v>270</v>
@@ -6715,7 +7200,7 @@
         <v>350</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K34" s="13">
         <v>11</v>
@@ -6724,16 +7209,16 @@
         <v>5.5</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N34" s="13" t="s">
         <v>49</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="P34" s="17" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="S34" s="13" t="s">
         <v>85</v>
@@ -6751,13 +7236,13 @@
         <v>9</v>
       </c>
       <c r="X34" s="13" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="Y34" s="16" t="s">
         <v>159</v>
       </c>
       <c r="Z34" s="17" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AA34" s="13" t="s">
         <v>60</v>
@@ -6766,7 +7251,7 @@
         <v>61</v>
       </c>
       <c r="AC34" s="17" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AD34" s="13" t="s">
         <v>177</v>
@@ -6781,19 +7266,19 @@
         <v>66</v>
       </c>
       <c r="AH34" s="15" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AI34" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="AJ34" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="AJ34" s="13" t="s">
+      <c r="AK34" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="AK34" s="13" t="s">
+      <c r="AL34" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="AL34" s="13" t="s">
-        <v>547</v>
       </c>
       <c r="AM34" s="13" t="s">
         <v>72</v>
@@ -6808,24 +7293,27 @@
         <v>74</v>
       </c>
       <c r="AQ34" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="35" spans="2:43" ht="409.6">
+      <c r="B35" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="35" spans="2:43" ht="230.4">
-      <c r="B35" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>597</v>
-      </c>
       <c r="D35" s="14" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>661</v>
       </c>
       <c r="H35" s="13">
         <v>180</v>
@@ -6834,7 +7322,7 @@
         <v>270</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K35" s="13">
         <v>11</v>
@@ -6843,16 +7331,16 @@
         <v>5.5</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N35" s="13" t="s">
         <v>49</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="S35" s="13" t="s">
         <v>85</v>
@@ -6870,13 +7358,13 @@
         <v>10</v>
       </c>
       <c r="X35" s="13" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="Y35" s="16" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="Z35" s="17" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AA35" s="17" t="s">
         <v>60</v>
@@ -6885,7 +7373,7 @@
         <v>61</v>
       </c>
       <c r="AC35" s="17" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AD35" s="13" t="s">
         <v>177</v>
@@ -6900,19 +7388,19 @@
         <v>66</v>
       </c>
       <c r="AH35" s="15" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AI35" s="13" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AJ35" s="13" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AK35" s="13" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AL35" s="17" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AM35" s="13" t="s">
         <v>72</v>
@@ -6927,24 +7415,27 @@
         <v>74</v>
       </c>
       <c r="AQ35" s="13" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36" spans="2:43" ht="409.6">
+      <c r="B36" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="36" spans="2:43" ht="230.4">
-      <c r="B36" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>598</v>
-      </c>
       <c r="D36" s="14" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>661</v>
       </c>
       <c r="H36" s="13">
         <v>150</v>
@@ -6953,7 +7444,7 @@
         <v>240</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K36" s="13">
         <v>11</v>
@@ -6962,16 +7453,16 @@
         <v>5.5</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N36" s="13" t="s">
         <v>49</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="S36" s="13" t="s">
         <v>85</v>
@@ -6989,13 +7480,13 @@
         <v>9</v>
       </c>
       <c r="X36" s="19" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="Y36" s="16" t="s">
         <v>159</v>
       </c>
       <c r="Z36" s="17" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AA36" s="17" t="s">
         <v>60</v>
@@ -7004,7 +7495,7 @@
         <v>61</v>
       </c>
       <c r="AC36" s="19" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AD36" s="13" t="s">
         <v>177</v>
@@ -7019,19 +7510,19 @@
         <v>66</v>
       </c>
       <c r="AH36" s="15" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM36" s="13" t="s">
         <v>72</v>
@@ -7046,24 +7537,27 @@
         <v>74</v>
       </c>
       <c r="AQ36" s="13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="37" spans="2:43" ht="409.6">
+      <c r="B37" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="37" spans="2:43" ht="201.6">
-      <c r="B37" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>599</v>
-      </c>
       <c r="D37" s="14" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>661</v>
       </c>
       <c r="H37" s="13">
         <v>270</v>
@@ -7072,7 +7566,7 @@
         <v>350</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K37" s="13">
         <v>11</v>
@@ -7081,16 +7575,16 @@
         <v>5.5</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>49</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="S37" s="13" t="s">
         <v>85</v>
@@ -7108,7 +7602,7 @@
         <v>10</v>
       </c>
       <c r="X37" s="19" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="Y37" s="16" t="s">
         <v>159</v>
@@ -7123,7 +7617,7 @@
         <v>61</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AD37" s="13" t="s">
         <v>177</v>
@@ -7138,19 +7632,19 @@
         <v>66</v>
       </c>
       <c r="AH37" s="15" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AI37" s="13" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AJ37" s="13" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AK37" s="13" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AL37" s="17" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AM37" s="13" t="s">
         <v>72</v>
@@ -7165,7 +7659,7 @@
         <v>74</v>
       </c>
       <c r="AQ37" s="13" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/data/zakopane.xlsx
+++ b/data/zakopane.xlsx
@@ -845,7 +845,7 @@
 </t>
         </is>
       </c>
-      <c r="AP2" t="b">
+      <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1054,7 +1054,7 @@
 </t>
         </is>
       </c>
-      <c r="AP3" t="b">
+      <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1263,7 +1263,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP4" t="b">
+      <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1472,7 +1472,7 @@
 secondary</t>
         </is>
       </c>
-      <c r="AP5" t="b">
+      <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1680,7 +1680,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP6" t="b">
+      <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1889,7 +1889,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP7" t="b">
+      <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2099,7 +2099,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP8" t="b">
+      <c r="AP8" t="n">
         <v>0</v>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2311,7 +2311,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP9" t="b">
+      <c r="AP9" t="n">
         <v>0</v>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2519,7 +2519,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP10" t="b">
+      <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2726,7 +2726,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP11" t="b">
+      <c r="AP11" t="n">
         <v>0</v>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2930,7 +2930,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP12" t="b">
+      <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3137,7 +3137,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP13" t="b">
+      <c r="AP13" t="n">
         <v>0</v>
       </c>
       <c r="AQ13" t="inlineStr">
@@ -3389,7 +3389,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP15" t="b">
+      <c r="AP15" t="n">
         <v>0</v>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3596,7 +3596,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP16" t="b">
+      <c r="AP16" t="n">
         <v>1</v>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -3804,7 +3804,7 @@
 secondary</t>
         </is>
       </c>
-      <c r="AP17" t="b">
+      <c r="AP17" t="n">
         <v>0</v>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -4012,7 +4012,7 @@
 secondary</t>
         </is>
       </c>
-      <c r="AP18" t="b">
+      <c r="AP18" t="n">
         <v>0</v>
       </c>
       <c r="AQ18" t="inlineStr">
@@ -4220,7 +4220,7 @@
 secondary</t>
         </is>
       </c>
-      <c r="AP19" t="b">
+      <c r="AP19" t="n">
         <v>0</v>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -4427,7 +4427,7 @@
           <t>secondary</t>
         </is>
       </c>
-      <c r="AP20" t="b">
+      <c r="AP20" t="n">
         <v>0</v>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4635,7 +4635,7 @@
 secondary</t>
         </is>
       </c>
-      <c r="AP21" t="b">
+      <c r="AP21" t="n">
         <v>0</v>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -4842,7 +4842,7 @@
           <t>core</t>
         </is>
       </c>
-      <c r="AP22" t="b">
+      <c r="AP22" t="n">
         <v>0</v>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -5050,7 +5050,7 @@
           <t>core</t>
         </is>
       </c>
-      <c r="AP23" t="b">
+      <c r="AP23" t="n">
         <v>0</v>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -5257,7 +5257,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP24" t="b">
+      <c r="AP24" t="n">
         <v>0</v>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -5464,7 +5464,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP25" t="b">
+      <c r="AP25" t="n">
         <v>0</v>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -5670,7 +5670,7 @@
           <t>core</t>
         </is>
       </c>
-      <c r="AP26" t="b">
+      <c r="AP26" t="n">
         <v>0</v>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -5876,7 +5876,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP27" t="b">
+      <c r="AP27" t="n">
         <v>0</v>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -6082,7 +6082,7 @@
           <t>secondary</t>
         </is>
       </c>
-      <c r="AP28" t="b">
+      <c r="AP28" t="n">
         <v>0</v>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -6288,7 +6288,7 @@
           <t>secondary</t>
         </is>
       </c>
-      <c r="AP29" t="b">
+      <c r="AP29" t="n">
         <v>0</v>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -6493,7 +6493,7 @@
           <t>secondary</t>
         </is>
       </c>
-      <c r="AP30" t="b">
+      <c r="AP30" t="n">
         <v>0</v>
       </c>
       <c r="AQ30" t="inlineStr">
@@ -6703,7 +6703,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP31" t="b">
+      <c r="AP31" t="n">
         <v>0</v>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -6910,7 +6910,7 @@
           <t>optional</t>
         </is>
       </c>
-      <c r="AP32" t="b">
+      <c r="AP32" t="n">
         <v>0</v>
       </c>
       <c r="AQ32" t="inlineStr">
@@ -7128,7 +7128,7 @@
           <t>secondary</t>
         </is>
       </c>
-      <c r="AP33" t="b">
+      <c r="AP33" t="n">
         <v>0</v>
       </c>
       <c r="AQ33" t="inlineStr">
@@ -7348,7 +7348,7 @@
           <t>core</t>
         </is>
       </c>
-      <c r="AP34" t="b">
+      <c r="AP34" t="n">
         <v>0</v>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -7569,7 +7569,7 @@
           <t>core</t>
         </is>
       </c>
-      <c r="AP35" t="b">
+      <c r="AP35" t="n">
         <v>0</v>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -7790,7 +7790,7 @@
           <t>core</t>
         </is>
       </c>
-      <c r="AP36" t="b">
+      <c r="AP36" t="n">
         <v>0</v>
       </c>
       <c r="AQ36" t="inlineStr">
@@ -7872,10 +7872,10 @@
         </is>
       </c>
       <c r="H37" t="n">
+        <v>180</v>
+      </c>
+      <c r="I37" t="n">
         <v>270</v>
-      </c>
-      <c r="I37" t="n">
-        <v>350</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
           <t>core</t>
         </is>
       </c>
-      <c r="AP37" t="b">
+      <c r="AP37" t="n">
         <v>0</v>
       </c>
       <c r="AQ37" t="inlineStr">

--- a/data/zakopane.xlsx
+++ b/data/zakopane.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ37"/>
+  <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3148,72 +3148,27 @@
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Dom do góry nogami</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Nietypowy budynek, w którym wszystko stoi na głowie – atrakcja dla całej rodziny.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Dom do góry nogami to oryginalna atrakcja turystyczna w Zakopanem, która przyciąga zarówno dzieci, jak i dorosłych. Konstrukcja domu została postawiona na dachu, przez co całe wyposażenie wnętrza również znajduje się ‘do góry nogami’. Zwiedzający mogą wejść do środka i poczuć fascynujące wrażenie dezorientacji – chodzenie po suficie i zrobienie niezwykłych zdjęć gwarantuje niezapomniane przeżycia.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>To idealne miejsce na nietypową rozrywkę i sesję zdjęciową – zaskakuje i bawi zarówno najmłodszych, jak i starszych turystów.</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>mon:10:00-18:00,
 tue:10:00-18:00,
@@ -3224,7 +3179,7 @@
 sun:10:00-18:00,</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[
 {
@@ -3241,186 +3196,186 @@
 ]</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H14" t="n">
         <v>20</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I14" t="n">
         <v>45</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>bilet normalny: 21 zł, bilet ulgowy: 17 zł, dzieci do lat 3: wstęp bezpłatny</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K14" t="n">
         <v>21</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L14" t="n">
         <v>17</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Aleje 3-go Maja, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="O14" t="n">
         <v>49.2939691</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P14" t="n">
         <v>19.957179</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>brak</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>brak</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>indoor</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V15" t="n">
+      <c r="V14" t="n">
         <v>8</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W14" t="n">
         <v>5</v>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>13:00-15:00</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>morning, afternoon</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>kids_attractions, museum_heritage</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>Zabierz ze sobą aparat lub telefon z pełną baterią – zdjęcia z tej atrakcji są wyjątkowe i na długo pozostaną w pamięci.</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>Parking przy domu do góry nogami</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>Aleje 3-go Maja, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK14" t="n">
         <v>49.29421509759925</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL14" t="n">
         <v>19.95656167049711</v>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN14" t="n">
         <v>1</v>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>optional</t>
         </is>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP14" t="n">
         <v>0</v>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>illusion_kids, interactive_exhibition_kids</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Plac zabaw na Górnej Równi Krupowej</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Nowoczesny plac zabaw położony na rozległej Górnej Równi Krupowej w Zakopanem.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Plac zabaw na Górnej Równi Krupowej to znakomicie wyposażone miejsce dla dzieci w sercu Zakopanego. Położony na otwartej przestrzeni parku, oferuje nowoczesne zestawy zabawowe, zjeżdżalnie, huśtawki, drabinki oraz bezpieczną nawierzchnię. Ogromnym atutem jest rozległy teren wokół, który sprzyja rodzinnym piknikom, spacerom i odpoczynkowi z widokiem na Tatry.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>To idealne miejsce na odpoczynek i zabawę dla dzieci po zwiedzaniu Zakopanego. Malownicze położenie oraz czyste, przestronne otoczenie sprzyjają relaksowi i rekreacji całych rodzin.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>mon:8:00-20:00,
 tue:8:00-20:00,
@@ -3431,7 +3386,7 @@
 sun:8:00-20:00,</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[
 {
@@ -3448,186 +3403,186 @@
 ]</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H15" t="n">
         <v>20</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I15" t="n">
         <v>90</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>wstęp bezpłatny</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Henryka Sienkiewicza 26C, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="O15" t="n">
         <v>49.2937448</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P15" t="n">
         <v>19.9596661</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>brak</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>brak</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>outdoor</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>good_weather_only</t>
         </is>
       </c>
-      <c r="V16" t="n">
+      <c r="V15" t="n">
         <v>6</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W15" t="n">
         <v>3</v>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>14:00-16:00</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>family_kids</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>3-6, 6-10</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>theme_park, kids_attractions</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>Warto zabrać koc piknikowy – teren wokół placu zabaw jest doskonały na rodzinny lunch na świeżym powietrzu.</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>Auto Parking obok Biedronki</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>Aleje 3-go Maja 9, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK15" t="n">
         <v>49.29324569432775</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL15" t="n">
         <v>19.95822072085884</v>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN15" t="n">
         <v>2</v>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>optional</t>
         </is>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP15" t="n">
         <v>1</v>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>playground, kids_obstacle_course</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Termy Zakopiańskie</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Nowoczesny kompleks rekreacyjny z basenami, strefą spa i atrakcjami wodnymi.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Termy Zakopiańskie to popularny kompleks rekreacyjno-sportowy w Zakopanem, oferujący kryte i odkryte baseny, zjeżdżalnie, strefę saun, centrum spa, kręgielnię, siłownię oraz kilka punktów gastronomicznych. Jest to idealne miejsce zarówno na relaks, jak i aktywne spędzanie czasu, niezależnie od pogody. Park wodny zapewnia rozrywkę dla rodzin z dziećmi, grup znajomych oraz osób szukających odprężenia po dniu spędzonym w górach.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Wizyta w Termach Zakopiańskich to okazja do zabawy i relaksu w wodzie, niezależnie od warunków pogodowych. Można tu korzystać z wielu atrakcji basenowych i wellness oraz zjeść smaczny posiłek.</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>mon:9:00-22:00,
 tue:9:00-22:00,
@@ -3638,7 +3593,7 @@
 sun:9:00-22:00,</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[
 {
@@ -3655,187 +3610,187 @@
 ]</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H16" t="n">
         <v>90</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I16" t="n">
         <v>240</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Bilet normalny/1h: 49,00 zł; Bilet ulgowy/1h: 39,00 zł</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K16" t="n">
         <v>49</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L16" t="n">
         <v>39</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Jagiellońska 31, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="O16" t="n">
         <v>49.2951046</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P16" t="n">
         <v>19.9656424</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>https://www.termy-zakopianskie.pl/</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>https://www.termy-zakopianskie.pl/cennik</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>indoor</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V17" t="n">
+      <c r="V16" t="n">
         <v>9</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W16" t="n">
         <v>6</v>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>14:00-16:00</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>water_attractions, kids_attractions, relaxation</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>Warto przyjechać w godzinach porannych lub późnym popołudniem, aby uniknąć największych tłumów.</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>Parking na miejscu</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>Jagiellońska 31, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK16" t="n">
         <v>49.29485863239372</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL16" t="n">
         <v>19.96470030891096</v>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN16" t="n">
         <v>1</v>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 secondary</t>
         </is>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP16" t="n">
         <v>0</v>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>thermal_baths, water_slides, family_friendly_water, spa_pools, sauna_zone</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Termy Gorący Potok</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Kompleks basenów termalnych z wodami geotermalnymi i strefą relaksu.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Termy Gorący Potok to nowoczesny kompleks basenów termalnych położony w Białym Dunajcu. Ośrodek oferuje wiele niecek z wodą geotermalną o różnych temperaturach, zjeżdżalnie wodne, sauny, strefę spa oraz specjalne atrakcje dla dzieci. Wody bogate w minerały mają właściwości zdrowotne i relaksacyjne. Na terenie obiektu znajdują się także restauracje i bary, dzięki czemu to doskonałe miejsce na wypoczynek dla całej rodziny niezależnie od pogody.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Wizyta pozwala zrelaksować się w ciepłych wodach termalnych, korzystać z leczniczych i relaksacyjnych właściwości wód oraz atrakcji dostępnych na terenie kompleksu.</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>mon:11:00-22:00,
 tue:11:00-22:00,
@@ -3846,7 +3801,7 @@
 sun:9:00-22:00,</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[
 {
@@ -3863,187 +3818,187 @@
 ]</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H17" t="n">
         <v>90</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I17" t="n">
         <v>300</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Bilet normalny/1,5h: 59,00 zł; Bilet ulgowy/1,5h: 45,00 zł</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K17" t="n">
         <v>59</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L17" t="n">
         <v>45</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>os. Nowe 45, 34-424 Szaflary, Poland</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="O17" t="n">
         <v>49.3999583</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P17" t="n">
         <v>20.0225918</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>https://goracypotok.pl/kontakt/</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>https://goracypotok.pl/cennik/</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>mixed</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V18" t="n">
+      <c r="V17" t="n">
         <v>8</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W17" t="n">
         <v>7</v>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>18:00-20:00</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>afternoon</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>Szaflary</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>water_attractions, kids_attractions, relaxation</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>Warto przyjechać w tygodniu, by uniknąć większych tłumów i w pełni korzystać ze wszystkich atrakcji.</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>Parking na miejscu</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>os. Nowe 45, 34-424 Szaflary</t>
         </is>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK17" t="n">
         <v>49.39962067618252</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL17" t="n">
         <v>20.02184613839256</v>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN17" t="n">
         <v>1</v>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 secondary</t>
         </is>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP17" t="n">
         <v>0</v>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>thermal_baths, relax_zone, thermal_relax_focus, long_stay_possible, evening_relax</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Chochołowskie Termy</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Duży kompleks basenów termalnych i spa oferujący relaks i rozrywkę w Chochołowie.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Chochołowskie Termy to największy kompleks basenów termalnych na Podhalu, znajdujący się w malowniczej miejscowości Chochołów. Obiekt oferuje bogatą gamę atrakcji wodnych, w tym liczne baseny wewnętrzne i zewnętrzne z wodą termalną, strefę saun, spa, a także zjeżdżalnie, strefy zabaw dla dzieci i siłownię. Na terenie term znajdują się również restauracje i bary. To idealne miejsce zarówno na rodzinny wypoczynek, jak i regenerację sił po górskich wędrówkach.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>To doskonałe miejsce na relaks i rekreację przez cały rok, z licznymi udogodnieniami dla rodzin, par i miłośników sportu. Naturalna woda termalna wpływa korzystnie na zdrowie i samopoczucie, a bogata strefa spa i saun zapewnia głęboki relaks.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>mon:9:00-22:00,
 tue:9:00-22:00,
@@ -4054,7 +4009,7 @@
 sun:9:00-22:00,</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[
 {
@@ -4071,187 +4026,187 @@
 ]</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H18" t="n">
         <v>120</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I18" t="n">
         <v>360</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>w zależności od czasu pobytu i strefy; Bilet normalny/3h: 89 zł; Bilet ulgowy/3h: 59,00 zł</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K18" t="n">
         <v>89</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L18" t="n">
         <v>59</v>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Chochołów 400, 34-513 Witów, Poland</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="O18" t="n">
         <v>49.3518255</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P18" t="n">
         <v>19.8231199</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>https://www.chocholowskietermy.pl/uncategorized/godziny-otwarcia-w-dni-swiateczne-2/</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>https://www.chocholowskietermy.pl/sklep/</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>mixed</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V19" t="n">
+      <c r="V18" t="n">
         <v>9</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W18" t="n">
         <v>8</v>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>13:00-16:00</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>Chochołów</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>water_attractions, kids_attractions, relaxation</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>Warto wybrać się w godzinach porannych lub wieczornych, by uniknąć największego tłoku i móc w pełni korzystać z atrakcji term oraz podziwiać widok na Tatry.</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AI18" t="inlineStr">
         <is>
           <t>Parking Termy Chochołów</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>315, 34-513 Chochołów</t>
         </is>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK18" t="n">
         <v>49.3520575535073</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL18" t="n">
         <v>19.82175897064164</v>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN18" t="n">
         <v>2</v>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 secondary</t>
         </is>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP18" t="n">
         <v>0</v>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>thermal_baths, water_slides, kids_zone, sauna_zone, long_stay_possible</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Terma Bania</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Kompleks basenów termalnych i stref rekreacyjnych z widokiem na Tatry.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Terma Bania to nowoczesny kompleks kąpielisk termalnych w Białce Tatrzańskiej. Obejmuje strefy rekreacyjne, baseny termalne zewnętrzne i wewnętrzne, zjeżdżalnie, sauny oraz strefę SPA. Woda termalna wydobywana z głębokich odwiertów jest bogata w minerały i ma właściwości zdrowotne. Obiekt oferuje relaks zarówno dla rodzin, jak i osób szukających odprężenia. Latem oraz zimą zapewnia liczne atrakcje wodne oraz przestrzeń do wypoczynku z widokiem na Tatry.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>To idealne miejsce na relaks w wodach termalnych z pięknym widokiem na góry, a także rozrywkę dla całej rodziny.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>mon:9:00-22:00,
 tue:9:00-22:00,
@@ -4262,7 +4217,7 @@
 sun:9:00-22:00,</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[
 {
@@ -4279,186 +4234,186 @@
 ]</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H19" t="n">
         <v>120</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I19" t="n">
         <v>360</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Bilet normalny: 95/105 zł; Bilet ulgowy: 75/85 zł</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K19" t="n">
         <v>95</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L19" t="n">
         <v>75</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>Środkowa 181, 34-405 Białka Tatrzańska, Poland</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="O19" t="n">
         <v>49.3878209</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P19" t="n">
         <v>20.0990954</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>https://www.termabania.pl/</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>https://www.termabania.pl/cennik</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>mixed</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V20" t="n">
+      <c r="V19" t="n">
         <v>9</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W19" t="n">
         <v>7</v>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>13:00-16:00</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>Białka Tatrzańska</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>water_attractions, kids_attractions, relaxation</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>Warto odwiedzić termy poza sezonem wysokim, aby uniknąć tłumów i w pełni zrelaksować się w strefie saun.</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AI19" t="inlineStr">
         <is>
           <t>Parking Terma Bania</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>Środkowa 181, 34-405 Białka Tatrzańska, Poland</t>
         </is>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK19" t="n">
         <v>49.38778654963126</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL19" t="n">
         <v>20.10039184808332</v>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN19" t="n">
         <v>2</v>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>secondary</t>
         </is>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP19" t="n">
         <v>0</v>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>thermal_baths, water_slides, kids_zone,  sauna_zone, spa_pools</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Termy Bukovina</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Nowoczesny kompleks basenów termalnych oferujący relaks i atrakcje wodne.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Termy Bukovina to jeden z największych i najnowocześniejszych kompleksów termalnych w Polsce. Oferują szeroki wybór basenów z wodą geotermalną, zjeżdżalnie, strefę saun oraz liczne atrakcje dla dzieci i dorosłych. Obiekt posiada również bogatą ofertę spa, restauracje i strefę relaksu. Położone w malowniczej Bukowinie Tatrzańskiej, zapewniają doskonałe widoki na Tatry oraz możliwość wypoczynku przez cały rok.</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>To idealne miejsce na relaks, odprężenie po górskich wędrówkach i zabawę z rodziną lub przyjaciółmi w wodzie termalnej.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>mon:9:00-22:00,
 tue:9:00-22:00,
@@ -4469,7 +4424,7 @@
 sun:9:00-22:00,</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[
 {
@@ -4486,187 +4441,187 @@
 ]</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H20" t="n">
         <v>120</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I20" t="n">
         <v>360</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Bilet normalny/3,5h: 85/89zł; Bilet ulgowy/3,5h: 64zł/69zł</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K20" t="n">
         <v>85</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L20" t="n">
         <v>64</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>Sportowa 22, 34-530 Bukowina Tatrzańska, Poland</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="O20" t="n">
         <v>49.3248339</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P20" t="n">
         <v>20.0940415</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>https://www.termybukovina.pl/cennik-i-bilety/cennik-i-regulaminy</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>https://www.termybukovina.pl/cennik-i-bilety/cennik-i-regulaminy</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>mixed</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V21" t="n">
+      <c r="V20" t="n">
         <v>9</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W20" t="n">
         <v>7</v>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>12:00-15:00</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>Bukowina Tatrzańska</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>water_attractions, kids_attractions, relaxation</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>Warto wybrać się rano lub w tygodniu, by uniknąć tłumów i dłużej skorzystać z atrakcji.</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AI20" t="inlineStr">
         <is>
           <t>Parking na miejscu</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>Sportowa 22, 34-530 Bukowina Tatrzańska, Poland</t>
         </is>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK20" t="n">
         <v>49.32500339803969</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL20" t="n">
         <v>20.09508661679884</v>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AM20" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN20" t="n">
         <v>1</v>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 secondary</t>
         </is>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP20" t="n">
         <v>0</v>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>thermal_baths, water_slides, kids_zone, sauna_zone, long_stay_possible</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Wielka Krokiew</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Największa skocznia narciarska w Polsce i ikona sportowa Zakopanego.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Wielka Krokiew to najbardziej znana skocznia narciarska w Polsce, zaprojektowana przez Karola Stryjeńskiego i oddana do użytku w 1925 roku. Położona jest w malowniczej okolicy u podnóża Tatr. Regularnie organizowane są tu zawody Pucharu Świata w skokach narciarskich, a także inne wydarzenia sportowe. Skocznia stanowi jeden z symboli Zakopanego oraz całego regionu i jest atrakcją nie tylko dla miłośników sportów zimowych. Poza zawodami, obiekt jest dostępny do zwiedzania – można wjechać koleją linową na szczyt i podziwiać panoramę Tatr i Zakopanego.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>To miejsce kultowe dla miłośników sportów i niepowtarzalny punkt widokowy na Tatry oraz Zakopane. Wizyta na Wielkiej Krokwi pozwala poczuć sportową atmosferę i zobaczyć na własne oczy miejsce legendarnych zawodów.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>mon:9:00-17:00,
 tue:9:00-17:00,
@@ -4677,7 +4632,7 @@
 sun:9:00-17:00,</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[
 {
@@ -4694,186 +4649,186 @@
 ]</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H21" t="n">
         <v>45</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I21" t="n">
         <v>90</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Bilet normalny: 25,00 zł; Bilet ulgowy: 20,00 zł</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K21" t="n">
         <v>25</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L21" t="n">
         <v>20</v>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>ul. Bronisława Czecha 1, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="O21" t="n">
         <v>49.2794102</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P21" t="n">
         <v>19.9639442</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>https://zakopane.cos.pl/1814/kolej-linowa-na-wielkiej-krokwi</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>https://zakopane.cos.pl/641/cennik</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>outdoor</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>good_weather_only</t>
         </is>
       </c>
-      <c r="V22" t="n">
+      <c r="V21" t="n">
         <v>9</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W21" t="n">
         <v>8</v>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>12:00-15:00</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>morning, afternoon</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>active_sport, nature_landscape</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="AG22" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>Najlepsze widoki rozciągają się ze szczytu skoczni – wjedź kolejką, by zrobić efektowne zdjęcia. Zwiedzanie poza zawodami jest spokojniejsze i pozwala lepiej docenić miejsce.</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AI21" t="inlineStr">
         <is>
           <t>Parking miejski</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>Józefa Piłsudskiego 28-32, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK21" t="n">
         <v>49.28220695693889</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL21" t="n">
         <v>19.96447342331977</v>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN21" t="n">
         <v>1</v>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="AP22" t="n">
+      <c r="AP21" t="n">
         <v>0</v>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>viewpoint, mountain_views, photo_spot, easy_access_nature</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Centrum Edukacji Przyrodniczej Tatrzańskiego Parku Narodowego</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Nowoczesne centrum edukacyjne prezentujące bogactwo przyrody Tatr oraz działalność Tatrzańskiego Parku Narodowego.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Centrum Edukacji Przyrodniczej Tatrzańskiego Parku Narodowego w Zakopanem to interaktywne muzeum, w którym odwiedzający mogą poznać wyjątkową florę, faunę i geologię Tatr. Znajdują się tu nowoczesne wystawy multimedialne, realistyczne dioramy, imponujący model Tatr oraz sala projekcyjna. Centrum promuje wiedzę o ochronie przyrody, a edukacja prowadzona jest w przystępny sposób dla dzieci i dorosłych.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>To miejsce pozwala pogłębić wiedzę o Tatrach w atrakcyjny i angażujący sposób. Idealne zarówno dla rodzin z dziećmi, jak i pasjonatów przyrody.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 mon:8:00-16:00, 
@@ -4885,7 +4840,7 @@
 sun:closed,</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[
 {
@@ -4902,186 +4857,186 @@
 ]</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H22" t="n">
         <v>60</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I22" t="n">
         <v>120</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>wstęp bezpłatny, wstęp do sali odkryć 20,00 zł</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Tytusa Chałubińskiego 42a, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="O22" t="n">
         <v>49.284941</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P22" t="n">
         <v>19.9720608</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>https://tpn.gov.pl/centrum-edukacji-przyrodniczej</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>https://tpn.gov.pl/centrum-edukacji-przyrodniczej</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>indoor</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V23" t="n">
+      <c r="V22" t="n">
         <v>8</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W22" t="n">
         <v>8</v>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>10:00-14:00</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>museum_heritage</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>Na miejscu można skorzystać z bezpłatnych przewodników multimedialnych oraz wziąć udział w warsztatach edukacyjnych – warto sprawdzić aktualny harmonogram zajęć.</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AI22" t="inlineStr">
         <is>
           <t>Parking na miejscu</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>Tytusa Chałubińskiego 42a, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK23" t="n">
+      <c r="AK22" t="n">
         <v>49.28526190879251</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL22" t="n">
         <v>19.9716100958812</v>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN23" t="n">
+      <c r="AN22" t="n">
         <v>1</v>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="AP23" t="n">
+      <c r="AP22" t="n">
         <v>0</v>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>themed_museum, multimedia_exhibition, interactive_exhibits</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Wystawa Figur Woskowych EXPO Krupówki</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Wystawa prezentująca realistyczne figury woskowe znanych postaci.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Wystawa Figur Woskowych EXPO Krupówki to wyjątkowa atrakcja w centrum Zakopanego. Znajdziesz tu realistyczne postaci z wosku przedstawiające słynne osobistości ze świata filmu, muzyki, sportu i historii. Miejsce to pozwala zrobić sobie zdjęcie z ulubionym idolem i przenieść się na chwilę w świat gwiazd. To świetna rozrywka zarówno dla dzieci, jak i dorosłych.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Warto odwiedzić, aby zobaczyć imponująco wykonane figury woskowe znanych postaci, a także zrobić oryginalne pamiątkowe zdjęcia. To doskonały sposób na urozmaicenie pobytu na Krupówkach i rozrywkę niezależnie od pogody.</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>mon:10:00-22:00,
 tue:10:00-22:00,
@@ -5092,7 +5047,7 @@
 sun:10:00-22:00,</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[
 {
@@ -5109,186 +5064,186 @@
 ]</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H23" t="n">
         <v>30</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I23" t="n">
         <v>60</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Bilet normalny: 45,00 zł; Bilet ulgowy: 35,00 zł</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="K23" t="n">
         <v>45</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L23" t="n">
         <v>35</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Krupówki 60, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="O23" t="n">
         <v>49.2912955</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P23" t="n">
         <v>19.9604778</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>https://poloniawaxmuseum.com/zakopane/kontakt/</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>https://poloniawaxmuseum.com/zakopane/bilet/</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>indoor</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V24" t="n">
+      <c r="V23" t="n">
         <v>7</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W23" t="n">
         <v>5</v>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>12:00-15:00</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>morning, afternoon</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>museum_heritage</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>mediun</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="AG24" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH24" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>Zabierz aparat lub telefon, bo figury można fotografować bez ograniczeń.</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AI23" t="inlineStr">
         <is>
           <t>Parking miejski przy ulicy</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>Aleje 3-go maja, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK24" t="n">
+      <c r="AK23" t="n">
         <v>49.29251552805412</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AL23" t="n">
         <v>19.95908605418339</v>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN24" t="n">
+      <c r="AN23" t="n">
         <v>3</v>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>optional</t>
         </is>
       </c>
-      <c r="AP24" t="n">
+      <c r="AP23" t="n">
         <v>0</v>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>themed_museum, interactive_exhibit, intimate_small_museum</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Wielka Wystawa Klocków LEGO</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Imponująca wystawa prezentująca największe modele wykonane z klocków LEGO.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Wielka Wystawa Klocków LEGO to miejsce, gdzie podziwiać można setki modeli stworzonych z milionów klocków LEGO. Prezentowane są zarówno znane budowle, postacie z bajek, jak i imponujące makiety interaktywne. To atrakcja zarówno dla dzieci, jak i dorosłych fanów tych kultowych klocków, łącząca zabawę z nauką i inspiracją do własnej kreatywności.</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>To jedna z największych wystaw LEGO w Polsce, idealna dla rodzin i miłośników LEGO w każdym wieku. Pozwala zobaczyć niesamowite konstrukcje oraz inspirować się do własnych projektów.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>mon:10:00-21:00,
 tue:10:00-21:00,
@@ -5299,7 +5254,7 @@
 sun:10:00-21:00,</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[
 {
@@ -5316,186 +5271,186 @@
 ]</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H24" t="n">
         <v>30</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I24" t="n">
         <v>60</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Bilet normalny: 35,00 zł; Bilet ulgowy 30,00 zł</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="K24" t="n">
         <v>35</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L24" t="n">
         <v>30</v>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>Krupówki 40, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="O24" t="n">
         <v>49.292904</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P24" t="n">
         <v>19.9560636</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>brak</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>brak</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>indoor</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V25" t="n">
+      <c r="V24" t="n">
         <v>5</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W24" t="n">
         <v>4</v>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>12:00-15:00</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>morning, afternoon</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>friends, family_kids</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>museum_heritage, kids_attractions</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="AG25" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH25" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>Zaplanuj wizytę w godzinach porannych, aby uniknąć tłumów i mieć więcej czasu na dokładne obejrzenie ekspozycji.</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AI24" t="inlineStr">
         <is>
           <t>Parking w centrum Zakopanego</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>plac Niepodległości 5, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK25" t="n">
+      <c r="AK24" t="n">
         <v>49.29236171073057</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AL24" t="n">
         <v>19.95519221654092</v>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AM24" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN25" t="n">
+      <c r="AN24" t="n">
         <v>2</v>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>optional</t>
         </is>
       </c>
-      <c r="AP25" t="n">
+      <c r="AP24" t="n">
         <v>0</v>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>miniature_world, interactive_exhibition_kids, creative_workshops_kids</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Muzeum Tatrzańskie</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Muzeum prezentujące historię, kulturę i przyrodę Tatr oraz Podhala.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Muzeum Tatrzańskie w Zakopanem to jedna z najważniejszych instytucji kulturalnych regionu. W jego zbiorach znajdują się eksponaty związane z historią, etnografią, sztuką oraz przyrodą Tatr i Podhala. Zwiedzający mogą zobaczyć bogate kolekcje dzieł sztuki, przedmiotów codziennego użytku dawnych górali, a także eksponaty związane z fauną i florą gór. Muzeum organizuje również wystawy czasowe oraz wydarzenia kulturalne, przybliżając tradycje i dziedzictwo tego wyjątkowego regionu.</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>To idealne miejsce, aby lepiej poznać historię Zakopanego, kulturę góralską oraz bogactwo tatrzańskiej przyrody. Muzeum stanowi doskonały punkt startowy do dalszego odkrywania Tatr i regionu Podhala.</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>mon:closed,
 tue:closed,
@@ -5506,7 +5461,7 @@
 sun:10:00-18:00,</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[
 {
@@ -5523,185 +5478,185 @@
 ]</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H25" t="n">
         <v>60</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I25" t="n">
         <v>120</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>bilet normalny 24 zł 
 bilet ulgowy 12 zł</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="K25" t="n">
         <v>24</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L25" t="n">
         <v>12</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>Krupówki 10, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O26" t="n">
+      <c r="O25" t="n">
         <v>49.2949668</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P25" t="n">
         <v>19.9499116</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>https://muzeumtatrzanskie.pl/zwiedzanie/godziny-otwarcia/</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>https://muzeumtatrzanskie.pl/zwiedzanie/godziny-otwarcia/</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>indoor</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V26" t="n">
+      <c r="V25" t="n">
         <v>7</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W25" t="n">
         <v>8</v>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>11:00-15:00</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>morning, afternoon</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>solo, couples, friends, seniors</t>
         </is>
       </c>
-      <c r="AB26" s="1" t="n">
+      <c r="AB25" s="1" t="n">
         <v>41913</v>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>museum_heritage</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>cultural</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG26" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH26" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>Warto zwiedzić także filie muzeum, rozproszone w różnych częściach Zakopanego i okolicy, gdzie prezentowane są m.in. sztuka współczesna i ekspozycje związane ze słynnymi mieszkańcami regionu.</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AI25" t="inlineStr">
         <is>
           <t>Parking Krupówki 20</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>Mariusza Zaruskiego 1, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK26" t="n">
+      <c r="AK25" t="n">
         <v>49.29429371765401</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL25" t="n">
         <v>19.95164171402313</v>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AM25" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN26" t="n">
+      <c r="AN25" t="n">
         <v>3</v>
       </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="AP26" t="n">
+      <c r="AP25" t="n">
         <v>0</v>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>regional_heritage, mountain_culture, temporary_exhibitions, multimedia_exhibition</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Muzeum Kornela Makuszyńskiego</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Oddział Muzeum Tatrzańskiego poświęcony życiu i twórczości Kornela Makuszyńskiego.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Muzeum Kornela Makuszyńskiego to oddział Muzeum Tatrzańskiego mieszczący się w willi Opolanka w Zakopanem. Ekspozycja prezentuje liczne pamiątki po znanym pisarzu, rękopisy, zdjęcia, listy oraz przedmioty codziennego użytku. Można tu także zobaczyć bogaty księgozbiór, dzieła sztuki, odznaczenia i eksponaty związane z Zakopanem, w którym Makuszyński spędził ostatnie lata życia. Wnętrza zachowują klimat dawnej epoki, pozwalając odwiedzającym przenieść się do czasów twórcy Koziołka Matołka.</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Muzeum to gratka dla miłośników literatury polskiej, szczególnie książek dla dzieci. Pozwala bliżej poznać niezwykłą postać Kornela Makuszyńskiego oraz poczuć atmosferę Zakopanego z początku XX wieku.</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>mon:closed,
 tue:9:00-17:00,
@@ -5712,7 +5667,7 @@
 sun:closed,</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[
 {
@@ -5729,185 +5684,185 @@
 ]</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H26" t="n">
         <v>30</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I26" t="n">
         <v>90</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>bilet normalny 14 zł 
 bilet ulgowy 7 zł</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="K26" t="n">
         <v>14</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L26" t="n">
         <v>7</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>Kazimierza Przerwy-Tetmajera 15, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="O26" t="n">
         <v>49.2894914</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P26" t="n">
         <v>19.9581178</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>https://muzeumtatrzanskie.pl/filie/muzeum-kornela-makuszynskiego/</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>https://muzeumtatrzanskie.pl/filie/muzeum-kornela-makuszynskiego/</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>indoor</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V27" t="n">
+      <c r="V26" t="n">
         <v>6</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W26" t="n">
         <v>7</v>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>12:00-14:00</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB27" s="1" t="n">
+      <c r="AB26" s="1" t="n">
         <v>41913</v>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>museum_heritage</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>cultural</t>
         </is>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>Warto połączyć wizytę z odwiedzeniem innych oddziałów Muzeum Tatrzańskiego – często dostępny jest bilet łączony.</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr">
+      <c r="AI26" t="inlineStr">
         <is>
           <t>Parking Tetmajera 17</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>Kazimierza Przerwy-Tetmajera 17, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK27" t="n">
+      <c r="AK26" t="n">
         <v>49.28920668357339</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AL26" t="n">
         <v>19.9578271971264</v>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AM26" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN27" t="n">
+      <c r="AN26" t="n">
         <v>1</v>
       </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>optional</t>
         </is>
       </c>
-      <c r="AP27" t="n">
+      <c r="AP26" t="n">
         <v>0</v>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>composer_artist_house, historic_building, intimate_small_museum</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Muzeum Stylu Zakopiańskiego im. S. Witkiewicza</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Muzeum prezentujące historię i charakterystyczny styl zakopiański w architekturze i sztuce.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Muzeum Stylu Zakopiańskiego im. S. Witkiewicza mieści się w Willi Koliba, będącej pierwszym przykładem stylu zakopiańskiego w architekturze. Ekspozycja prezentuje dokonania Stanisława Witkiewicza, twórcy tego stylu, oraz bogate zbiory rzemiosła, mebli, detali architektonicznych i przedmiotów codziennego użytku z przełomu XIX i XX wieku. Zwiedzający mogą podziwiać unikalne wnętrza oraz poznać historię narodzin oryginalnej zakopiańskiej estetyki.</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>To unikatowa okazja do zgłębienia dziedzictwa kulturowego regionu, zobaczenia oryginalnych projektów Stanisława Witkiewicza i lepszego zrozumienia charakterystycznej architektury Podhala.</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>mon:9:00-17:00,
 tue:closed,
@@ -5918,7 +5873,7 @@
 sun:9:00-17:00,</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[
 {
@@ -5935,185 +5890,185 @@
 ]</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H27" t="n">
         <v>45</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I27" t="n">
         <v>90</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>bilet normalny 22 zł 
 bilet ulgowy 11 zł</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="K27" t="n">
         <v>22</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L27" t="n">
         <v>11</v>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>Kościeliska 18, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O28" t="n">
+      <c r="O27" t="n">
         <v>49.2943331</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P27" t="n">
         <v>19.9429691</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>https://muzeumtatrzanskie.pl/filie/willa-koliba-muzeum-stylu-zakopianskiego/</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>https://muzeumtatrzanskie.pl/filie/willa-koliba-muzeum-stylu-zakopianskiego/</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>indoor</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V28" t="n">
+      <c r="V27" t="n">
         <v>7</v>
       </c>
-      <c r="W28" t="n">
+      <c r="W27" t="n">
         <v>8</v>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>12:00-14:00</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB28" s="1" t="n">
+      <c r="AB27" s="1" t="n">
         <v>41913</v>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>museum_heritage</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>cultural</t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG28" t="inlineStr">
+      <c r="AG27" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>Odwiedź muzeum poza sezonem turystycznym, by zwiedzać w spokojniejszej atmosferze i dokładniej obejrzeć detale architektoniczne Willi Koliba.</t>
         </is>
       </c>
-      <c r="AI28" t="inlineStr">
+      <c r="AI27" t="inlineStr">
         <is>
           <t>Parking na miejscu na cztery samochody</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>Kościeliska 18, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="AK28" t="n">
+      <c r="AK27" t="n">
         <v>49.29423307964222</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AL27" t="n">
         <v>19.94307549195877</v>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AM27" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="AN28" t="n">
+      <c r="AN27" t="n">
         <v>1</v>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>secondary</t>
         </is>
       </c>
-      <c r="AP28" t="n">
+      <c r="AP27" t="n">
         <v>0</v>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>architecture_heritage, mountain_culture, crafts_handicraft, historic_building</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Galeria sztuki w willi Oksza</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Galeria prezentująca zbiory sztuki w zabytkowej willi Oksza, będąca filią Muzeum Tatrzańskiego.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Galeria sztuki w willi Oksza mieści się w zabytkowej willi z początku XX wieku, będącej przykładem stylu zakopiańskiego autorstwa Stanisława Witkiewicza. Jest to filia Muzeum Tatrzańskiego, w której prezentowane są wystawy związane z artystami związanymi z Podhalem, Zakopanem i Tatrami – m.in. malarstwo, grafika, rzeźba oraz fotografie. Wnętrza willi urzekają oryginalnymi detalami architektonicznymi i wyjątkowym klimatem, idealnie dopełniającym ekspozycje.</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>To wyjątkowe miejsce, gdzie można podziwiać sztukę i architekturę regionu oraz dowiedzieć się więcej o artystycznej historii Zakopanego i Tatr.</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>mon:closed,
 tue:9:00-17:00,
@@ -6124,7 +6079,7 @@
 sun:9:00-17:00,</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[
 {
@@ -6141,185 +6096,185 @@
 ]</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H28" t="n">
         <v>45</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I28" t="n">
         <v>90</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>bilet normalny 24 zł 
 bilet ulgowy 12 zł</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="K28" t="n">
         <v>24</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L28" t="n">
         <v>12</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>Hr. Władysława Zamoyskiego 25, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="O28" t="n">
         <v>49.2886803</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P28" t="n">
         <v>19.9663291</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>https://muzeumtatrzanskie.pl/filie/galeria-sztuki-w-willi-oksza/</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>https://muzeumtatrzanskie.pl/filie/galeria-sztuki-w-willi-oksza/</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>indoor</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V29" t="n">
+      <c r="V28" t="n">
         <v>6</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W28" t="n">
         <v>8</v>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>12:00-14:00</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB29" s="1" t="n">
+      <c r="AB28" s="1" t="n">
         <v>41913</v>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>museum_heritage</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>cultural</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>Warto zwrócić uwagę na elementy architektoniczne wnętrza willi, które są przykładem stylu zakopiańskiego.</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AI28" t="inlineStr">
         <is>
           <t>Parking na miejscu</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>Hr. Władysława Zamoyskiego 25, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="AK29" t="n">
+      <c r="AK28" t="n">
         <v>49.28876287435649</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AL28" t="n">
         <v>19.9666987218065</v>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AM28" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="AN29" t="n">
+      <c r="AN28" t="n">
         <v>1</v>
       </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>secondary</t>
         </is>
       </c>
-      <c r="AP29" t="n">
+      <c r="AP28" t="n">
         <v>0</v>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>art_gallery, architecture_heritage, historic_building, temporary_exhibitions</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Muzeum Karola Szymanowskiego w willi "Atma"</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Historyczna willa w stylu zakopiańskim, w której znajduje się muzeum poświęcone Karolowi Szymanowskiemu.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Villa Atma to zabytkowa willa w stylu zakopiańskim, zbudowana na początku XX wieku. Obecnie mieści się tu muzeum poświęcone wybitnemu polskiemu kompozytorowi Karolowi Szymanowskiemu, który spędził w niej ostatnie lata swojego życia. Wnętrza zachowały klimat dawnych czasów i prezentują pamiątki, fotografie, rękopisy oraz instrumenty związane z twórczością artysty. Willa otoczona jest nastrojowym ogrodem, a jej położenie sprzyja spokojnemu zwiedzaniu.</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>To idealne miejsce dla miłośników muzyki, sztuki i historii Zakopanego, a także dla osób zainteresowanych życiem i twórczością Karola Szymanowskiego.</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>mon:closed,
 tue:10:00-17:00,
@@ -6330,7 +6285,7 @@
 sun:10:00-17:00,</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[
 {
@@ -6347,184 +6302,184 @@
 ]</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H29" t="n">
         <v>30</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I29" t="n">
         <v>60</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Bilet normalny: 15.00 zł; Bilet ulgowy: 10.00 zł</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="K29" t="n">
         <v>15</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L29" t="n">
         <v>10</v>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>Kasprusie 19, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O30" t="n">
+      <c r="O29" t="n">
         <v>49.2924196</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P29" t="n">
         <v>19.9484817</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>https://mnk.pl/wystawy/muzeum-biograficzne-karola-szymanowskiego</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>https://bilety.mnk.pl/nienumerowane/muzeum-im-karola-szymanowskiego.html?id=372191</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>indoor</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>all_weather</t>
         </is>
       </c>
-      <c r="V30" t="n">
+      <c r="V29" t="n">
         <v>6</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W29" t="n">
         <v>6</v>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>12:00-14:00</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB30" s="1" t="n">
+      <c r="AB29" s="1" t="n">
         <v>41913</v>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>museum_heritage</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>cultural</t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG30" t="inlineStr">
+      <c r="AG29" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH30" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>Warto sprawdzić aktualny program wydarzeń – w Willi Atma regularnie odbywają się kameralne koncerty i spotkania kulturalne.</t>
         </is>
       </c>
-      <c r="AI30" t="inlineStr">
+      <c r="AI29" t="inlineStr">
         <is>
           <t>PARKING KRUPÓWKI "AK"</t>
         </is>
       </c>
-      <c r="AJ30" t="inlineStr">
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>Ogrodowa 2, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK30" t="n">
+      <c r="AK29" t="n">
         <v>49.29374981765316</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AL29" t="n">
         <v>19.95176421343834</v>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AM29" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN30" t="n">
+      <c r="AN29" t="n">
         <v>6</v>
       </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AO29" t="inlineStr">
         <is>
           <t>secondary</t>
         </is>
       </c>
-      <c r="AP30" t="n">
+      <c r="AP29" t="n">
         <v>0</v>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>composer_artist_house, historic_building, intimate_small_museum</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Tatrzański Park Edukacyjny</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Edukacyjny park zoologiczny, który przybliża przyrodę Tatr i kulturę góralską.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Tatrzański Park Edukacyjny to miejsce stworzone z myślą o najmłodszych, ale również dorosłych, którzy chcą lepiej poznać faunę, florę oraz tradycje regionu tatrzańskiego. W parku znajdują się zagrody ze zwierzętami, ścieżki edukacyjne, mini zoo, figury edukacyjne oraz atrakcje tematyczne inspirowane przyrodą Tatr. Odbywają się tu również warsztaty i prelekcje o lokalnej przyrodzie i kulturze Podhala.</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>To doskonałe miejsce do rodzinnego wypoczynku, poznawania zwierząt żyjących w Tatrach oraz ciekawostek o folklorze i przyrodzie regionu.</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 mon:10:00-16:00 
@@ -6536,7 +6491,7 @@
 sun:10:00-16:00,</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[
 {
@@ -6553,188 +6508,188 @@
 ]</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H30" t="n">
         <v>60</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I30" t="n">
         <v>180</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Bilet normalny 30 zł 
 Bilet ulgowy 25 zł</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="K30" t="n">
         <v>30</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L30" t="n">
         <v>25</v>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Józefa Piłsudskiego 38, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="O30" t="n">
         <v>49.2816859</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P30" t="n">
         <v>19.9623758</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>https://www.tpe.edu.pl/contact</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>https://www.tpe.edu.pl/offer</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>outdoor</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>good_weather_only</t>
         </is>
       </c>
-      <c r="V31" t="n">
+      <c r="V30" t="n">
         <v>7</v>
       </c>
-      <c r="W31" t="n">
+      <c r="W30" t="n">
         <v>6</v>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>11:00-15:00</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>kids_attractions</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="AG31" t="inlineStr">
+      <c r="AG30" t="inlineStr">
         <is>
           <t>spring,
 summer</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>Najlepiej odwiedzić park w tygodniu, aby uniknąć tłumów i mieć więcej czasu na uczestnictwo w warsztatach edukacyjnych.</t>
         </is>
       </c>
-      <c r="AI31" t="inlineStr">
+      <c r="AI30" t="inlineStr">
         <is>
           <t>Parking miejski</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="AJ30" t="inlineStr">
         <is>
           <t>Józefa Piłsudskiego 28-32, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK31" t="n">
+      <c r="AK30" t="n">
         <v>49.28216607253456</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AL30" t="n">
         <v>19.96449449239132</v>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AM30" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN31" t="n">
+      <c r="AN30" t="n">
         <v>4</v>
       </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AO30" t="inlineStr">
         <is>
           <t>optional</t>
         </is>
       </c>
-      <c r="AP31" t="n">
+      <c r="AP30" t="n">
         <v>0</v>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>educational_farm, feeding_experience, educational_exhibition</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Kaplica Najświętszego Serca Pana Jezusa w Jaszczurówce</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Drewniana kaplica w stylu zakopiańskim, będąca jednym z najpiękniejszych przykładów architektury sakralnej regionu.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Kaplica Najświętszego Serca Pana Jezusa w Jaszczurówce to jeden z najcenniejszych zabytków architektury sakralnej w stylu zakopiańskim. Została zaprojektowana przez Stanisława Witkiewicza i wybudowana na początku XX wieku. Wyróżnia się unikalnymi, drewnianymi zdobieniami oraz dużą dbałością o detale regionalne. Wnętrze kaplicy zachwyca atmosferą, subtelnym światłem wpadającym przez witraże i bogactwem góralskich ornamentów.</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>To obowiązkowe miejsce dla miłośników stylu zakopiańskiego oraz osób chcących poznać kulturę i tradycje regionu podhalańskiego.</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>mon:8:00-20:00
 tue:8:00-20:00,
@@ -6745,7 +6700,7 @@
 sun:8:00-20:00,</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[
 {
@@ -6762,186 +6717,186 @@
 ]</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H31" t="n">
         <v>15</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I31" t="n">
         <v>40</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>wstęp bezpłatny</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="K31" t="n">
         <v>0</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>Jaszczurówka 38, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="O31" t="n">
         <v>49.2842616</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P31" t="n">
         <v>20.0013828</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>brak</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>brak</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>outdoor</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>good_weather_only</t>
         </is>
       </c>
-      <c r="V32" t="n">
+      <c r="V31" t="n">
         <v>8</v>
       </c>
-      <c r="W32" t="n">
+      <c r="W31" t="n">
         <v>8</v>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>13:00-14:00</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>morning, midday, afternoon</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>museum_heritage</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG32" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH32" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>Warto odwiedzić kaplicę w trakcie mszy lub koncertów, by poczuć wyjątkową atmosferę tego miejsca.</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AI31" t="inlineStr">
         <is>
           <t>Parking przy ulicy</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr">
+      <c r="AJ31" t="inlineStr">
         <is>
           <t>Droga Oswalda Balzera, 34-500 Zakopane</t>
         </is>
       </c>
-      <c r="AK32" t="n">
+      <c r="AK31" t="n">
         <v>49.28425502719659</v>
       </c>
-      <c r="AL32" t="n">
+      <c r="AL31" t="n">
         <v>20.000749330936</v>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AM31" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="AN32" t="n">
+      <c r="AN31" t="n">
         <v>1</v>
       </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AO31" t="inlineStr">
         <is>
           <t>optional</t>
         </is>
       </c>
-      <c r="AP32" t="n">
+      <c r="AP31" t="n">
         <v>0</v>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>architecture_heritage, mountain_culture, historic_building</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
         <is>
           <t>KULIGI w Zakopanem</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Organizator tradycyjnych kuligów z saniami i pochodniami po zakopiańskich okolicach.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>KULIGI.pl to firma oferująca tradycyjne kuligi w Zakopanem i okolicach. Przejażdżki saniami zaprzężonymi w konie odbywają się w malowniczej scenerii Tatr i polskich lasów. Uczestnicy mogą poczuć klimat dawnej góralskiej zabawy, z pochodniami, śpiewem oraz często z ogniskiem i regionalnymi przekąskami po zakończeniu przejażdżki.</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>To niepowtarzalna okazja, by przeżyć autentyczny, zimowy kulig i poznać lokalne tradycje w wyjątkowej atmosferze zakopiańskiej zimy.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>mon:15:00-19:00
 tue:15:00-19:00,
@@ -6952,7 +6907,7 @@
 sun:15:00-19:00,</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[
   {
@@ -6980,186 +6935,186 @@
 ]</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H32" t="n">
         <v>60</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I32" t="n">
         <v>180</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Kulig tradycyjny z widokami od 247 zł; Kulig nocny z pochodniami od 247,00 zł</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="K32" t="n">
         <v>247</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L32" t="n">
         <v>247</v>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>Mariusza Zaruskiego 1, 34-500 Zakopane, Poland</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="O32" t="n">
         <v>49.294211</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P32" t="n">
         <v>19.9517825</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>https://www.kuligi.pl/</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>https://www.kuligi.pl/</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>outdoor</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>good_weather_only</t>
         </is>
       </c>
-      <c r="V33" t="n">
+      <c r="V32" t="n">
         <v>8</v>
       </c>
-      <c r="W33" t="n">
+      <c r="W32" t="n">
         <v>8</v>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>16:00-19:00</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Y32" t="inlineStr">
         <is>
           <t>afternoon</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>active_sport, relaxation</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>recreational</t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="AG33" t="inlineStr">
+      <c r="AG32" t="inlineStr">
         <is>
           <t>winter</t>
         </is>
       </c>
-      <c r="AH33" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>Najlepszy klimat kuligu jest po zmroku – pochodnie i śnieg tworzą wtedy niepowtarzalny nastrój.</t>
         </is>
       </c>
-      <c r="AI33" t="inlineStr">
+      <c r="AI32" t="inlineStr">
         <is>
           <t>Parking przy Siwej Polanie</t>
         </is>
       </c>
-      <c r="AJ33" t="inlineStr">
+      <c r="AJ32" t="inlineStr">
         <is>
           <t>34-512 Witów</t>
         </is>
       </c>
-      <c r="AK33" t="n">
+      <c r="AK32" t="n">
         <v>49.28807813151476</v>
       </c>
-      <c r="AL33" t="n">
+      <c r="AL32" t="n">
         <v>19.84804736703877</v>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AM32" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN33" t="n">
+      <c r="AN32" t="n">
         <v>1</v>
       </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AO32" t="inlineStr">
         <is>
           <t>secondary</t>
         </is>
       </c>
-      <c r="AP33" t="n">
+      <c r="AP32" t="n">
         <v>0</v>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>horse_riding, low_intensity_activity, seasonal_activity, group_activity</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Dolina Chochołowska</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Najdłuższa i jedna z najpiękniejszych dolin w polskich Tatrach, popularna zarówno wśród turystów pieszych, jak i rowerzystów.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Dolina Chochołowska to największa i najdłuższa dolina w polskich Tatrach, rozciągająca się na długości ok. 10 km. Słynie z malowniczych krajobrazów, rozległych polan oraz typowych tatrzańskich szałasów pasterskich. Wiosną dolina przyciąga tłumy turystów, którzy podziwiają dywany krokusów. Szlak przez dolinę jest łagodny i dostępny także dla rodzin z dziećmi, rowerzystów czy osób starszych. W Dolinie znajduje się również schronisko górskie, gdzie można odpocząć i zjeść regionalne potrawy.</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>To miejsce obowiązkowe dla miłośników przyrody, fotografów i osób szukających spokojnych wędrówek z dala od tłumów popularnych szlaków. Dolina Chochołowska oferuje niepowtarzalne widoki o każdej porze roku.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>mon:7:00-20:00
 tue:7:00-20:00,
@@ -7170,7 +7125,7 @@
 sun:7:00-20:00,</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[
   {
@@ -7208,178 +7163,178 @@
 }]</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H33" t="n">
         <v>270</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I33" t="n">
         <v>350</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Bilet normalny: 11,00 zł, Bilet ulgow: 3,50 zł</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="K33" t="n">
         <v>11</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L33" t="n">
         <v>5.5</v>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>34-512 Witów</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O34" t="n">
+      <c r="O33" t="n">
         <v>49.2666667</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P33" t="n">
         <v>19.8333333</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
         <is>
           <t>outdoor</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>good_weather_only</t>
         </is>
       </c>
-      <c r="V34" t="n">
+      <c r="V33" t="n">
         <v>8</v>
       </c>
-      <c r="W34" t="n">
+      <c r="W33" t="n">
         <v>90</v>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>10:00-15:00</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>morning</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>Witów</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AB33" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>mountain_trails</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AD33" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG34" t="inlineStr">
+      <c r="AG33" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH34" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>Największe wrażenie robi wiosną, gdy cały teren pokryty jest kwitnącymi krokusami – warto przyjechać wcześnie rano, by uniknąć tłumów.</t>
         </is>
       </c>
-      <c r="AI34" t="inlineStr">
+      <c r="AI33" t="inlineStr">
         <is>
           <t>Parking przy Siwej Polanie</t>
         </is>
       </c>
-      <c r="AJ34" t="inlineStr">
+      <c r="AJ33" t="inlineStr">
         <is>
           <t>34-512 Witów</t>
         </is>
       </c>
-      <c r="AK34" t="n">
+      <c r="AK33" t="n">
         <v>49.28807813151476</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AL33" t="n">
         <v>19.84804736703877</v>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AM33" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN34" t="n">
+      <c r="AN33" t="n">
         <v>5</v>
       </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="AP34" t="n">
+      <c r="AP33" t="n">
         <v>0</v>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>must_see, nature_landscapes, hiking, scenic_views</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Dolina Kościeliska</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Jedna z najpiękniejszych tatrzańskich dolin, słynąca z malowniczych krajobrazów, jaskiń i górskich szlaków.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Dolina Kościeliska to druga co do wielkości dolina w polskich Tatrach, oferująca niezwykle urokliwe widoki, bogactwo flory i fauny oraz wiele ciekawych atrakcji przyrodniczych. Podczas spaceru lub wędrówki turyści mogą podziwiać wapienne skały, bystre potoki oraz odwiedzić dostępne jaskinie, takie jak Mroźna czy Raptawicka. Dolina jest łatwo dostępna i bardzo popularna zarówno wśród rodzin, jak i bardziej doświadczonych turystów. Znajdują się tu także liczne polany, gdzie można odpocząć, oraz schronisko PTTK na Hali Ornak.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>To jedno z must-see Tatr – niesamowite widoki, łatwy dostęp i ciekawe formacje skalne sprawiają, że wizyta w Dolinie Kościeliskiej dostarcza niezapomnianych wrażeń każdemu, bez względu na wiek czy doświadczenie górskie.</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>mon:8:00-20:00
 tue:8:00-20:00,
@@ -7390,7 +7345,7 @@
 sun:8:00-20:00,</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[
   {
@@ -7429,178 +7384,178 @@
 ]</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H34" t="n">
         <v>180</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I34" t="n">
         <v>270</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Bilet normalny: 11,00 zł, Bilet ulgow: 3,50 zł</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="K34" t="n">
         <v>11</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L34" t="n">
         <v>5.5</v>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>Dolina Kościeliska 3, 34-511 Kościelisko</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O35" t="n">
+      <c r="O34" t="n">
         <v>49.25</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P34" t="n">
         <v>19.8666667</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
         <is>
           <t>outdoor</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>good_weather_only</t>
         </is>
       </c>
-      <c r="V35" t="n">
+      <c r="V34" t="n">
         <v>9</v>
       </c>
-      <c r="W35" t="n">
+      <c r="W34" t="n">
         <v>88</v>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>10:00-15:00</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>rano</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>Kościelisko</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AB34" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>mountain_trails</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG35" t="inlineStr">
+      <c r="AG34" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH35" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>Polecam wybrać się rano, by uniknąć tłumów i cieszyć się ciszą oraz spokojem natury. Koniecznie zabierz latarkę na zwiedzanie jaskiń!</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AI34" t="inlineStr">
         <is>
           <t>Parking płatny</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr">
+      <c r="AJ34" t="inlineStr">
         <is>
           <t>Strzelców Podhalańskich 58, 43-229 Kościelisko</t>
         </is>
       </c>
-      <c r="AK35" t="n">
+      <c r="AK34" t="n">
         <v>49.27567766423668</v>
       </c>
-      <c r="AL35" t="n">
+      <c r="AL34" t="n">
         <v>19.86923843610088</v>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AM34" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN35" t="n">
+      <c r="AN34" t="n">
         <v>5</v>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="AP35" t="n">
+      <c r="AP34" t="n">
         <v>0</v>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>must_see, nature_landscapes, hiking, scenic_views</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Rusinowa Polana</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Malownicza polana w Tatrach, oferująca piękne widoki na okoliczne szczyty.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Rusinowa Polana to jedna z najpiękniejszych tatrzańskich polan, położona na wysokości około 1200–1300 m n.p.m. Rozciąga się stąd wspaniały widok na Tatry Wysokie, m.in. na Gerlacha, Rysy czy Mięguszowieckie Szczyty. Jest znanym miejscem wypoczynku dla turystów, szczególnie latem i jesienią. Z polany prowadzą szlaki m.in. na Gęsią Szyję. Nierzadko można tu spotkać pasące się owce i bacówki, w których kupić można regionalne oscypki. Miejsce to jest idealne zarówno na rodzinne spacery, jak i dłuższe wędrówki.</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Warto odwiedzić Rusinową Polanę dla spektakularnych panoram Tatr, unikalnego klimatu regionu i tradycyjnego pasterstwa.</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>mon:8:00-20:00
 tue:8:00-20:00,
@@ -7611,7 +7566,7 @@
 sun:8:00-20:00,</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[
   {
@@ -7650,178 +7605,178 @@
 ]</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H35" t="n">
         <v>150</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I35" t="n">
         <v>240</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Bilet normalny: 11,00 zł, Bilet ulgow: 3,50 zł</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="K35" t="n">
         <v>11</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L35" t="n">
         <v>5.5</v>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t xml:space="preserve"> 34-532 Brzegi</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="O35" t="n">
         <v>49.2607771</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P35" t="n">
         <v>20.0895038</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
         <is>
           <t>outdoor</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>good_weather_only</t>
         </is>
       </c>
-      <c r="V36" t="n">
+      <c r="V35" t="n">
         <v>8</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W35" t="n">
         <v>9</v>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>10:00-15:00</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>morning</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>Rusinowa Polana</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>mountain_trails</t>
         </is>
       </c>
-      <c r="AD36" t="inlineStr">
+      <c r="AD35" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG36" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH36" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>Najpiękniejsze widoki zobaczysz podczas wschodu słońca – wtedy polana jest mniej zatłoczona.</t>
         </is>
       </c>
-      <c r="AI36" t="inlineStr">
+      <c r="AI35" t="inlineStr">
         <is>
           <t>Parking Wierch Poroniec</t>
         </is>
       </c>
-      <c r="AJ36" t="inlineStr">
+      <c r="AJ35" t="inlineStr">
         <is>
           <t>DW960, 34-532 Brzegi</t>
         </is>
       </c>
-      <c r="AK36" t="n">
+      <c r="AK35" t="n">
         <v>49.28495541022139</v>
       </c>
-      <c r="AL36" t="n">
+      <c r="AL35" t="n">
         <v>20.11278591938301</v>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AM35" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN36" t="n">
+      <c r="AN35" t="n">
         <v>3</v>
       </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="AP36" t="n">
+      <c r="AP35" t="n">
         <v>0</v>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>easy_walk, family_friendly_trail, viewpoint_trail, out_and_back, trailhead_parking, stroller_friendly, crowd_prone</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Morskie Oko</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Największe i jedno z najpiękniejszych jezior w Tatrach, otoczone spektakularnymi szczytami górskimi.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Morskie Oko to największe jezioro w polskich Tatrach, położone na wysokości 1395 m n.p.m. w Dolinie Rybiego Potoku. Otoczone majestatycznymi szczytami, takimi jak Mięguszowieckie Szczyty, stanowi jeden z najbardziej popularnych celów pieszych wycieczek w regionie. Krystalicznie czysta woda oraz malownicze widoki przyciągają turystów zarówno latem, jak i zimą. Przy jeziorze znajduje się także schronisko górskie.</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Morskie Oko zachwyca spektakularnymi krajobrazami i doskonałymi możliwościami do fotografii. Szlak do jeziora to popularna górska trasa, idealna dla osób szukających kontaktu z przyrodą i pięknymi widokami.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>mon:8:00-20:00
 tue:8:00-20:00,
@@ -7832,7 +7787,7 @@
 sun:8:00-20:00,</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[
   {
@@ -7871,150 +7826,150 @@
 ]</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H36" t="n">
         <v>180</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I36" t="n">
         <v>270</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Bilet normalny: 11,00 zł, Bilet ulgow: 3,50 zł</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="K36" t="n">
         <v>11</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L36" t="n">
         <v>5.5</v>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>Droga Oswalda Balzera, 34-532 Brzegi</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>Małopolska</t>
         </is>
       </c>
-      <c r="O37" t="n">
+      <c r="O36" t="n">
         <v>49.1971411</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P36" t="n">
         <v>20.070087</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
         <is>
           <t>outdoor</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>good_weather_only</t>
         </is>
       </c>
-      <c r="V37" t="n">
+      <c r="V36" t="n">
         <v>10</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W36" t="n">
         <v>95</v>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>9:00-16:00</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>morning</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>Zakopane</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>3-6, 6-10, 10-14</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>mountain_trails</t>
         </is>
       </c>
-      <c r="AD37" t="inlineStr">
+      <c r="AD36" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AE36" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>budget</t>
         </is>
       </c>
-      <c r="AG37" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>all_year</t>
         </is>
       </c>
-      <c r="AH37" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>Aby uniknąć tłumów, najlepiej zaplanować wycieczkę wcześnie rano lub poza weekendem. Warto zabrać ze sobą prowiant i odpowiednie obuwie.</t>
         </is>
       </c>
-      <c r="AI37" t="inlineStr">
+      <c r="AI36" t="inlineStr">
         <is>
           <t>Parking Palenica Białczańska</t>
         </is>
       </c>
-      <c r="AJ37" t="inlineStr">
+      <c r="AJ36" t="inlineStr">
         <is>
           <t>Droga Oswalda Balzera, 34-532 Brzegi</t>
         </is>
       </c>
-      <c r="AK37" t="n">
+      <c r="AK36" t="n">
         <v>49.25627181318524</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AL36" t="n">
         <v>20.10349998425671</v>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AM36" t="inlineStr">
         <is>
           <t>paid</t>
         </is>
       </c>
-      <c r="AN37" t="n">
+      <c r="AN36" t="n">
         <v>7</v>
       </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AO36" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="AP37" t="n">
+      <c r="AP36" t="n">
         <v>0</v>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>must_see, nature_landscapes, hiking, easy_walk, long_distance, scenic_views</t>
         </is>

--- a/data/zakopane.xlsx
+++ b/data/zakopane.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,13 +20,16 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ36"/>
+  <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,217 +438,222 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Description_short</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Description_long</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Why visit</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Opening hours</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>opening_hours_seasonal</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_min</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>time_max</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ticket_normal</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ticket_reduced</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Lat</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Lng</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Link do godzin</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Link do cennika</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Space</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Intensity</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>weather_dependency</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>popularity_score</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Must see score</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Peak hours</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>recommended_time_of_day</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Target group</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Children's age</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Type of attraction</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Activity_style</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>crowd_level</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Budget type</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Seasonality of attractions</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pro_tip</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>parking_name</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>parking_address</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>parking_lat</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>parking_lng</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>parking_type</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>parking_walk_time_min</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>priority_level</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>kids_only</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Tags</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>premium_experience</t>
         </is>
       </c>
     </row>
@@ -853,6 +870,9 @@
           <t xml:space="preserve">mountain_culture, regional_heritage, workshop,themed_museum     </t>
         </is>
       </c>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -1063,6 +1083,9 @@
 </t>
         </is>
       </c>
+      <c r="AR3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -1271,6 +1294,9 @@
           <t xml:space="preserve">miniature_world, fairytale_world </t>
         </is>
       </c>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -1480,6 +1506,9 @@
           <t>illusion_kids, interactive_exhibition_kids, interactive_exhibits,</t>
         </is>
       </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -1689,6 +1718,9 @@
 </t>
         </is>
       </c>
+      <c r="AR6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1898,6 +1930,9 @@
 </t>
         </is>
       </c>
+      <c r="AR7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -2036,7 +2071,7 @@
           <t>solo, couples, friends, family_kids</t>
         </is>
       </c>
-      <c r="AB8" s="1" t="n">
+      <c r="AB8" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2106,6 +2141,9 @@
         <is>
           <t>snow_tubing, adrenaline_experience, beginner_friendly,group_activity</t>
         </is>
+      </c>
+      <c r="AR8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2319,6 +2357,9 @@
           <t>playground</t>
         </is>
       </c>
+      <c r="AR9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -2527,6 +2568,9 @@
           <t>indoor_playroom, kids_obstacle_course, sensory_experience_kids</t>
         </is>
       </c>
+      <c r="AR10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2734,6 +2778,9 @@
           <t>indoor_playroom, kids_obstacle_course</t>
         </is>
       </c>
+      <c r="AR11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -2938,6 +2985,9 @@
           <t>dinosaur_theme, walkthrough_experience, family_theme_park</t>
         </is>
       </c>
+      <c r="AR12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -3145,6 +3195,9 @@
           <t>illusion_kids, interactive_exhibition_kids, science_center_kids</t>
         </is>
       </c>
+      <c r="AR13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -3352,6 +3405,9 @@
           <t>illusion_kids, interactive_exhibition_kids</t>
         </is>
       </c>
+      <c r="AR14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -3559,6 +3615,9 @@
           <t>playground, kids_obstacle_course</t>
         </is>
       </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -3767,6 +3826,9 @@
           <t>thermal_baths, water_slides, family_friendly_water, spa_pools, sauna_zone</t>
         </is>
       </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -3975,6 +4037,9 @@
           <t>thermal_baths, relax_zone, thermal_relax_focus, long_stay_possible, evening_relax</t>
         </is>
       </c>
+      <c r="AR17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -4183,6 +4248,9 @@
           <t>thermal_baths, water_slides, kids_zone, sauna_zone, long_stay_possible</t>
         </is>
       </c>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -4390,6 +4458,9 @@
           <t>thermal_baths, water_slides, kids_zone,  sauna_zone, spa_pools</t>
         </is>
       </c>
+      <c r="AR19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -4598,6 +4669,9 @@
           <t>thermal_baths, water_slides, kids_zone, sauna_zone, long_stay_possible</t>
         </is>
       </c>
+      <c r="AR20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -4805,6 +4879,9 @@
           <t>viewpoint, mountain_views, photo_spot, easy_access_nature</t>
         </is>
       </c>
+      <c r="AR21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -5013,6 +5090,9 @@
           <t>themed_museum, multimedia_exhibition, interactive_exhibits</t>
         </is>
       </c>
+      <c r="AR22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -5220,6 +5300,9 @@
           <t>themed_museum, interactive_exhibit, intimate_small_museum</t>
         </is>
       </c>
+      <c r="AR23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -5427,6 +5510,9 @@
           <t>miniature_world, interactive_exhibition_kids, creative_workshops_kids</t>
         </is>
       </c>
+      <c r="AR24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -5563,7 +5649,7 @@
           <t>solo, couples, friends, seniors</t>
         </is>
       </c>
-      <c r="AB25" s="1" t="n">
+      <c r="AB25" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC25" t="inlineStr">
@@ -5632,6 +5718,9 @@
         <is>
           <t>regional_heritage, mountain_culture, temporary_exhibitions, multimedia_exhibition</t>
         </is>
+      </c>
+      <c r="AR25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5769,7 +5858,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB26" s="1" t="n">
+      <c r="AB26" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC26" t="inlineStr">
@@ -5838,6 +5927,9 @@
         <is>
           <t>composer_artist_house, historic_building, intimate_small_museum</t>
         </is>
+      </c>
+      <c r="AR26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5975,7 +6067,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB27" s="1" t="n">
+      <c r="AB27" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC27" t="inlineStr">
@@ -6044,6 +6136,9 @@
         <is>
           <t>architecture_heritage, mountain_culture, crafts_handicraft, historic_building</t>
         </is>
+      </c>
+      <c r="AR27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6181,7 +6276,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB28" s="1" t="n">
+      <c r="AB28" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6250,6 +6345,9 @@
         <is>
           <t>art_gallery, architecture_heritage, historic_building, temporary_exhibitions</t>
         </is>
+      </c>
+      <c r="AR28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6386,7 +6484,7 @@
           <t>solo, couples, friends, family_kids, seniors</t>
         </is>
       </c>
-      <c r="AB29" s="1" t="n">
+      <c r="AB29" s="2" t="n">
         <v>41913</v>
       </c>
       <c r="AC29" t="inlineStr">
@@ -6455,6 +6553,9 @@
         <is>
           <t>composer_artist_house, historic_building, intimate_small_museum</t>
         </is>
+      </c>
+      <c r="AR29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6666,6 +6767,9 @@
           <t>educational_farm, feeding_experience, educational_exhibition</t>
         </is>
       </c>
+      <c r="AR30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -6872,6 +6976,9 @@
         <is>
           <t>architecture_heritage, mountain_culture, historic_building</t>
         </is>
+      </c>
+      <c r="AR31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7090,6 +7197,9 @@
         <is>
           <t>horse_riding, low_intensity_activity, seasonal_activity, group_activity</t>
         </is>
+      </c>
+      <c r="AR32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -7310,6 +7420,9 @@
         <is>
           <t>must_see, nature_landscapes, hiking, scenic_views</t>
         </is>
+      </c>
+      <c r="AR33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7532,6 +7645,9 @@
           <t>must_see, nature_landscapes, hiking, scenic_views</t>
         </is>
       </c>
+      <c r="AR34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -7753,6 +7869,9 @@
           <t>easy_walk, family_friendly_trail, viewpoint_trail, out_and_back, trailhead_parking, stroller_friendly, crowd_prone</t>
         </is>
       </c>
+      <c r="AR35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -7974,6 +8093,9 @@
           <t>must_see, nature_landscapes, hiking, easy_walk, long_distance, scenic_views</t>
         </is>
       </c>
+      <c r="AR36" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
